--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\CC_Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D705ECF-5908-40EF-9989-F352190C8B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176F2C7-D14E-447B-ABB0-306914DFC0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="368">
   <si>
     <t>Name</t>
   </si>
@@ -1068,9 +1068,6 @@
     <t>Search for Addiction Treatment Providers by location, availability, and length of wait-list</t>
   </si>
   <si>
-    <t>tel: 18778467369</t>
-  </si>
-  <si>
     <t>http://albanydamiencenter.org</t>
   </si>
   <si>
@@ -1090,13 +1087,70 @@
   </si>
   <si>
     <t>Find a Therapist (Psych Today)</t>
+  </si>
+  <si>
+    <t>https://nyproblemgamblinghelp.org/e-screener/</t>
+  </si>
+  <si>
+    <t>NYS Gambling E-Screener</t>
+  </si>
+  <si>
+    <t>27/4</t>
+  </si>
+  <si>
+    <t>GAMB</t>
+  </si>
+  <si>
+    <t>Complete a free anonymous Problem Gambling Screener and get personalized feedback and resources</t>
+  </si>
+  <si>
+    <t>tel:18004262537</t>
+  </si>
+  <si>
+    <t>https://www.ncpgambling.org/help-treatment/chat/</t>
+  </si>
+  <si>
+    <t>Free and Confidential Hotline - Click the link above to Chat online now - Text 800GAM</t>
+  </si>
+  <si>
+    <t>Gamblers Anonymous</t>
+  </si>
+  <si>
+    <t>https://www.gamblersanonymous.org/ga/content/about-us</t>
+  </si>
+  <si>
+    <t>GAMBLERS ANONYMOUS is a fellowship of men and women who share their experience, strength and hope with each other that they may solve their common problem and help others to recover from a gambling problem</t>
+  </si>
+  <si>
+    <t>Gam-Anon</t>
+  </si>
+  <si>
+    <t>https://www.gam-anon.org/</t>
+  </si>
+  <si>
+    <t>Provides information for the general public and professional community about problem (compulsive) gambling and its financial and emotional effects on the gamblers' families and loved ones.</t>
+  </si>
+  <si>
+    <t>OASAS Problem Gambling Treatment Locator</t>
+  </si>
+  <si>
+    <t>https://webapps.oasas.ny.gov/providerDirectory/index.cfm#:~:text=Problem%20Gambling%20Treatment%20and%20Prevention</t>
+  </si>
+  <si>
+    <t>24/7</t>
+  </si>
+  <si>
+    <t>Locate treatment services for Problem Gambling in NYS</t>
+  </si>
+  <si>
+    <t>National Gambler Support Line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,6 +1296,25 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0C0C0C"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1588,16 +1661,18 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1954,974 +2029,975 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="88.36328125" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="96.36328125" customWidth="1"/>
-    <col min="5" max="8" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="88.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="96.36328125" style="3" customWidth="1"/>
+    <col min="5" max="8" width="25.08984375" style="3" customWidth="1"/>
     <col min="9" max="9" width="78.08984375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>285</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="5" t="s">
         <v>323</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2930,388 +3006,388 @@
       <c r="D36" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="H37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="H38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>298</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="H41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="3" t="s">
         <v>299</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="H45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="H46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="H50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="H51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -3320,689 +3396,689 @@
       <c r="D52" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="H52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2" t="s">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="H53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2" t="s">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="H54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="2" t="s">
+      <c r="H56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="H57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="H58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="H59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="2" t="s">
+      <c r="H60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="2" t="s">
+      <c r="H61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>302</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="2" t="s">
+      <c r="H62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2" t="s">
+      <c r="H63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="2" t="s">
+      <c r="H64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="H65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="2" t="s">
+      <c r="H66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="H67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="2" t="s">
+      <c r="H71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="2" t="s">
+      <c r="H72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="H73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="H74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2" t="s">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="2" t="s">
+      <c r="H75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="2" t="s">
+      <c r="H76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s">
+      <c r="B77" s="1"/>
+      <c r="C77" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2" t="s">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="2" t="s">
+      <c r="H77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -4011,220 +4087,337 @@
       <c r="D79" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2" t="s">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="H79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2" t="s">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s">
+      <c r="B81" s="1"/>
+      <c r="C81" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2" t="s">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="2" t="s">
+      <c r="H81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2" t="s">
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2" t="s">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="2" t="s">
+      <c r="H84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2" t="s">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="2" t="s">
+      <c r="H85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C86" t="s">
-        <v>342</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C86" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="G87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
+      <c r="H88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>348</v>
+      <c r="E89" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4284,8 +4477,11 @@
     <hyperlink ref="C79" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
     <hyperlink ref="D87" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
     <hyperlink ref="D88" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D90" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C90" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C86" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId53"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId56"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\CC_Rolodex\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ModuleTest\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176F2C7-D14E-447B-ABB0-306914DFC0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5FF76-1DF7-47A1-9B35-8D788CC79120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17820" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="368">
   <si>
     <t>Name</t>
   </si>
@@ -2029,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2401,36 +2401,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>339</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>192</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>144</v>
@@ -2454,12 +2445,12 @@
         <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>144</v>
@@ -2483,12 +2474,12 @@
         <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>144</v>
@@ -2512,12 +2503,12 @@
         <v>26</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>144</v>
@@ -2541,56 +2532,56 @@
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>313</v>
+        <v>284</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>285</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>194</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>62</v>
@@ -2599,27 +2590,27 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>62</v>
@@ -2628,25 +2619,27 @@
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>62</v>
@@ -2655,721 +2648,687 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>350</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>203</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>342</v>
+        <v>213</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>354</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>73</v>
+        <v>357</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>207</v>
+      <c r="I27" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>273</v>
+      <c r="I28" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>26</v>
+      <c r="A29" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>216</v>
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G36" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>87</v>
+      <c r="C38" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>93</v>
+        <v>294</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>316</v>
+        <v>295</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>367</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>354</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>233</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>99</v>
+        <v>330</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3" t="s">
-        <v>282</v>
+        <v>27</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>235</v>
+        <v>296</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+        <v>344</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3380,1106 +3339,1167 @@
         <v>10</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>300</v>
+        <v>97</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="G53" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>302</v>
+        <v>160</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>254</v>
+        <v>282</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>328</v>
+        <v>282</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>260</v>
+        <v>282</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>262</v>
+        <v>282</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>159</v>
+        <v>331</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>74</v>
+        <v>301</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F71" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G71" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>331</v>
+        <v>161</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>156</v>
+        <v>118</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>342</v>
+        <v>163</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>309</v>
+        <v>119</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C76" s="3" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C77" s="3" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>307</v>
+      <c r="C78" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G79" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G80" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C81" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E81" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E82" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F82" s="1" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>329</v>
+        <v>14</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G83" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G84" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>166</v>
+        <v>19</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>128</v>
+        <v>311</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>340</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>345</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>346</v>
+        <v>24</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>351</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C90" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>213</v>
+        <v>330</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>367</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>355</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>352</v>
+        <v>127</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>356</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>358</v>
+        <v>168</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>352</v>
+        <v>127</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>359</v>
+        <v>26</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>361</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>352</v>
+        <v>127</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>362</v>
+        <v>26</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H94" s="3" t="s">
+      <c r="A94" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>366</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
-    <sortCondition ref="G2:G85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I95">
+    <sortCondition ref="G2:G95"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F43" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C65" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C68" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C52" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D69" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F53" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C75" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C78" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C62" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D79" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
     <hyperlink ref="D2" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
     <hyperlink ref="D4" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D35" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D83" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D80" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D72" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D38" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D39" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D61" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D45" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D44" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D43" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D42" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D41" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D40" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D46" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D47" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D48" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D49" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D50" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D51" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D52" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D53" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D54" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D55" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D56" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D57" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D58" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D59" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D60" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D62" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D31" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C31" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="D43" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D93" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D90" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D82" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D46" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D47" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D71" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D55" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D54" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D53" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D52" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D51" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D48" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D56" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D57" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D58" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D59" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D60" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D61" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D62" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D63" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D64" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D65" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D66" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D67" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D68" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D69" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D70" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D72" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D38" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C38" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
     <hyperlink ref="C13" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C80" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D74" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D25" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C25" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C74" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D79" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D36" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C36" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C79" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D87" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D88" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D90" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C90" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C86" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="C90" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D84" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D32" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C32" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C84" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D89" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D44" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C44" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C89" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D49" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D50" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D25" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C25" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C14" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId56"/>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\ModuleTest\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5FF76-1DF7-47A1-9B35-8D788CC79120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA0111E-4921-4FF4-89EF-022B11FDBBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17820" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="480" windowWidth="17820" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -1145,12 +1145,43 @@
   <si>
     <t>National Gambler Support Line</t>
   </si>
+  <si>
+    <t>Find a Helpline</t>
+  </si>
+  <si>
+    <t>https://findahelpline.com/i/iasp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find a wide variety of FREE helplines available in the US. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CATEGORIES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Abuse &amp; Domestic Violence; Anxiety; Bullying; Depression; Eating &amp; Body Image; Family; Gambling; Gender &amp; Sexual Identity; Grief &amp; Loss; Loneliness; Physical illness; Pregnancy &amp; Abortion; Relationships; School &amp; Work; Self-harm; Sexual abuse; Stress; Substance use; Suicidal thoughts; Supporting others; Trauma &amp; PTSD</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,6 +1346,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0C0C0C"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2029,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="G80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4438,6 +4477,23 @@
       </c>
       <c r="I95" s="1" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA0111E-4921-4FF4-89EF-022B11FDBBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CEF6B-1DA9-48A8-A580-68D71658F309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="480" windowWidth="17820" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Find a wide variety of FREE helplines available in the US. </t>
+      <t xml:space="preserve">Find a wide variety of FREE helplines available in the US and Internationally. </t>
     </r>
     <r>
       <rPr>
@@ -2071,7 +2071,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CEF6B-1DA9-48A8-A580-68D71658F309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFED204-5C32-40E2-AF48-66AEFAFF32C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="480" windowWidth="17820" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="383">
   <si>
     <t>Name</t>
   </si>
@@ -1175,6 +1175,42 @@
       </rPr>
       <t>: Abuse &amp; Domestic Violence; Anxiety; Bullying; Depression; Eating &amp; Body Image; Family; Gambling; Gender &amp; Sexual Identity; Grief &amp; Loss; Loneliness; Physical illness; Pregnancy &amp; Abortion; Relationships; School &amp; Work; Self-harm; Sexual abuse; Stress; Substance use; Suicidal thoughts; Supporting others; Trauma &amp; PTSD</t>
     </r>
+  </si>
+  <si>
+    <t>OASAS Naloxone Training Calendar</t>
+  </si>
+  <si>
+    <t>https://oasas.ny.gov/keywords/naloxone</t>
+  </si>
+  <si>
+    <t>Register for virtual or in person Naloxone (NARCAN) trainings. If you attend virtually, a free Naloxone kit will be mailed to your address.</t>
+  </si>
+  <si>
+    <t>SMART Recovery Meetings</t>
+  </si>
+  <si>
+    <t>Refuge Recovery Meetings</t>
+  </si>
+  <si>
+    <t>AA Meetings</t>
+  </si>
+  <si>
+    <t>https://meetings.smartrecovery.org/meetings/</t>
+  </si>
+  <si>
+    <t>Find a SMART Reocvery Meeting. SMART stands for Self Management and Recovery Training. SMART Recovery helps people recover from addictive and problematic behaviors, using a self-empowering and evidence-informed program.</t>
+  </si>
+  <si>
+    <t>https://refugerecoverymeetings.org/meetings?tsml-day=any&amp;tsml-type=ONL</t>
+  </si>
+  <si>
+    <t>Find a Refuge Recovery Meeting. Refuge Recovery is a systematic method based on Buddhist principles, which integrates scientific, non-theistic, and psychological insight. Viewing addiction as craving in the mind and body, Refuge Recovery shows how a path of meditative awareness can alleviate those desires and ease suffering.</t>
+  </si>
+  <si>
+    <t>https://www.aa.org/find-aa</t>
+  </si>
+  <si>
+    <t>Find an Alcoholic's Anonymous Meeting. Alcoholics Anonymous is a fellowship of men and women who share their experience, strength and hope with each other that they may solve their common problem and help others to recover from alcoholism. The only requirement for membership is a desire to stop drinking.</t>
   </si>
 </sst>
 </file>
@@ -2068,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="G68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4494,6 +4530,74 @@
       </c>
       <c r="I96" s="1" t="s">
         <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFED204-5C32-40E2-AF48-66AEFAFF32C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573961F0-D6E6-4437-A84B-75CD777D5DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="385">
   <si>
     <t>Name</t>
   </si>
@@ -581,9 +581,6 @@
   </si>
   <si>
     <t>Central campus resource for students, family, faculty, and staff to build a more connected campus</t>
-  </si>
-  <si>
-    <t>Never Use Alone</t>
   </si>
   <si>
     <t xml:space="preserve">Academic support - first-gen students - students with economic difficulties and/or disabilities </t>
@@ -1211,6 +1208,15 @@
   </si>
   <si>
     <t>Find an Alcoholic's Anonymous Meeting. Alcoholics Anonymous is a fellowship of men and women who share their experience, strength and hope with each other that they may solve their common problem and help others to recover from alcoholism. The only requirement for membership is a desire to stop drinking.</t>
+  </si>
+  <si>
+    <t>Never Use Alone (English)</t>
+  </si>
+  <si>
+    <t>tel:18009285330</t>
+  </si>
+  <si>
+    <t>Never Use Alone (Spanish)</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1742,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1748,6 +1754,7 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2104,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2158,7 +2165,7 @@
         <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>133</v>
@@ -2187,13 +2194,13 @@
         <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -2216,7 +2223,7 @@
         <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>34</v>
@@ -2245,7 +2252,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>37</v>
@@ -2274,7 +2281,7 @@
         <v>144</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>40</v>
@@ -2290,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2301,7 +2308,7 @@
         <v>144</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>43</v>
@@ -2317,7 +2324,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2328,7 +2335,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>46</v>
@@ -2355,7 +2362,7 @@
         <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
@@ -2378,11 +2385,11 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>382</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>51</v>
@@ -2396,71 +2403,66 @@
         <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>336</v>
+        <v>384</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>184</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>324</v>
+        <v>186</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2471,19 +2473,24 @@
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>339</v>
+        <v>136</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2491,47 +2498,38 @@
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>338</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>192</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>57</v>
@@ -2554,13 +2552,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>57</v>
@@ -2578,18 +2576,18 @@
         <v>26</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
@@ -2607,18 +2605,18 @@
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>57</v>
@@ -2636,56 +2634,56 @@
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>313</v>
+        <v>283</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>284</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>193</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>62</v>
@@ -2694,27 +2692,27 @@
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>62</v>
@@ -2723,25 +2721,27 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>62</v>
@@ -2750,172 +2750,170 @@
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>351</v>
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="G25" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>355</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>356</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>359</v>
+      <c r="I27" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="G29" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="8" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="C31" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
         <v>71</v>
       </c>
@@ -2923,25 +2921,27 @@
         <v>10</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>71</v>
@@ -2950,24 +2950,26 @@
         <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>311</v>
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>71</v>
       </c>
@@ -2975,28 +2977,24 @@
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>71</v>
       </c>
@@ -3004,26 +3002,28 @@
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,71 +3031,75 @@
         <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G37" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>213</v>
+      <c r="C38" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3106,19 +3110,19 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>216</v>
+      <c r="C39" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -3129,23 +3133,21 @@
         <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
         <v>79</v>
@@ -3154,21 +3156,23 @@
         <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
         <v>79</v>
@@ -3177,19 +3181,22 @@
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>367</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>355</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
         <v>79</v>
       </c>
@@ -3197,46 +3204,41 @@
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>356</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="G43" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>220</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3244,31 +3246,29 @@
         <v>84</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>10</v>
@@ -3279,19 +3279,21 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C46" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
         <v>86</v>
       </c>
@@ -3299,56 +3301,52 @@
         <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>93</v>
+        <v>296</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>86</v>
@@ -3357,32 +3355,44 @@
         <v>26</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>345</v>
+        <v>92</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>86</v>
@@ -3391,39 +3401,33 @@
         <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="G51" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>315</v>
@@ -3437,24 +3441,22 @@
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
         <v>96</v>
       </c>
@@ -3467,17 +3469,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="G54" s="1" t="s">
         <v>96</v>
       </c>
@@ -3485,19 +3489,19 @@
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3508,19 +3512,19 @@
         <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3531,19 +3535,19 @@
         <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3554,19 +3558,19 @@
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3577,19 +3581,19 @@
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3600,19 +3604,19 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3623,19 +3627,19 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3646,44 +3650,44 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>300</v>
+        <v>104</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="3" t="s">
-        <v>282</v>
+        <v>114</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3694,19 +3698,19 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3717,19 +3721,19 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>321</v>
+        <v>107</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3740,19 +3744,19 @@
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3763,19 +3767,19 @@
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3786,19 +3790,19 @@
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3809,19 +3813,19 @@
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3832,19 +3836,19 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3855,54 +3859,50 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F72" s="1" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>115</v>
@@ -3911,24 +3911,26 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>254</v>
+        <v>301</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G73" s="1" t="s">
         <v>115</v>
       </c>
@@ -3936,21 +3938,21 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>326</v>
+        <v>118</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3961,25 +3963,23 @@
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>304</v>
+        <v>163</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
         <v>115</v>
@@ -3988,23 +3988,25 @@
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>305</v>
+        <v>255</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
         <v>115</v>
@@ -4013,21 +4015,21 @@
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4038,56 +4040,52 @@
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>275</v>
+        <v>165</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>124</v>
+        <v>150</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>115</v>
@@ -4096,27 +4094,27 @@
         <v>26</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>115</v>
@@ -4125,55 +4123,55 @@
         <v>26</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F81" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G81" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>331</v>
+        <v>159</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>12</v>
+        <v>290</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
         <v>9</v>
       </c>
@@ -4181,27 +4179,27 @@
         <v>10</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>156</v>
+        <v>11</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>180</v>
+        <v>300</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>9</v>
@@ -4210,25 +4208,27 @@
         <v>10</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E84" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F84" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>9</v>
@@ -4237,24 +4237,26 @@
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>311</v>
+        <v>17</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>9</v>
       </c>
@@ -4262,19 +4264,21 @@
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C86" s="3" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4285,19 +4289,19 @@
         <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4308,75 +4312,73 @@
         <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="3" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>329</v>
+        <v>154</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>28</v>
+        <v>334</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4384,77 +4386,77 @@
         <v>9</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>216</v>
+        <v>141</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>28</v>
+        <v>306</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G93" s="1" t="s">
         <v>127</v>
       </c>
@@ -4462,19 +4464,21 @@
         <v>26</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C94" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>83</v>
+        <v>329</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -4482,7 +4486,7 @@
         <v>127</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>219</v>
@@ -4490,21 +4494,17 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
         <v>127</v>
       </c>
@@ -4512,49 +4512,59 @@
         <v>10</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H96" s="3" t="s">
+      <c r="A96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>52</v>
@@ -4563,15 +4573,15 @@
         <v>10</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>52</v>
@@ -4580,15 +4590,15 @@
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>52</v>
@@ -4597,69 +4607,86 @@
         <v>10</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I95">
-    <sortCondition ref="G2:G95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I96">
+    <sortCondition ref="G2:G96"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F53" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C75" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C78" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C62" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D79" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F54" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C76" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C79" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C63" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D80" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
     <hyperlink ref="D2" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
     <hyperlink ref="D4" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D43" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D93" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D90" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D82" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D46" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D47" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D71" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D55" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D54" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D53" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D52" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D51" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D48" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D56" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D57" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D58" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D59" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D60" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D61" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D62" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D63" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D64" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D65" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D66" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D67" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D68" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D69" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D70" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D72" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D38" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C38" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
-    <hyperlink ref="C13" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C90" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D84" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D32" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C32" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C84" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D89" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D44" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C44" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C89" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D49" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D50" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D25" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C25" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C14" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="D44" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D94" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D91" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D83" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D47" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D48" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D72" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D56" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D55" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D54" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D53" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D52" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D49" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D57" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D58" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D59" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D60" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D61" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D62" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D63" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D64" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D65" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D66" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D67" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D68" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D69" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D70" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D71" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D73" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D39" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C39" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="C14" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
+    <hyperlink ref="C91" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D85" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D33" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C33" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C85" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D90" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D45" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C45" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C90" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D50" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D51" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D26" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C26" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C15" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId56"/>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573961F0-D6E6-4437-A84B-75CD777D5DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FE516-5C68-43D9-8B56-0005043C4983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="388">
   <si>
     <t>Name</t>
   </si>
@@ -1218,12 +1218,21 @@
   <si>
     <t>Never Use Alone (Spanish)</t>
   </si>
+  <si>
+    <t>The Brave App</t>
+  </si>
+  <si>
+    <t>https://www.brave.coop/overdose-detection-app</t>
+  </si>
+  <si>
+    <t>Set up a Rescue Plan that details how, when, and who will be sent for help in the event you overdose. Anonymously and privately connect to a Brave Supporter through the app before you use drugs alone. They will stay on the line with you until you feel that you are safe.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1396,6 +1405,11 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1742,7 +1756,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1754,7 +1768,8 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2111,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2426,68 +2441,61 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>335</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>183</v>
+        <v>10</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>323</v>
+        <v>186</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2498,19 +2506,24 @@
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>338</v>
+        <v>136</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
@@ -2518,41 +2531,32 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>338</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>191</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>144</v>
@@ -2576,12 +2580,12 @@
         <v>26</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>144</v>
@@ -2605,12 +2609,12 @@
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>144</v>
@@ -2634,12 +2638,12 @@
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>144</v>
@@ -2663,56 +2667,56 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>312</v>
+        <v>283</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>284</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>50</v>
+        <v>193</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>62</v>
@@ -2721,27 +2725,27 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>62</v>
@@ -2750,25 +2754,27 @@
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>62</v>
@@ -2777,42 +2783,46 @@
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>350</v>
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>351</v>
       </c>
@@ -2820,19 +2830,22 @@
         <v>10</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>213</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>354</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
         <v>351</v>
       </c>
@@ -2840,15 +2853,18 @@
         <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>355</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>351</v>
@@ -2856,16 +2872,16 @@
       <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>358</v>
+      <c r="I28" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>351</v>
@@ -2873,76 +2889,64 @@
       <c r="H29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
         <v>71</v>
       </c>
@@ -2950,25 +2954,27 @@
         <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>71</v>
@@ -2977,24 +2983,26 @@
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>310</v>
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>71</v>
       </c>
@@ -3002,28 +3010,24 @@
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,26 +3035,28 @@
         <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>71</v>
       </c>
@@ -3058,71 +3064,75 @@
         <v>10</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G38" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>212</v>
+      <c r="C39" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -3133,19 +3143,19 @@
         <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>215</v>
+      <c r="C40" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3156,23 +3166,21 @@
         <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
         <v>79</v>
@@ -3181,21 +3189,23 @@
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
         <v>79</v>
@@ -3204,19 +3214,22 @@
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>366</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>354</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
         <v>79</v>
       </c>
@@ -3224,46 +3237,41 @@
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="G44" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>219</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3271,54 +3279,54 @@
         <v>84</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>223</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
         <v>86</v>
       </c>
@@ -3326,56 +3334,52 @@
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>93</v>
+        <v>296</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>86</v>
@@ -3384,32 +3388,44 @@
         <v>26</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>344</v>
+        <v>92</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>86</v>
@@ -3418,42 +3434,36 @@
         <v>10</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="G52" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3464,24 +3474,22 @@
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
         <v>96</v>
       </c>
@@ -3489,22 +3497,24 @@
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>313</v>
+        <v>99</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="G55" s="1" t="s">
         <v>96</v>
       </c>
@@ -3512,19 +3522,19 @@
         <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3535,19 +3545,19 @@
         <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3558,19 +3568,19 @@
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3581,19 +3591,19 @@
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3604,19 +3614,19 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3627,19 +3637,19 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3650,19 +3660,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3673,44 +3683,44 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>299</v>
+        <v>104</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="3" t="s">
-        <v>281</v>
+        <v>114</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3721,19 +3731,19 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3744,19 +3754,19 @@
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3767,19 +3777,19 @@
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3790,19 +3800,19 @@
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3813,19 +3823,19 @@
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3836,19 +3846,19 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3859,19 +3869,19 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3882,54 +3892,50 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F73" s="1" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>115</v>
@@ -3938,24 +3944,26 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>253</v>
+        <v>301</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G74" s="1" t="s">
         <v>115</v>
       </c>
@@ -3963,21 +3971,21 @@
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>325</v>
+        <v>118</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3988,25 +3996,23 @@
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>303</v>
+        <v>163</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>257</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
         <v>115</v>
@@ -4015,23 +4021,25 @@
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>304</v>
+        <v>255</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
         <v>115</v>
@@ -4040,21 +4048,21 @@
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4070,51 +4078,47 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>274</v>
+        <v>165</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>124</v>
+        <v>150</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>115</v>
@@ -4123,27 +4127,27 @@
         <v>26</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>263</v>
+        <v>276</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>115</v>
@@ -4152,55 +4156,55 @@
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F82" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G82" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>12</v>
+        <v>290</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
         <v>9</v>
       </c>
@@ -4208,27 +4212,27 @@
         <v>10</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>156</v>
+        <v>11</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>180</v>
+        <v>300</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>9</v>
@@ -4237,25 +4241,27 @@
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E85" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>9</v>
@@ -4264,24 +4270,26 @@
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>310</v>
+        <v>17</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>9</v>
       </c>
@@ -4289,19 +4297,21 @@
         <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C87" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4312,19 +4322,19 @@
         <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4335,75 +4345,73 @@
         <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>328</v>
+        <v>154</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>28</v>
+        <v>334</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4411,77 +4419,77 @@
         <v>9</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>215</v>
+        <v>141</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B93" s="1"/>
       <c r="C93" s="3" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>28</v>
+        <v>306</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G94" s="1" t="s">
         <v>127</v>
       </c>
@@ -4489,19 +4497,21 @@
         <v>26</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C95" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>83</v>
+        <v>329</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4509,29 +4519,25 @@
         <v>127</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
         <v>127</v>
       </c>
@@ -4539,49 +4545,59 @@
         <v>10</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>52</v>
@@ -4590,15 +4606,15 @@
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>52</v>
@@ -4607,15 +4623,15 @@
         <v>10</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>52</v>
@@ -4624,69 +4640,86 @@
         <v>10</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>381</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I96">
-    <sortCondition ref="G2:G96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I97">
+    <sortCondition ref="G2:G97"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F54" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C76" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C79" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C63" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D80" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="F22" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F55" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C77" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C80" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C64" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D81" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
     <hyperlink ref="D2" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
     <hyperlink ref="D4" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D44" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D94" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D91" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D83" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D47" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D48" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D72" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D56" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D21" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D55" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D54" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D53" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D52" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D49" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D57" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D58" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D59" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D60" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D61" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D62" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D63" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D64" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D65" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D66" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D67" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D68" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D69" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D70" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D71" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D73" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D39" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C39" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
-    <hyperlink ref="C14" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C91" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D85" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D33" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C33" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C85" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D90" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D45" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C45" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C90" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D50" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D51" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D26" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C26" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C15" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="D45" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D95" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D92" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D84" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D48" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D49" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D73" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D57" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D56" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D55" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D54" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D53" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D50" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D58" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D59" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D60" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D61" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D62" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D63" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D64" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D65" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D66" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D67" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D68" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D69" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D70" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D71" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D72" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D74" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C40" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="C15" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
+    <hyperlink ref="C92" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D86" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D34" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C34" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C86" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D91" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D46" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C46" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C91" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D51" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D52" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D27" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C27" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C16" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId56"/>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FE516-5C68-43D9-8B56-0005043C4983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01EE0F2-0ADF-4A1C-8011-0B12D485A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33290" yWindow="3440" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="391">
   <si>
     <t>Name</t>
   </si>
@@ -1226,6 +1226,15 @@
   </si>
   <si>
     <t>Set up a Rescue Plan that details how, when, and who will be sent for help in the event you overdose. Anonymously and privately connect to a Brave Supporter through the app before you use drugs alone. They will stay on the line with you until you feel that you are safe.</t>
+  </si>
+  <si>
+    <t>Drug Index (CampusDrugPrevention.gov)</t>
+  </si>
+  <si>
+    <t>https://www.campusdrugprevention.gov/drugs</t>
+  </si>
+  <si>
+    <t>The CampusDrugPrevention.gov Drug Index is a one-stop reference for everything related to drugs -- from their appearance, paraphernalia, effects on the body, and more.</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1765,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1770,6 +1779,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2126,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2443,11 +2455,11 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>52</v>
@@ -2455,72 +2467,65 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>335</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>183</v>
+        <v>10</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>323</v>
+        <v>186</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2531,19 +2536,24 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>338</v>
+        <v>136</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
@@ -2551,41 +2561,32 @@
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>338</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>191</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>144</v>
@@ -2609,12 +2610,12 @@
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>144</v>
@@ -2638,12 +2639,12 @@
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>144</v>
@@ -2667,12 +2668,12 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>144</v>
@@ -2696,56 +2697,56 @@
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>312</v>
+        <v>283</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>284</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>193</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>62</v>
@@ -2754,27 +2755,27 @@
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>62</v>
@@ -2783,25 +2784,27 @@
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>62</v>
@@ -2810,42 +2813,46 @@
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>350</v>
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>351</v>
       </c>
@@ -2853,19 +2860,22 @@
         <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>213</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>354</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
         <v>351</v>
       </c>
@@ -2873,15 +2883,18 @@
         <v>10</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>355</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>351</v>
@@ -2889,16 +2902,16 @@
       <c r="H29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>358</v>
+      <c r="I29" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>351</v>
@@ -2906,76 +2919,64 @@
       <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
         <v>71</v>
       </c>
@@ -2983,25 +2984,27 @@
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>71</v>
@@ -3010,24 +3013,26 @@
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>310</v>
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
@@ -3035,28 +3040,24 @@
         <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>71</v>
       </c>
@@ -3064,26 +3065,28 @@
         <v>10</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>71</v>
       </c>
@@ -3091,71 +3094,75 @@
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G39" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>212</v>
+      <c r="C40" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3166,19 +3173,19 @@
         <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>215</v>
+      <c r="C41" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3189,23 +3196,21 @@
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
         <v>79</v>
@@ -3214,21 +3219,23 @@
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
         <v>79</v>
@@ -3237,19 +3244,22 @@
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>366</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>354</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
         <v>79</v>
       </c>
@@ -3257,46 +3267,41 @@
         <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="G45" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>219</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3304,54 +3309,54 @@
         <v>84</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>223</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,56 +3364,52 @@
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>93</v>
+        <v>296</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>86</v>
@@ -3417,32 +3418,44 @@
         <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>344</v>
+        <v>92</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>86</v>
@@ -3451,42 +3464,36 @@
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="G53" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3497,24 +3504,22 @@
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
         <v>96</v>
       </c>
@@ -3522,22 +3527,24 @@
         <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>313</v>
+        <v>99</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>96</v>
       </c>
@@ -3545,19 +3552,19 @@
         <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3568,19 +3575,19 @@
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3591,19 +3598,19 @@
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3614,19 +3621,19 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3637,19 +3644,19 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3660,19 +3667,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3683,19 +3690,19 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3706,44 +3713,44 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>299</v>
+        <v>104</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="3" t="s">
-        <v>281</v>
+        <v>114</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3754,19 +3761,19 @@
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3777,19 +3784,19 @@
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3800,19 +3807,19 @@
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3823,19 +3830,19 @@
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3846,19 +3853,19 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3869,19 +3876,19 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3892,19 +3899,19 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3915,54 +3922,50 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E74" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>115</v>
@@ -3971,24 +3974,26 @@
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>253</v>
+        <v>301</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G75" s="1" t="s">
         <v>115</v>
       </c>
@@ -3996,21 +4001,21 @@
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>325</v>
+        <v>118</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4021,25 +4026,23 @@
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>303</v>
+        <v>163</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>257</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
         <v>115</v>
@@ -4048,23 +4051,25 @@
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>304</v>
+        <v>255</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E78" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
         <v>115</v>
@@ -4073,21 +4078,21 @@
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4103,51 +4108,47 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>274</v>
+        <v>165</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>124</v>
+        <v>150</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>115</v>
@@ -4156,27 +4157,27 @@
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>263</v>
+        <v>276</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>115</v>
@@ -4185,55 +4186,55 @@
         <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G83" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>12</v>
+        <v>290</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
         <v>9</v>
       </c>
@@ -4241,27 +4242,27 @@
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>156</v>
+        <v>11</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>180</v>
+        <v>300</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>9</v>
@@ -4270,25 +4271,27 @@
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E86" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F86" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>9</v>
@@ -4297,24 +4300,26 @@
         <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>310</v>
+        <v>17</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>9</v>
       </c>
@@ -4322,19 +4327,21 @@
         <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C88" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4345,19 +4352,19 @@
         <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -4368,75 +4375,73 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="3" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>328</v>
+        <v>154</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>28</v>
+        <v>334</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4444,77 +4449,77 @@
         <v>9</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>215</v>
+        <v>141</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>28</v>
+        <v>306</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G95" s="1" t="s">
         <v>127</v>
       </c>
@@ -4522,19 +4527,21 @@
         <v>26</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C96" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>83</v>
+        <v>329</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4542,29 +4549,25 @@
         <v>127</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
         <v>127</v>
       </c>
@@ -4572,49 +4575,59 @@
         <v>10</v>
       </c>
       <c r="I97" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>52</v>
@@ -4623,15 +4636,15 @@
         <v>10</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>52</v>
@@ -4640,15 +4653,15 @@
         <v>10</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>52</v>
@@ -4657,69 +4670,86 @@
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>381</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I97">
-    <sortCondition ref="G2:G97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
+    <sortCondition ref="G2:G98"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F55" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C77" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C80" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C64" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D81" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F56" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C78" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C81" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C65" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D82" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
     <hyperlink ref="D2" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
     <hyperlink ref="D4" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D45" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D95" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D92" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D84" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D48" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D49" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D73" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D57" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D56" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D55" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D54" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D53" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D50" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D58" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D59" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D60" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D61" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D62" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D63" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D64" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D65" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D66" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D67" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D68" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D69" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D70" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D71" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D72" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D74" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C40" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
-    <hyperlink ref="C15" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C92" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D86" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D34" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C34" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C86" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D91" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D46" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C46" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C91" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D51" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D52" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D27" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C27" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C16" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="D46" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D96" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D93" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D85" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D49" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D50" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D74" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D58" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D57" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D56" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D55" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D54" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D51" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D59" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D60" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D61" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D62" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D63" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D64" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D65" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D66" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D67" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D68" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D69" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D70" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D71" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D72" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D73" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D75" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="C16" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
+    <hyperlink ref="C93" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D87" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D35" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C35" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C87" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D92" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D47" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C47" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C92" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D28" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C28" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C17" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId56"/>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01EE0F2-0ADF-4A1C-8011-0B12D485A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DD0EC1-9765-4DE0-BC1D-A8D64F11F1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33290" yWindow="3440" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="395">
   <si>
     <t>Name</t>
   </si>
@@ -1235,6 +1235,18 @@
   </si>
   <si>
     <t>The CampusDrugPrevention.gov Drug Index is a one-stop reference for everything related to drugs -- from their appearance, paraphernalia, effects on the body, and more.</t>
+  </si>
+  <si>
+    <t>(988) National Suicide &amp; Crisis Lifeline</t>
+  </si>
+  <si>
+    <t>tel:988</t>
+  </si>
+  <si>
+    <t>https://988lifeline.org/chat/</t>
+  </si>
+  <si>
+    <t>Free and confidential emotional support to people in suicidal crisis or emotional distress 24 hours a day, 7 days a week, across the United States.</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1777,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1782,6 +1794,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2138,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="A12:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I104" sqref="A104:I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4688,6 +4701,52 @@
       </c>
       <c r="I103" s="1" t="s">
         <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4750,8 +4809,10 @@
     <hyperlink ref="D28" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
     <hyperlink ref="C28" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
     <hyperlink ref="C17" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="C104" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
+    <hyperlink ref="C105" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId56"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId58"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DD0EC1-9765-4DE0-BC1D-A8D64F11F1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007CEB5-AC32-4405-8764-D37BA4AC17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="1160" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="395">
   <si>
     <t>Name</t>
   </si>
@@ -2151,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I104" sqref="A104:I105"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4746,6 +4746,75 @@
         <v>10</v>
       </c>
       <c r="I105" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="7" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4811,8 +4880,11 @@
     <hyperlink ref="C17" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
     <hyperlink ref="C104" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
     <hyperlink ref="C105" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
+    <hyperlink ref="C106" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
+    <hyperlink ref="C107" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
+    <hyperlink ref="C108" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId58"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId61"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007CEB5-AC32-4405-8764-D37BA4AC17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E8119C-8B32-41FC-ADCF-C089EEEA99A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1160" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="400">
   <si>
     <t>Name</t>
   </si>
@@ -1247,6 +1247,21 @@
   </si>
   <si>
     <t>Free and confidential emotional support to people in suicidal crisis or emotional distress 24 hours a day, 7 days a week, across the United States.</t>
+  </si>
+  <si>
+    <t>The Trevor Project</t>
+  </si>
+  <si>
+    <t>tel:1-866-488-7386</t>
+  </si>
+  <si>
+    <t>https://www.thetrevorproject.org/get-help/</t>
+  </si>
+  <si>
+    <t>24/7, 365 days a year</t>
+  </si>
+  <si>
+    <t>The Trevor Project is a nonprofit organization that provides crisis intervention and suicide prevention services for youth. They offer guidance and resources to parents and educators to foster safe, accepting, and inclusive environments for all youth, at home, schools, and colleges. Text 678678</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="G99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4714,7 +4729,7 @@
         <v>393</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>86</v>
@@ -4737,7 +4752,7 @@
         <v>393</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>79</v>
@@ -4760,7 +4775,7 @@
         <v>393</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>96</v>
@@ -4783,7 +4798,7 @@
         <v>393</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>105</v>
@@ -4806,7 +4821,7 @@
         <v>393</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>9</v>
@@ -4816,6 +4831,29 @@
       </c>
       <c r="I108" s="7" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E8119C-8B32-41FC-ADCF-C089EEEA99A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD9B80-5257-49B6-BDE9-2410FADE0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="403">
   <si>
     <t>Name</t>
   </si>
@@ -1262,6 +1262,15 @@
   </si>
   <si>
     <t>The Trevor Project is a nonprofit organization that provides crisis intervention and suicide prevention services for youth. They offer guidance and resources to parents and educators to foster safe, accepting, and inclusive environments for all youth, at home, schools, and colleges. Text 678678</t>
+  </si>
+  <si>
+    <t>NYS Problem Gambling Help</t>
+  </si>
+  <si>
+    <t>https://nyproblemgamblinghelp.org/</t>
+  </si>
+  <si>
+    <t>Find Problem Gambling Resource Centers anywhere in NYS.</t>
   </si>
 </sst>
 </file>
@@ -2166,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4854,6 +4863,26 @@
       </c>
       <c r="I109" s="1" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -4921,8 +4950,9 @@
     <hyperlink ref="C106" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
     <hyperlink ref="C107" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
     <hyperlink ref="C108" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
+    <hyperlink ref="D110" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId61"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId62"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD9B80-5257-49B6-BDE9-2410FADE0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BED03B-CC1A-4169-AA62-FDFBBC2D5A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="406">
   <si>
     <t>Name</t>
   </si>
@@ -1271,6 +1271,15 @@
   </si>
   <si>
     <t>Find Problem Gambling Resource Centers anywhere in NYS.</t>
+  </si>
+  <si>
+    <t>NYS-funded campaign to raise awareness about problem gambling, and connect those struggling with problem gambling to help. They provide e-books, infographics, resources for family members, and resources for help with problem gambling ("Find Help" tab).</t>
+  </si>
+  <si>
+    <t>https://knowtheodds.org/</t>
+  </si>
+  <si>
+    <t>Know the Odds</t>
   </si>
 </sst>
 </file>
@@ -2175,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4883,6 +4892,26 @@
       </c>
       <c r="I110" s="1" t="s">
         <v>402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BED03B-CC1A-4169-AA62-FDFBBC2D5A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853C4E3A-9AC4-4DFE-8BC8-499EECFE741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="413">
   <si>
     <t>Name</t>
   </si>
@@ -1281,12 +1281,44 @@
   <si>
     <t>Know the Odds</t>
   </si>
+  <si>
+    <t>Science Library - G50</t>
+  </si>
+  <si>
+    <t>tel:15184374900</t>
+  </si>
+  <si>
+    <t>https://career.albany.edu/</t>
+  </si>
+  <si>
+    <t>Schedule Online</t>
+  </si>
+  <si>
+    <t>career@albany.edu</t>
+  </si>
+  <si>
+    <t>UAlbany Career Services</t>
+  </si>
+  <si>
+    <r>
+      <t>The Office of Career Development offers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>comprehensive career counseling services including help with graduate applications, resume review, career assessment, and professional development support!</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1464,6 +1496,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF040C28"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1810,7 +1854,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1828,6 +1872,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2184,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="D92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4912,6 +4957,35 @@
       </c>
       <c r="I111" s="1" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -4980,8 +5054,10 @@
     <hyperlink ref="C107" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
     <hyperlink ref="C108" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
     <hyperlink ref="D110" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
+    <hyperlink ref="C112" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
+    <hyperlink ref="F112" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId62"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId64"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853C4E3A-9AC4-4DFE-8BC8-499EECFE741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58F622C-41AC-495C-86F7-77004D035D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="448">
   <si>
     <t>Name</t>
   </si>
@@ -1312,6 +1312,111 @@
       </rPr>
       <t>comprehensive career counseling services including help with graduate applications, resume review, career assessment, and professional development support!</t>
     </r>
+  </si>
+  <si>
+    <t>tel:(518)4346135</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.equinoxinc.org/page/domestic-violence-services-15.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/7 </t>
+  </si>
+  <si>
+    <t>Leadership@equinoxinc.org</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>24/7 Domestic violence hotline (518)-432-7865 - Crisis intervention - Counseling - Referral - Shelter -  Online Chat</t>
+  </si>
+  <si>
+    <t>UAlbany Office of Health Promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seneca Hall's basement on Indigenous Quad    </t>
+  </si>
+  <si>
+    <t>tel:(518)9568477</t>
+  </si>
+  <si>
+    <t>W: 5 PM - 7 PM and by appointment</t>
+  </si>
+  <si>
+    <t>HealthPromotion@albany.edu</t>
+  </si>
+  <si>
+    <t>Sexual violence support  - Advocacy - On-campus communication with faculty - Referrals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 State St., Room 1010 Albany, NY 12207  </t>
+  </si>
+  <si>
+    <t>tel:(518)4477100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.albanycounty.com/departments/crime-victim-and-sexual-violence-center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-F: 8:30 AM - 4:30 PM </t>
+  </si>
+  <si>
+    <t>24/7 Sexual Assault Hotline (518)-447-7716 - Counseling - Justice system advocacy - Accompaniment to ER -  Human trafficking assistance</t>
+  </si>
+  <si>
+    <t>The Food Pantries Food Connect Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://map.thefoodpantries.org </t>
+  </si>
+  <si>
+    <t>Map of local food pantries</t>
+  </si>
+  <si>
+    <t>Capital Roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594 River Street, Troy, NY 12180  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tel:(518)2748685 </t>
+  </si>
+  <si>
+    <t>https://www.capitalroots.org/</t>
+  </si>
+  <si>
+    <t>info@capitalroots.org</t>
+  </si>
+  <si>
+    <t>Community gardens - Veggie mobile with fresh produce - Produce displays in convenience stores - Virtual veggie mobile</t>
+  </si>
+  <si>
+    <t>International Student and Scholar Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science Library G-40  </t>
+  </si>
+  <si>
+    <t>tel:(518)5918172</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/isss/</t>
+  </si>
+  <si>
+    <t>ISSS@albany.edu</t>
+  </si>
+  <si>
+    <t>Advising - workshops</t>
+  </si>
+  <si>
+    <t>526 Central Ave. Albany, NY 12206</t>
+  </si>
+  <si>
+    <t>M, Tues, Th, F: 1 PM - 3:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thurs-F: 10 AM - 7 PM Sat: 10 AM - 4 PM </t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1959,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1873,6 +1978,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2229,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4986,6 +5097,172 @@
       </c>
       <c r="I112" s="13" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="F113" t="s">
+        <v>416</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A114" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C114" t="s">
+        <v>421</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114" t="s">
+        <v>423</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C115" t="s">
+        <v>426</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F115" t="s">
+        <v>126</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A117" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C117" t="s">
+        <v>435</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="F117" t="s">
+        <v>437</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A118" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C118" t="s">
+        <v>441</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="F118" t="s">
+        <v>443</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58F622C-41AC-495C-86F7-77004D035D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1501C5-7EC6-4CC6-BDDA-E4299F0D8BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="453">
   <si>
     <t>Name</t>
   </si>
@@ -1417,6 +1417,21 @@
   </si>
   <si>
     <t xml:space="preserve">Thurs-F: 10 AM - 7 PM Sat: 10 AM - 4 PM </t>
+  </si>
+  <si>
+    <t>University Police for any on-campus emergencies</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/police</t>
+  </si>
+  <si>
+    <t>tel:(518)442-3131</t>
+  </si>
+  <si>
+    <t>University Police (UPD)</t>
+  </si>
+  <si>
+    <t>Alumni Drive, 1400 Washington Avenue, Albany, NY 12222</t>
   </si>
 </sst>
 </file>
@@ -2044,9 +2059,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2084,7 +2099,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2190,7 +2205,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2332,7 +2347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2340,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5263,6 +5278,32 @@
       </c>
       <c r="I118" s="10" t="s">
         <v>444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -5333,8 +5374,9 @@
     <hyperlink ref="D110" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
     <hyperlink ref="C112" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
     <hyperlink ref="F112" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
+    <hyperlink ref="C119" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId64"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId65"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\Rolodex\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1501C5-7EC6-4CC6-BDDA-E4299F0D8BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EE1FA6-909C-4265-B428-E980FC752962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="458">
   <si>
     <t>Name</t>
   </si>
@@ -1432,6 +1432,21 @@
   </si>
   <si>
     <t>Alumni Drive, 1400 Washington Avenue, Albany, NY 12222</t>
+  </si>
+  <si>
+    <t>https://www.nysmokefree.com/</t>
+  </si>
+  <si>
+    <t>NY Quits - Smokers Quit Line</t>
+  </si>
+  <si>
+    <t>te:1-866-697-8487</t>
+  </si>
+  <si>
+    <t>M-Th: 9AM-9PM &amp; Fri-Sun: 1AM-5PM</t>
+  </si>
+  <si>
+    <t>Interested in quitting, or need support managing nicotine cravings? Call the NYS Smokers' Quitlin to apply for a free starter kit of nicotine medications and to talk to a quit coach. FREE!</t>
   </si>
 </sst>
 </file>
@@ -2355,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:XFD119"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5304,6 +5319,52 @@
       </c>
       <c r="I119" s="1" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\Rolodex\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EE1FA6-909C-4265-B428-E980FC752962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72DB112-927E-428B-B933-155ADAF00A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3005" yWindow="-10890" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="500">
   <si>
     <t>Name</t>
   </si>
@@ -1448,12 +1448,148 @@
   <si>
     <t>Interested in quitting, or need support managing nicotine cravings? Call the NYS Smokers' Quitlin to apply for a free starter kit of nicotine medications and to talk to a quit coach. FREE!</t>
   </si>
+  <si>
+    <t>Black Girls Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varies: Monday: Washington Park Thursday mornings
+Tuesday: SUNY Albany by Dutch Quad Parking Lot 
+Saturday: Varies  
+</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/694681097335282/</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>A community of black girls and women to encourage physical activity and promote health through running and/or walking with every level of fitness welcomed</t>
+  </si>
+  <si>
+    <t>Cap City Runners</t>
+  </si>
+  <si>
+    <t>Saturdays @6:45am meet up. Run/Walk: 7:00am</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/2343345732511612/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IG: @capcityrunnersalbany
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspiring a community of running by running in the  community </t>
+  </si>
+  <si>
+    <t>Pace and Happiness Run Club</t>
+  </si>
+  <si>
+    <t>Wednesdays at Washington Park, Albany, 6pm in front of the park playhouse</t>
+  </si>
+  <si>
+    <t>IG: @paceandhappiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All paces welcomed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany Running Exchange </t>
+  </si>
+  <si>
+    <t>Where/When: Monday-Sunday, location varies</t>
+  </si>
+  <si>
+    <t>tel:518-320-8648</t>
+  </si>
+  <si>
+    <t>https://www.albanyrunningexchange.org/m1/index.php</t>
+  </si>
+  <si>
+    <t>webcontact@albanyrunningexchange.org</t>
+  </si>
+  <si>
+    <t>Capital City Rescue Mission</t>
+  </si>
+  <si>
+    <t>259 S Pearl St, Albany, NY 12202</t>
+  </si>
+  <si>
+    <t>tel:518-462-0459</t>
+  </si>
+  <si>
+    <t>​​https://capitalcityrescuemission.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clothing: Men: Tue/Thur 9:30 am-11:30 am, 1:30 pm-3:00 pm, Women: 9:30 am-11:30 am, 1:30 pm-3:00 pm Food: Monday-Saturday Breakfast:  6:30 am, Lunch 11:30 am(bag lunches available), Chapel/Dinner (6pm)
+Sunday: Breakfast 6:30 am, Lunch 11:30 am(bag lunches available), Chapel/Dinner (4pm)
+</t>
+  </si>
+  <si>
+    <t>Offering services such as food, clothing and shelter to the homeless and needy of the Capital Region, providing for the whole person – body, mind and spirit – to help them return to society maturing as productive citizens.</t>
+  </si>
+  <si>
+    <t>984 Madison Avenue</t>
+  </si>
+  <si>
+    <t>tel:518-694-3153</t>
+  </si>
+  <si>
+    <t>https://stvincentalbany.org/food-pantry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Pantry: Tuesday, Wednesday, and Thursday 12:3-2:30
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stvincentalbany.org/food-pantry
+</t>
+  </si>
+  <si>
+    <t>Capital Region Community Resource </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location changes based on the place of choice that month. Check the website for their. Typically Tuesdays, some Saturdays and others  
+</t>
+  </si>
+  <si>
+    <t>tel:838-240-5053</t>
+  </si>
+  <si>
+    <t>https://www.capitalregioncommunityresource.org/events-1</t>
+  </si>
+  <si>
+    <t>CapitalRegionCommunityResource@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Closet Clothing and basic needs Pop Up Shops for the community. 
+</t>
+  </si>
+  <si>
+    <t>Women’s Employment &amp; Resource Center (WERC)</t>
+  </si>
+  <si>
+    <t>155 Washington Avenue, 3rd Floor, Albany, NY 12210</t>
+  </si>
+  <si>
+    <t>tel:518-242-8249</t>
+  </si>
+  <si>
+    <t>https://www.cdwerc.org/student-services/Scholarships-96-pg.htm</t>
+  </si>
+  <si>
+    <t>WERC is a not-for-profit organization that works to advance women's success in the workplace by building their economic and personal independence.</t>
+  </si>
+  <si>
+    <t>St. Vincent De Paul Food Pantry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1645,6 +1781,19 @@
       <color rgb="FF040C28"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1989,7 +2138,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2013,6 +2162,20 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2370,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5365,6 +5528,199 @@
       </c>
       <c r="I121" s="1" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A122" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F125" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A128" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129"/>
+      <c r="G129" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5436,8 +5792,16 @@
     <hyperlink ref="C112" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
     <hyperlink ref="F112" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
     <hyperlink ref="C119" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
+    <hyperlink ref="D123" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
+    <hyperlink ref="D125" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
+    <hyperlink ref="D129" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
+    <hyperlink ref="C126" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
+    <hyperlink ref="C127" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
+    <hyperlink ref="C128" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
+    <hyperlink ref="C125" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
+    <hyperlink ref="C129" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId65"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId73"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72DB112-927E-428B-B933-155ADAF00A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFA5BFD-A3B6-48D5-992C-7AD89481549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="505">
   <si>
     <t>Name</t>
   </si>
@@ -1461,9 +1461,6 @@
     <t>https://www.facebook.com/groups/694681097335282/</t>
   </si>
   <si>
-    <t>Physical</t>
-  </si>
-  <si>
     <t>A community of black girls and women to encourage physical activity and promote health through running and/or walking with every level of fitness welcomed</t>
   </si>
   <si>
@@ -1493,9 +1490,6 @@
   </si>
   <si>
     <t xml:space="preserve">All paces welcomed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albany Running Exchange </t>
   </si>
   <si>
     <t>Where/When: Monday-Sunday, location varies</t>
@@ -1583,6 +1577,35 @@
   </si>
   <si>
     <t>St. Vincent De Paul Food Pantry</t>
+  </si>
+  <si>
+    <t>Albany Running Exchange</t>
+  </si>
+  <si>
+    <t>ombuds@oasas.ny.gov</t>
+  </si>
+  <si>
+    <t>M-W 9am-7pm - Th-F 9am-4pm</t>
+  </si>
+  <si>
+    <t>https://www.cssny.org/programs/entry/champ</t>
+  </si>
+  <si>
+    <t>CHAMP Program (OASAS)</t>
+  </si>
+  <si>
+    <t>tel:8886145400</t>
+  </si>
+  <si>
+    <t>Have questions about mental health or substance use health insurance?
+The OASAS CHAMP program can help:
+Teach you about your insurance rights
+Find the best insurance option
+Access coverage for treatment and medication
+Advocate with providers and insurance companies
+Submit complaints against insurance companies
+Fight denials and file appeals
+New York State Office of Addiction Services and Supports (OASAS)</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2161,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2177,6 +2200,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2533,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2575,86 +2599,82 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>502</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>134</v>
+        <v>500</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>502</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="22" t="s">
+        <v>503</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>501</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -2663,27 +2683,27 @@
         <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>177</v>
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -2692,25 +2712,27 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -2719,25 +2741,27 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -2746,12 +2770,12 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>144</v>
@@ -2760,11 +2784,11 @@
         <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -2773,27 +2797,25 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -2802,77 +2824,97 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>390</v>
+      <c r="I12" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>384</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>52</v>
@@ -2880,95 +2922,86 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>335</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>282</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>386</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>185</v>
+      <c r="I15" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>323</v>
+        <v>53</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>52</v>
       </c>
@@ -2976,70 +3009,57 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>340</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>283</v>
+        <v>153</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
+        <v>338</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>144</v>
@@ -3063,12 +3083,12 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>144</v>
@@ -3092,12 +3112,12 @@
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>144</v>
@@ -3121,85 +3141,85 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>312</v>
+        <v>283</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>284</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>62</v>
@@ -3208,25 +3228,27 @@
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>62</v>
@@ -3235,61 +3257,74 @@
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>350</v>
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>352</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>212</v>
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>351</v>
@@ -3298,32 +3333,41 @@
         <v>10</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>357</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
         <v>351</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>358</v>
+      <c r="I30" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>351</v>
@@ -3331,103 +3375,81 @@
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>361</v>
+      <c r="I31" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>362</v>
+      <c r="A32" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G32" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>365</v>
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="I33" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>202</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
@@ -3435,24 +3457,28 @@
         <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>71</v>
       </c>
@@ -3460,27 +3486,25 @@
         <v>10</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>71</v>
@@ -3489,25 +3513,23 @@
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>19</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>71</v>
@@ -3516,94 +3538,104 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3614,23 +3646,21 @@
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="C43" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
         <v>79</v>
@@ -3639,19 +3669,19 @@
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3662,19 +3692,24 @@
         <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>366</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>354</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>79</v>
       </c>
@@ -3682,264 +3717,259 @@
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>355</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>28</v>
+        <v>294</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>87</v>
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>90</v>
+        <v>290</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>228</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>344</v>
+        <v>89</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>345</v>
+        <v>92</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="G55" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>232</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
         <v>96</v>
       </c>
@@ -3947,19 +3977,19 @@
         <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3970,22 +4000,24 @@
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="3" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>96</v>
       </c>
@@ -3993,19 +4025,19 @@
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4016,19 +4048,19 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4039,19 +4071,19 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -4062,19 +4094,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4085,19 +4117,19 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4108,19 +4140,19 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4131,67 +4163,67 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>299</v>
+        <v>103</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="3" t="s">
-        <v>281</v>
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4202,19 +4234,19 @@
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4225,19 +4257,19 @@
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>321</v>
+        <v>107</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -4248,19 +4280,19 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4271,19 +4303,19 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>113</v>
+        <v>321</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4294,19 +4326,19 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4317,19 +4349,19 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>317</v>
+        <v>113</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4340,80 +4372,74 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>115</v>
       </c>
@@ -4421,24 +4447,26 @@
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>327</v>
+        <v>301</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G77" s="1" t="s">
         <v>115</v>
       </c>
@@ -4446,25 +4474,23 @@
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>303</v>
+        <v>162</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>257</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
         <v>115</v>
@@ -4473,21 +4499,21 @@
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4498,23 +4524,25 @@
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>305</v>
+        <v>255</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E80" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
         <v>115</v>
@@ -4523,85 +4551,77 @@
         <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>274</v>
+        <v>164</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>306</v>
+      <c r="C83" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>115</v>
@@ -4610,84 +4630,84 @@
         <v>26</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>74</v>
+        <v>276</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G84" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>12</v>
+        <v>306</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>156</v>
+        <v>8</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
         <v>9</v>
       </c>
@@ -4695,25 +4715,27 @@
         <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F87" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>9</v>
@@ -4722,24 +4744,28 @@
         <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>9</v>
       </c>
@@ -4747,22 +4773,26 @@
         <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>9</v>
       </c>
@@ -4770,19 +4800,21 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C90" s="3" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4793,50 +4825,42 @@
         <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="3" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>333</v>
+        <v>22</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4847,24 +4871,28 @@
         <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G93" s="1" t="s">
         <v>9</v>
       </c>
@@ -4872,71 +4900,69 @@
         <v>26</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>215</v>
+        <v>27</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>266</v>
+        <v>328</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>28</v>
+        <v>292</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4944,119 +4970,137 @@
         <v>127</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="C97" s="3" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G97" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>128</v>
+        <v>329</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I98" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>52</v>
@@ -5065,15 +5109,15 @@
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>52</v>
@@ -5082,53 +5126,41 @@
         <v>10</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="7" t="s">
-        <v>394</v>
+      <c r="I104" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I105" s="7" t="s">
-        <v>394</v>
+      <c r="I105" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -5144,8 +5176,8 @@
       <c r="E106" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>96</v>
+      <c r="G106" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>10</v>
@@ -5167,8 +5199,8 @@
       <c r="E107" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>105</v>
+      <c r="G107" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>10</v>
@@ -5191,7 +5223,7 @@
         <v>398</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>10</v>
@@ -5202,172 +5234,160 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>398</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>402</v>
+      <c r="H110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="1" t="s">
+      <c r="H113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C114" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F112" s="12" t="s">
+      <c r="F114" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I112" s="13" t="s">
+      <c r="I114" s="13" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="10" t="s">
+    <row r="115" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B115" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C115" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D115" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="E113" s="15" t="s">
+      <c r="E115" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F115" t="s">
         <v>416</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A114" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="C114" t="s">
-        <v>421</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="F114" t="s">
-        <v>423</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I114" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C115" t="s">
-        <v>426</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F115" t="s">
-        <v>126</v>
       </c>
       <c r="G115" s="14" t="s">
         <v>417</v>
@@ -5376,432 +5396,494 @@
         <v>10</v>
       </c>
       <c r="I115" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A116" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C116" t="s">
+        <v>421</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F116" t="s">
+        <v>423</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C117" t="s">
+        <v>426</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F117" t="s">
+        <v>126</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="10" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14" t="s">
+      <c r="B118" s="12"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="1" t="s">
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H116" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="10" t="s">
+      <c r="H118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="10" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A117" s="10" t="s">
+    <row r="119" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A119" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B119" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
         <v>435</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D119" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E119" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F119" t="s">
         <v>437</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" s="10" t="s">
+      <c r="H119" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="10" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A118" s="14" t="s">
+    <row r="120" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B120" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>441</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D120" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E120" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F120" t="s">
         <v>443</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="G120" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H118" s="14" t="s">
+      <c r="H120" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I118" s="10" t="s">
+      <c r="I120" s="10" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G122" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" s="1" t="s">
+      <c r="H123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="93" x14ac:dyDescent="0.35">
-      <c r="A122" s="16" t="s">
+    <row r="124" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A124" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B124" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D124" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G124" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="1" t="s">
+    </row>
+    <row r="125" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="16" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="16" t="s">
+      <c r="B125" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="D125" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="F125" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="G125" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123" s="1" t="s">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
+      <c r="B126" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="F126" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="G126" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" s="1" t="s">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
+      <c r="C127" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="D127" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="F127" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="G127" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="B128" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="19" t="s">
+      <c r="C128" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="D128" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="E128" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="F128" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E126" s="18" t="s">
+    </row>
+    <row r="129" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B129" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="F126" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="1" t="s">
+      <c r="C129" s="21" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="B127" s="19" t="s">
+      <c r="D129" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="E129" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="F129" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="E127" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="93" x14ac:dyDescent="0.35">
-      <c r="A128" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="E129" s="19"/>
-      <c r="F129"/>
       <c r="G129" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>498</v>
+    </row>
+    <row r="130" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A130" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="E130" s="19"/>
+      <c r="F130" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131"/>
+      <c r="G131" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
-    <sortCondition ref="G2:G98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I100">
+    <sortCondition ref="G4:G100"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F56" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C78" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C81" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C65" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D82" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D46" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D96" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D93" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D85" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D49" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D50" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D74" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D58" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D57" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D56" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D55" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D54" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D51" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D59" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D60" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D61" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D62" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D63" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D64" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D65" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D66" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D67" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D68" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D69" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D70" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D71" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D72" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D73" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D75" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D41" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
-    <hyperlink ref="C16" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C93" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D87" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D35" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C35" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C87" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D92" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D47" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C47" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C92" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D28" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C28" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C17" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
-    <hyperlink ref="C104" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
-    <hyperlink ref="C105" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
-    <hyperlink ref="C106" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
-    <hyperlink ref="C107" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
-    <hyperlink ref="C108" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
-    <hyperlink ref="D110" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
-    <hyperlink ref="C112" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
-    <hyperlink ref="F112" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
-    <hyperlink ref="C119" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
-    <hyperlink ref="D123" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
-    <hyperlink ref="D125" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
-    <hyperlink ref="D129" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
-    <hyperlink ref="C126" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
-    <hyperlink ref="C127" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
-    <hyperlink ref="C128" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
-    <hyperlink ref="C125" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
-    <hyperlink ref="C129" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
+    <hyperlink ref="F25" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F58" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C80" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C83" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C67" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D84" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
+    <hyperlink ref="D48" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D98" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D95" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D87" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D51" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D52" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D76" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D60" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D59" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D58" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D57" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D56" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D53" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D61" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D62" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D63" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D64" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D65" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D66" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D67" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D68" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D69" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D70" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D71" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D72" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D73" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D74" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D75" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D77" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D43" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C43" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="C18" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
+    <hyperlink ref="C95" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D89" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D37" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C37" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C89" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D94" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C49" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C94" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D54" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D55" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D30" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C30" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C19" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="C106" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
+    <hyperlink ref="C107" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
+    <hyperlink ref="C108" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
+    <hyperlink ref="C109" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
+    <hyperlink ref="C110" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
+    <hyperlink ref="D112" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
+    <hyperlink ref="C114" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
+    <hyperlink ref="F114" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
+    <hyperlink ref="C121" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
+    <hyperlink ref="D125" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
+    <hyperlink ref="D127" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
+    <hyperlink ref="D131" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
+    <hyperlink ref="C128" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
+    <hyperlink ref="C129" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
+    <hyperlink ref="C130" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
+    <hyperlink ref="C127" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
+    <hyperlink ref="C131" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
+    <hyperlink ref="F2" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
+    <hyperlink ref="C2" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
+    <hyperlink ref="F3" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
+    <hyperlink ref="C3" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId73"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId77"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFA5BFD-A3B6-48D5-992C-7AD89481549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D2267D-84EC-4D2F-865D-6CBB7BC53DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="505">
   <si>
     <t>Name</t>
   </si>
@@ -2557,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2621,7 +2621,7 @@
         <v>499</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -2648,7 +2648,7 @@
         <v>499</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -2657,111 +2657,105 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>133</v>
+        <v>502</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>500</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>276</v>
+        <v>502</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="22" t="s">
+        <v>503</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>501</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>502</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>500</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>275</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -2770,25 +2764,27 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -2797,25 +2793,27 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -2824,25 +2822,27 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -2851,27 +2851,25 @@
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -2880,273 +2878,269 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="1" t="s">
-        <v>386</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>335</v>
+        <v>384</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>282</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>389</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>323</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>386</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>187</v>
+      <c r="I18" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>339</v>
+        <v>53</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>340</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>283</v>
+        <v>153</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>58</v>
+        <v>338</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>188</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>144</v>
@@ -3170,12 +3164,12 @@
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>144</v>
@@ -3199,112 +3193,114 @@
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>312</v>
+        <v>283</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>68</v>
+        <v>284</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>62</v>
@@ -3313,78 +3309,103 @@
         <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>350</v>
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>352</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="G30" s="1" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>366</v>
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>354</v>
+        <v>285</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>351</v>
@@ -3392,144 +3413,123 @@
       <c r="H32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>358</v>
+      <c r="I32" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>360</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
         <v>351</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>361</v>
+      <c r="I33" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="A34" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>356</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="G35" s="1" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="I35" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>359</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>202</v>
+      <c r="I36" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="A37" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>332</v>
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>71</v>
@@ -3538,27 +3538,27 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>71</v>
@@ -3567,26 +3567,26 @@
         <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>71</v>
       </c>
@@ -3594,121 +3594,131 @@
         <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G44" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>79</v>
@@ -3717,19 +3727,19 @@
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>83</v>
+      <c r="C46" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3740,19 +3750,22 @@
         <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>366</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>354</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
         <v>79</v>
       </c>
@@ -3760,175 +3773,168 @@
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>355</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>333</v>
+        <v>169</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>159</v>
+        <v>366</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C51" s="3" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>93</v>
+        <v>290</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>344</v>
+        <v>135</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>86</v>
@@ -3937,107 +3943,111 @@
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>342</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>345</v>
+        <v>89</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C56" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="G57" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="4" t="s">
-        <v>230</v>
+        <v>347</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4048,19 +4058,19 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4071,22 +4081,24 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>96</v>
       </c>
@@ -4094,19 +4106,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4117,19 +4129,19 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4140,19 +4152,19 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4163,19 +4175,19 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -4186,19 +4198,19 @@
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -4209,90 +4221,90 @@
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>299</v>
+        <v>22</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>107</v>
+        <v>319</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="3" t="s">
-        <v>281</v>
+        <v>114</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4303,19 +4315,19 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4326,19 +4338,19 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4349,19 +4361,19 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>113</v>
+        <v>320</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4372,19 +4384,19 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -4395,19 +4407,19 @@
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4418,105 +4430,97 @@
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>253</v>
+        <v>281</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>325</v>
+        <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G79" s="1" t="s">
         <v>115</v>
       </c>
@@ -4524,26 +4528,26 @@
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F80" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G80" s="1" t="s">
         <v>115</v>
       </c>
@@ -4551,21 +4555,21 @@
         <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4576,21 +4580,21 @@
         <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4601,198 +4605,190 @@
         <v>10</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>290</v>
+        <v>150</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G86" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>330</v>
+        <v>152</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>156</v>
+        <v>24</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>180</v>
+        <v>263</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
         <v>9</v>
       </c>
@@ -4800,24 +4796,28 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>332</v>
+        <v>11</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G90" s="1" t="s">
         <v>9</v>
       </c>
@@ -4825,22 +4825,28 @@
         <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="C91" s="3" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G91" s="1" t="s">
         <v>9</v>
       </c>
@@ -4848,22 +4854,26 @@
         <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G92" s="1" t="s">
         <v>9</v>
       </c>
@@ -4871,50 +4881,44 @@
         <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>150</v>
+        <v>19</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>333</v>
+        <v>20</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -4925,21 +4929,19 @@
         <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4947,60 +4949,64 @@
         <v>9</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C96" s="3" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G96" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>266</v>
+        <v>154</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -5010,7 +5016,7 @@
       <c r="B98" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="5" t="s">
         <v>329</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -5019,7 +5025,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>26</v>
@@ -5030,14 +5036,14 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5048,110 +5054,134 @@
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>52</v>
@@ -5160,76 +5190,58 @@
         <v>10</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="7" t="s">
-        <v>394</v>
+      <c r="I106" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>394</v>
+      <c r="I107" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>96</v>
+        <v>380</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="7" t="s">
-        <v>394</v>
+      <c r="I108" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -5245,8 +5257,8 @@
       <c r="E109" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>105</v>
+      <c r="G109" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>10</v>
@@ -5268,8 +5280,8 @@
       <c r="E110" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>9</v>
+      <c r="G110" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>10</v>
@@ -5280,412 +5292,412 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>398</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>399</v>
+      <c r="I111" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>401</v>
+      <c r="A112" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>402</v>
+        <v>105</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>403</v>
+        <v>9</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F114" s="12" t="s">
+      <c r="F117" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H117" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I114" s="13" t="s">
+      <c r="I117" s="13" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="10" t="s">
+    <row r="118" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B118" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C118" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D118" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="E115" s="15" t="s">
+      <c r="E118" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F118" t="s">
         <v>416</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="G118" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="H115" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="10" t="s">
+      <c r="H118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="10" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A116" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="C116" t="s">
-        <v>421</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="F116" t="s">
-        <v>423</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C117" t="s">
-        <v>426</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F117" t="s">
-        <v>126</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C119" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F119" t="s">
+        <v>423</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C120" t="s">
+        <v>426</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F120" t="s">
+        <v>126</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A122" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B122" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C122" t="s">
         <v>435</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D122" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E122" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F122" t="s">
         <v>437</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H119" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" s="10" t="s">
+      <c r="H122" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="10" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A120" s="14" t="s">
+    <row r="123" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A123" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B123" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C123" t="s">
         <v>441</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D123" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E123" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F123" t="s">
         <v>443</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G123" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H120" s="14" t="s">
+      <c r="H123" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I120" s="10" t="s">
+      <c r="I123" s="10" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C124" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H124" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I124" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="1" t="s">
+      <c r="H125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="93" x14ac:dyDescent="0.35">
-      <c r="A124" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>469</v>
+        <v>454</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="F127" s="20" t="s">
-        <v>474</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A127" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>115</v>
@@ -5693,25 +5705,22 @@
       <c r="H127" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="E128" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="F128" s="19" t="s">
-        <v>478</v>
+      <c r="I127" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>465</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>115</v>
@@ -5720,170 +5729,248 @@
         <v>10</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F130" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="19" t="s">
+    <row r="132" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B132" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C132" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="D132" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="E132" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="F129" s="18" t="s">
+      <c r="F132" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="93" x14ac:dyDescent="0.35">
-      <c r="A130" s="19" t="s">
+      <c r="H132" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A133" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B133" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C133" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="D133" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="16" t="s">
+      <c r="E133" s="19"/>
+      <c r="F133" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="2" t="s">
+      <c r="H133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C134" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="D131" s="21" t="s">
+      <c r="D134" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="E131" s="19"/>
-      <c r="F131"/>
-      <c r="G131" s="1" t="s">
+      <c r="E134" s="19"/>
+      <c r="F134"/>
+      <c r="G134" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="H134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>496</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I100">
-    <sortCondition ref="G4:G100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I103">
+    <sortCondition ref="G7:G103"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F25" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F58" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C80" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C83" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C67" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D84" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
-    <hyperlink ref="D6" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D48" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D98" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D95" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D87" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D51" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D52" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D76" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D60" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D25" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D59" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D58" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D57" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D56" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D53" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D61" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D62" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D63" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D64" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D65" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D66" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D67" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D68" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D69" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D70" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D71" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D72" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D73" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D74" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D75" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D77" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D43" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C43" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
-    <hyperlink ref="C18" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C95" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D89" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D37" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C37" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C89" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D94" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C49" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C94" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D54" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D55" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D30" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C30" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C19" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
-    <hyperlink ref="C106" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
-    <hyperlink ref="C107" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
-    <hyperlink ref="C108" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
-    <hyperlink ref="C109" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
-    <hyperlink ref="C110" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
-    <hyperlink ref="D112" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
-    <hyperlink ref="C114" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
-    <hyperlink ref="F114" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
-    <hyperlink ref="C121" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
-    <hyperlink ref="D125" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
-    <hyperlink ref="D127" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
-    <hyperlink ref="D131" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
-    <hyperlink ref="C128" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
-    <hyperlink ref="C129" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
-    <hyperlink ref="C130" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
-    <hyperlink ref="C127" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
-    <hyperlink ref="C131" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
-    <hyperlink ref="F2" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
-    <hyperlink ref="C2" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
-    <hyperlink ref="F3" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
-    <hyperlink ref="C3" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
+    <hyperlink ref="F28" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F61" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C83" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C86" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C70" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D87" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
+    <hyperlink ref="D51" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D101" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D98" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D90" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D54" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D55" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D79" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D63" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D28" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D62" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D61" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D60" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D59" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D56" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D64" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D65" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D66" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D67" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D68" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D69" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D70" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D71" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D72" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D73" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D74" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D75" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D76" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D77" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D78" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D46" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C46" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="C21" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
+    <hyperlink ref="C98" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D92" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D40" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C40" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C92" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D97" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D52" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C52" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C97" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D57" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D58" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D33" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C33" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C22" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="C109" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
+    <hyperlink ref="C110" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
+    <hyperlink ref="C111" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
+    <hyperlink ref="C112" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
+    <hyperlink ref="C113" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
+    <hyperlink ref="D115" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
+    <hyperlink ref="C117" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
+    <hyperlink ref="F117" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
+    <hyperlink ref="C124" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
+    <hyperlink ref="D128" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
+    <hyperlink ref="D130" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
+    <hyperlink ref="D134" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
+    <hyperlink ref="C131" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
+    <hyperlink ref="C132" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
+    <hyperlink ref="C133" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
+    <hyperlink ref="C130" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
+    <hyperlink ref="C134" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
+    <hyperlink ref="F4" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
+    <hyperlink ref="C4" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
+    <hyperlink ref="F6" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
+    <hyperlink ref="C6" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
+    <hyperlink ref="F5" r:id="rId77" xr:uid="{6E99B26B-E909-48C3-BA3B-0EEAB27C601B}"/>
+    <hyperlink ref="C5" r:id="rId78" xr:uid="{EEB16B9A-E1D2-47F9-8980-91086F1C74C7}"/>
+    <hyperlink ref="F2" r:id="rId79" xr:uid="{68D944DA-C5C2-4839-8C79-F0953BD9134E}"/>
+    <hyperlink ref="C2" r:id="rId80" xr:uid="{E8AB3E9D-8C94-415D-AB28-D7CA4C6F6343}"/>
+    <hyperlink ref="F3" r:id="rId81" xr:uid="{F3CC3505-39D1-4EEA-8FA9-8AAB6F9BF146}"/>
+    <hyperlink ref="C3" r:id="rId82" xr:uid="{7A6FF923-3DFA-4E0B-A15D-03D091C92A64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId77"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId83"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D2267D-84EC-4D2F-865D-6CBB7BC53DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FE2997-9D8B-4445-BFA7-A352A24EFC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2559,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2648,7 +2648,7 @@
         <v>499</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FE2997-9D8B-4445-BFA7-A352A24EFC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1772AAE1-CD30-454F-AD19-76C5D117A790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="504">
   <si>
     <t>Name</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>Health and Counseling Services Building (ground level of Dutch Quad)</t>
-  </si>
-  <si>
-    <t>Seneca Hall B005, Indigenous Quad</t>
   </si>
   <si>
     <t>Campus Center 137</t>
@@ -2559,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2605,20 +2602,20 @@
     </row>
     <row r="2" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>105</v>
@@ -2627,25 +2624,25 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>96</v>
@@ -2654,25 +2651,25 @@
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -2681,25 +2678,25 @@
         <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>79</v>
@@ -2708,25 +2705,25 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>86</v>
@@ -2735,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2746,13 +2743,13 @@
         <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>134</v>
@@ -2764,7 +2761,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
@@ -2772,16 +2769,16 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
@@ -2793,7 +2790,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2804,13 +2801,13 @@
         <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>35</v>
@@ -2822,7 +2819,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2830,16 +2827,16 @@
         <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
@@ -2851,7 +2848,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2862,7 +2859,7 @@
         <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
@@ -2878,7 +2875,7 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -2889,7 +2886,7 @@
         <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
@@ -2905,7 +2902,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -2916,7 +2913,7 @@
         <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -2932,7 +2929,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2943,13 +2940,13 @@
         <v>145</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>50</v>
@@ -2961,16 +2958,16 @@
         <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
@@ -2984,15 +2981,15 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>51</v>
@@ -3004,16 +3001,16 @@
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>52</v>
@@ -3022,16 +3019,16 @@
         <v>10</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>52</v>
@@ -3040,7 +3037,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3049,7 +3046,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>54</v>
@@ -3065,7 +3062,7 @@
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3073,13 +3070,13 @@
         <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3090,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3098,10 +3095,10 @@
         <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>88</v>
@@ -3115,18 +3112,18 @@
         <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>52</v>
@@ -3135,7 +3132,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -3146,13 +3143,13 @@
         <v>144</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>58</v>
@@ -3164,7 +3161,7 @@
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -3175,13 +3172,13 @@
         <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>58</v>
@@ -3193,7 +3190,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -3204,13 +3201,13 @@
         <v>144</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>58</v>
@@ -3222,7 +3219,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -3233,13 +3230,13 @@
         <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>58</v>
@@ -3251,7 +3248,7 @@
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -3262,13 +3259,13 @@
         <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>58</v>
@@ -3280,7 +3277,7 @@
         <v>26</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -3291,16 +3288,16 @@
         <v>146</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>62</v>
@@ -3309,7 +3306,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -3320,13 +3317,13 @@
         <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>50</v>
@@ -3338,7 +3335,7 @@
         <v>26</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3349,7 +3346,7 @@
         <v>148</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>65</v>
@@ -3358,7 +3355,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>62</v>
@@ -3367,7 +3364,7 @@
         <v>26</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -3378,7 +3375,7 @@
         <v>149</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>67</v>
@@ -3394,27 +3391,27 @@
         <v>26</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -3423,95 +3420,95 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="G35" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="G36" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="G37" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -3519,13 +3516,13 @@
         <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>70</v>
@@ -3538,7 +3535,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="31" x14ac:dyDescent="0.35">
@@ -3546,16 +3543,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>16</v>
@@ -3567,7 +3564,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -3575,13 +3572,13 @@
         <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
@@ -3594,7 +3591,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -3602,13 +3599,13 @@
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3619,21 +3616,21 @@
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>72</v>
@@ -3648,7 +3645,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -3656,16 +3653,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
@@ -3675,7 +3672,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -3686,13 +3683,13 @@
         <v>150</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>77</v>
@@ -3704,7 +3701,7 @@
         <v>26</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -3713,10 +3710,10 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3727,7 +3724,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -3736,10 +3733,10 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3750,7 +3747,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -3759,10 +3756,10 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3773,7 +3770,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -3782,13 +3779,13 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -3798,16 +3795,16 @@
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>83</v>
@@ -3821,18 +3818,18 @@
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>79</v>
@@ -3841,7 +3838,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -3849,10 +3846,10 @@
         <v>141</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>28</v>
@@ -3866,7 +3863,7 @@
         <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -3874,13 +3871,13 @@
         <v>27</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3891,7 +3888,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -3899,16 +3896,16 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
@@ -3918,7 +3915,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -3927,14 +3924,14 @@
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>86</v>
@@ -3943,7 +3940,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -3954,13 +3951,13 @@
         <v>150</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>91</v>
@@ -3972,24 +3969,22 @@
         <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>94</v>
@@ -4001,15 +3996,15 @@
         <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>86</v>
@@ -4018,15 +4013,15 @@
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>86</v>
@@ -4035,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -4044,10 +4039,10 @@
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4058,7 +4053,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -4067,10 +4062,10 @@
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4081,7 +4076,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -4090,14 +4085,14 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>96</v>
@@ -4106,19 +4101,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4129,7 +4124,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -4138,10 +4133,10 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4152,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -4161,10 +4156,10 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4175,7 +4170,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -4184,10 +4179,10 @@
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -4198,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -4207,10 +4202,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -4221,7 +4216,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -4230,10 +4225,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4244,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -4253,10 +4248,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4267,7 +4262,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -4276,10 +4271,10 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -4290,7 +4285,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -4298,13 +4293,13 @@
         <v>114</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4315,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -4324,10 +4319,10 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4338,7 +4333,7 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -4347,7 +4342,7 @@
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>107</v>
@@ -4361,7 +4356,7 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -4370,10 +4365,10 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4384,7 +4379,7 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -4393,10 +4388,10 @@
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -4407,7 +4402,7 @@
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -4416,7 +4411,7 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>111</v>
@@ -4430,7 +4425,7 @@
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -4439,7 +4434,7 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>113</v>
@@ -4453,7 +4448,7 @@
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -4462,10 +4457,10 @@
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4476,7 +4471,7 @@
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -4485,10 +4480,10 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4499,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -4507,16 +4502,16 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>13</v>
@@ -4528,7 +4523,7 @@
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -4536,13 +4531,13 @@
         <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -4555,7 +4550,7 @@
         <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -4563,13 +4558,13 @@
         <v>118</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4580,21 +4575,21 @@
         <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4605,7 +4600,7 @@
         <v>10</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -4613,16 +4608,16 @@
         <v>119</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
@@ -4632,7 +4627,7 @@
         <v>10</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -4640,13 +4635,13 @@
         <v>120</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4657,7 +4652,7 @@
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -4665,13 +4660,13 @@
         <v>121</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4682,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -4693,13 +4688,13 @@
         <v>150</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>77</v>
@@ -4711,7 +4706,7 @@
         <v>26</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -4719,10 +4714,10 @@
         <v>122</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>124</v>
@@ -4740,7 +4735,7 @@
         <v>26</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -4751,13 +4746,13 @@
         <v>150</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>25</v>
@@ -4769,7 +4764,7 @@
         <v>26</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -4777,16 +4772,16 @@
         <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -4796,7 +4791,7 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -4804,16 +4799,16 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>13</v>
@@ -4825,7 +4820,7 @@
         <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="31" x14ac:dyDescent="0.35">
@@ -4833,16 +4828,16 @@
         <v>14</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>16</v>
@@ -4854,7 +4849,7 @@
         <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -4862,13 +4857,13 @@
         <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -4881,7 +4876,7 @@
         <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -4889,13 +4884,13 @@
         <v>19</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4906,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -4915,7 +4910,7 @@
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>21</v>
@@ -4929,7 +4924,7 @@
         <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -4938,7 +4933,7 @@
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>23</v>
@@ -4952,7 +4947,7 @@
         <v>10</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -4963,13 +4958,13 @@
         <v>150</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>25</v>
@@ -4981,7 +4976,7 @@
         <v>26</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -4989,13 +4984,13 @@
         <v>27</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5006,7 +5001,7 @@
         <v>10</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -5014,10 +5009,10 @@
         <v>141</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>28</v>
@@ -5031,7 +5026,7 @@
         <v>26</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -5040,10 +5035,10 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5054,21 +5049,21 @@
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
@@ -5081,7 +5076,7 @@
         <v>26</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -5089,10 +5084,10 @@
         <v>141</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>28</v>
@@ -5106,16 +5101,16 @@
         <v>26</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>83</v>
@@ -5129,18 +5124,18 @@
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>128</v>
@@ -5156,15 +5151,15 @@
         <v>10</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>79</v>
@@ -5173,15 +5168,15 @@
         <v>10</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>52</v>
@@ -5190,15 +5185,15 @@
         <v>10</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>52</v>
@@ -5207,15 +5202,15 @@
         <v>10</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>52</v>
@@ -5224,15 +5219,15 @@
         <v>10</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>52</v>
@@ -5241,21 +5236,21 @@
         <v>10</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="D109" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="E109" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>86</v>
@@ -5264,21 +5259,21 @@
         <v>10</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="D110" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="E110" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>79</v>
@@ -5287,21 +5282,21 @@
         <v>10</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="D111" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="E111" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>96</v>
@@ -5310,21 +5305,21 @@
         <v>10</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="D112" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>105</v>
@@ -5333,21 +5328,21 @@
         <v>10</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="D113" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>9</v>
@@ -5356,21 +5351,21 @@
         <v>10</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>9</v>
@@ -5379,67 +5374,67 @@
         <v>10</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="E115" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="H116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="D117" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="F117" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>410</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>32</v>
@@ -5448,7 +5443,7 @@
         <v>26</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5456,96 +5451,96 @@
         <v>85</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D118" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="E118" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="F118" t="s">
         <v>415</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="H118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="C119" t="s">
         <v>420</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E119" s="15" t="s">
+      <c r="F119" t="s">
         <v>422</v>
       </c>
-      <c r="F119" t="s">
-        <v>423</v>
-      </c>
       <c r="G119" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>26</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B120" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" t="s">
         <v>425</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="E120" s="15" t="s">
         <v>427</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>428</v>
       </c>
       <c r="F120" t="s">
         <v>126</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B121" s="12"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
@@ -5556,27 +5551,27 @@
         <v>10</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="C122" t="s">
         <v>434</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="E122" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="F122" t="s">
         <v>436</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="F122" t="s">
-        <v>437</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>62</v>
@@ -5585,27 +5580,27 @@
         <v>10</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="C123" t="s">
         <v>440</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="E123" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="F123" t="s">
         <v>442</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="F123" t="s">
-        <v>443</v>
       </c>
       <c r="G123" s="14" t="s">
         <v>32</v>
@@ -5614,24 +5609,24 @@
         <v>26</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="C124" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>84</v>
@@ -5640,21 +5635,21 @@
         <v>26</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>52</v>
@@ -5663,21 +5658,21 @@
         <v>10</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D126" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>79</v>
@@ -5686,18 +5681,18 @@
         <v>10</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A127" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B127" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="D127" s="16" t="s">
         <v>459</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>460</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>115</v>
@@ -5706,21 +5701,21 @@
         <v>10</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="D128" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="F128" s="18" t="s">
         <v>464</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>465</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>115</v>
@@ -5729,18 +5724,18 @@
         <v>10</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B129" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="F129" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>115</v>
@@ -5749,24 +5744,24 @@
         <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="D130" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="F130" s="20" t="s">
         <v>473</v>
-      </c>
-      <c r="F130" s="20" t="s">
-        <v>474</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>115</v>
@@ -5777,22 +5772,22 @@
     </row>
     <row r="131" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A131" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B131" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="C131" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="D131" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="E131" s="18" t="s">
-        <v>479</v>
-      </c>
       <c r="F131" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>115</v>
@@ -5801,27 +5796,27 @@
         <v>10</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A132" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B132" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="D132" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="F132" s="18" t="s">
         <v>484</v>
-      </c>
-      <c r="F132" s="18" t="s">
-        <v>485</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>62</v>
@@ -5832,20 +5827,20 @@
     </row>
     <row r="133" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A133" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B133" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="C133" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="D133" s="16" t="s">
         <v>488</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>489</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>62</v>
@@ -5854,21 +5849,21 @@
         <v>10</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="C134" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="D134" s="21" t="s">
         <v>494</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>495</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134"/>
@@ -5879,7 +5874,7 @@
         <v>10</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1772AAE1-CD30-454F-AD19-76C5D117A790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC60FA57-3B3D-4167-B61B-E07E5DE74065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="516">
   <si>
     <t>Name</t>
   </si>
@@ -1604,12 +1604,48 @@
 Fight denials and file appeals
 New York State Office of Addiction Services and Supports (OASAS)</t>
   </si>
+  <si>
+    <t>Supplemental Support Services</t>
+  </si>
+  <si>
+    <t>Supplemental Support Services helps the Great Dane community navigate tough issues and access the support they need on campus.</t>
+  </si>
+  <si>
+    <t>UAlbany Homelessness Liason</t>
+  </si>
+  <si>
+    <t>Dean of Students Office, Campus Center</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/dean-students/supplemental-support-services</t>
+  </si>
+  <si>
+    <t>sdalessandro@albany.edu</t>
+  </si>
+  <si>
+    <t>Off-campus Food Assistance</t>
+  </si>
+  <si>
+    <t>SNAP benefits eligibility assessment - SNAP application assistance - WIC program information - WIC eligibility and application support - Community food pantries and free meal sites map</t>
+  </si>
+  <si>
+    <t>Homelessness Liaison meetings with students - Assessment of students' basic needs - Referrals to on- and off-campus housing and food resources.</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/dean-students/supplemental-support-services/off-campus-food-assistance</t>
+  </si>
+  <si>
+    <t>9AM - 5PM</t>
+  </si>
+  <si>
+    <t>Food pantry guests must live in the Pine Hills or Eagle Point neighborhoods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1813,6 +1849,24 @@
       <sz val="7"/>
       <color rgb="FF5D5D5D"/>
       <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF46166B"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2158,7 +2212,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2198,6 +2252,11 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2554,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5824,6 +5883,9 @@
       <c r="H132" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I132" s="25" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A133" s="19" t="s">
@@ -5875,6 +5937,87 @@
       </c>
       <c r="I134" s="1" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I135" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5964,8 +6107,11 @@
     <hyperlink ref="C2" r:id="rId80" xr:uid="{E8AB3E9D-8C94-415D-AB28-D7CA4C6F6343}"/>
     <hyperlink ref="F3" r:id="rId81" xr:uid="{F3CC3505-39D1-4EEA-8FA9-8AAB6F9BF146}"/>
     <hyperlink ref="C3" r:id="rId82" xr:uid="{7A6FF923-3DFA-4E0B-A15D-03D091C92A64}"/>
+    <hyperlink ref="C136" r:id="rId83" xr:uid="{1FA6BB05-074A-4060-BBBF-C2C63D7C12FC}"/>
+    <hyperlink ref="F135" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
+    <hyperlink ref="F137" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId83"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId86"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC60FA57-3B3D-4167-B61B-E07E5DE74065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DCE977-3EA6-420B-9A10-ADB65EC8DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="515">
   <si>
     <t>Name</t>
   </si>
@@ -1534,10 +1534,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://stvincentalbany.org/food-pantry
-</t>
-  </si>
-  <si>
     <t>Capital Region Community Resource </t>
   </si>
   <si>
@@ -1571,9 +1567,6 @@
   </si>
   <si>
     <t>WERC is a not-for-profit organization that works to advance women's success in the workplace by building their economic and personal independence.</t>
-  </si>
-  <si>
-    <t>St. Vincent De Paul Food Pantry</t>
   </si>
   <si>
     <t>Albany Running Exchange</t>
@@ -1639,6 +1632,9 @@
   </si>
   <si>
     <t>Food pantry guests must live in the Pine Hills or Eagle Point neighborhoods</t>
+  </si>
+  <si>
+    <t>St Vincent De Paul Food Pantry</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2208,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2257,6 +2253,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2615,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2661,20 +2660,20 @@
     </row>
     <row r="2" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>105</v>
@@ -2683,25 +2682,25 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>96</v>
@@ -2710,25 +2709,25 @@
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -2737,25 +2736,25 @@
         <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>79</v>
@@ -2764,25 +2763,25 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>86</v>
@@ -2791,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -5808,7 +5807,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>470</v>
@@ -5860,7 +5859,7 @@
     </row>
     <row r="132" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A132" s="19" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>480</v>
@@ -5868,15 +5867,13 @@
       <c r="C132" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="D132" s="12" t="s">
         <v>482</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="F132" s="18" t="s">
-        <v>484</v>
-      </c>
+      <c r="F132" s="26"/>
       <c r="G132" s="1" t="s">
         <v>62</v>
       </c>
@@ -5884,25 +5881,25 @@
         <v>10</v>
       </c>
       <c r="I132" s="25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A133" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B133" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="C133" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="D133" s="16" t="s">
         <v>487</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>488</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>62</v>
@@ -5911,21 +5908,21 @@
         <v>10</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="C134" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="D134" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>494</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134"/>
@@ -5936,21 +5933,21 @@
         <v>10</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>50</v>
@@ -5962,27 +5959,27 @@
         <v>26</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>275</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>62</v>
@@ -5991,21 +5988,21 @@
         <v>26</v>
       </c>
       <c r="I136" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>50</v>
@@ -6017,7 +6014,7 @@
         <v>26</v>
       </c>
       <c r="I137" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -6110,8 +6107,9 @@
     <hyperlink ref="C136" r:id="rId83" xr:uid="{1FA6BB05-074A-4060-BBBF-C2C63D7C12FC}"/>
     <hyperlink ref="F135" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
     <hyperlink ref="F137" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
+    <hyperlink ref="D132" r:id="rId86" xr:uid="{AE4C7754-0BC6-4329-BE3F-677BC8B998A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId86"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId87"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DCE977-3EA6-420B-9A10-ADB65EC8DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F21DB7-8BD3-41A8-8470-E42F3A8D6A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="520">
   <si>
     <t>Name</t>
   </si>
@@ -1636,12 +1636,27 @@
   <si>
     <t>St Vincent De Paul Food Pantry</t>
   </si>
+  <si>
+    <t>Full spectrum of services for alcohol and drug addiction - Crisis - Detox - Inpatient - Outpatient - Linkage to Mental Health and Social Support Services - MAT</t>
+  </si>
+  <si>
+    <t>https://www.sphp.com/services/addiction</t>
+  </si>
+  <si>
+    <t>tel:5184526700</t>
+  </si>
+  <si>
+    <t>3 Mercy Care Ln, Guilderland, NY 12084</t>
+  </si>
+  <si>
+    <t>St. Peters Addiction Recovery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,6 +1877,12 @@
     <font>
       <sz val="7"/>
       <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2208,7 +2229,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2255,6 +2276,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2612,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6015,6 +6039,29 @@
       </c>
       <c r="I137" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F21DB7-8BD3-41A8-8470-E42F3A8D6A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8407E0EE-904C-4143-B96F-06B68B206581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5810" yWindow="3970" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="524">
   <si>
     <t>Name</t>
   </si>
@@ -1651,12 +1651,24 @@
   <si>
     <t>St. Peters Addiction Recovery</t>
   </si>
+  <si>
+    <t>Opportunities for students to engage in multidisciplinary research and creative projects</t>
+  </si>
+  <si>
+    <t>ugr@albany.edu</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/undergraduate_bulletin_archive/2022-2023/87399.php</t>
+  </si>
+  <si>
+    <t>Center for Undergraduate Research and Creative Engagement (CURCE)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1883,6 +1895,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF636363"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2229,7 +2247,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2280,6 +2298,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2636,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6062,6 +6081,26 @@
       </c>
       <c r="I138" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8407E0EE-904C-4143-B96F-06B68B206581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1471E9-D755-47AF-815B-63E68A1C79A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5810" yWindow="3970" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -658,9 +658,6 @@
     <t>Drop in hours: T-F: 12 PM - 4 PM</t>
   </si>
   <si>
-    <t>Referrals to outside lab for HIV and STI testing - gynecological services - immunizations</t>
-  </si>
-  <si>
     <t>Fall/Spring: M-F: 9 AM - 12 PM, 1 PM - 4:30 PM; Summer/Winter: M-F: 8 AM - 12 PM, 1 PM - 3:30 PM</t>
   </si>
   <si>
@@ -740,9 +737,6 @@
   </si>
   <si>
     <t>Funding and outreach opportunities to support the mental health of communities of color, specifically among Black women and girls</t>
-  </si>
-  <si>
-    <t>Physicals - Referrals to outside lab for HIV and STI testing - OBGYN - immunizations - COVID-19 care</t>
   </si>
   <si>
     <t>Mental health and wellness resources - find a therapist of color</t>
@@ -1662,6 +1656,12 @@
   </si>
   <si>
     <t>Center for Undergraduate Research and Creative Engagement (CURCE)</t>
+  </si>
+  <si>
+    <t>Referrals to outside lab for HIV and STI testing - immunizations</t>
+  </si>
+  <si>
+    <t>Physicals - Referrals to outside lab for HIV and STI testing - COVID-19 care</t>
   </si>
 </sst>
 </file>
@@ -2657,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2703,20 +2703,20 @@
     </row>
     <row r="2" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>105</v>
@@ -2725,25 +2725,25 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>96</v>
@@ -2752,25 +2752,25 @@
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -2779,25 +2779,25 @@
         <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>79</v>
@@ -2806,25 +2806,25 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>86</v>
@@ -2833,7 +2833,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2844,7 +2844,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>133</v>
@@ -2873,13 +2873,13 @@
         <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
@@ -2902,7 +2902,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>34</v>
@@ -2931,7 +2931,7 @@
         <v>177</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
@@ -2960,7 +2960,7 @@
         <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
@@ -2987,7 +2987,7 @@
         <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
@@ -3003,7 +3003,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3014,7 +3014,7 @@
         <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -3041,7 +3041,7 @@
         <v>145</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>49</v>
@@ -3064,11 +3064,11 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
@@ -3082,15 +3082,15 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>51</v>
@@ -3102,16 +3102,16 @@
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>52</v>
@@ -3120,16 +3120,16 @@
         <v>10</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>52</v>
@@ -3138,7 +3138,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>54</v>
@@ -3174,7 +3174,7 @@
         <v>185</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>183</v>
@@ -3199,7 +3199,7 @@
         <v>152</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>88</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>52</v>
@@ -3233,7 +3233,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -3244,7 +3244,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>57</v>
@@ -3273,7 +3273,7 @@
         <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
@@ -3302,7 +3302,7 @@
         <v>144</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>57</v>
@@ -3331,7 +3331,7 @@
         <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -3360,7 +3360,7 @@
         <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>57</v>
@@ -3389,10 +3389,10 @@
         <v>146</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>192</v>
@@ -3418,7 +3418,7 @@
         <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>61</v>
@@ -3447,7 +3447,7 @@
         <v>148</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>65</v>
@@ -3476,7 +3476,7 @@
         <v>149</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>67</v>
@@ -3492,27 +3492,27 @@
         <v>26</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -3521,95 +3521,95 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="G37" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -3620,7 +3620,7 @@
         <v>154</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>199</v>
@@ -3647,7 +3647,7 @@
         <v>155</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
@@ -3676,10 +3676,10 @@
         <v>156</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
@@ -3700,13 +3700,13 @@
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3728,7 +3728,7 @@
         <v>157</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>204</v>
@@ -3757,7 +3757,7 @@
         <v>158</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>74</v>
@@ -3773,7 +3773,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -3784,13 +3784,13 @@
         <v>150</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>77</v>
@@ -3802,7 +3802,7 @@
         <v>26</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>207</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -3811,10 +3811,10 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3825,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -3834,10 +3834,10 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3848,7 +3848,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -3857,10 +3857,10 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3871,7 +3871,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -3880,13 +3880,13 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -3896,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>83</v>
@@ -3919,18 +3919,18 @@
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>79</v>
@@ -3939,7 +3939,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -3947,10 +3947,10 @@
         <v>141</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>28</v>
@@ -3964,7 +3964,7 @@
         <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -3975,10 +3975,10 @@
         <v>153</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3989,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -4000,7 +4000,7 @@
         <v>158</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>74</v>
@@ -4016,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -4025,14 +4025,14 @@
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>86</v>
@@ -4041,7 +4041,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -4052,13 +4052,13 @@
         <v>150</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>91</v>
@@ -4070,7 +4070,7 @@
         <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -4079,13 +4079,13 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>94</v>
@@ -4097,15 +4097,15 @@
         <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>86</v>
@@ -4114,15 +4114,15 @@
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>86</v>
@@ -4131,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -4140,10 +4140,10 @@
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4154,7 +4154,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -4163,10 +4163,10 @@
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4177,7 +4177,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -4186,14 +4186,14 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>96</v>
@@ -4202,19 +4202,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4225,7 +4225,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -4234,10 +4234,10 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4248,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -4257,10 +4257,10 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4271,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -4280,10 +4280,10 @@
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -4294,7 +4294,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -4303,10 +4303,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -4317,7 +4317,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -4326,10 +4326,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4340,7 +4340,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -4349,10 +4349,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4363,7 +4363,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -4372,10 +4372,10 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -4386,7 +4386,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -4397,10 +4397,10 @@
         <v>159</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4411,7 +4411,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -4420,10 +4420,10 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4434,7 +4434,7 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>107</v>
@@ -4457,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -4466,10 +4466,10 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4480,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -4489,10 +4489,10 @@
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -4503,7 +4503,7 @@
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>111</v>
@@ -4526,7 +4526,7 @@
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>113</v>
@@ -4549,7 +4549,7 @@
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -4558,10 +4558,10 @@
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4572,7 +4572,7 @@
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -4581,10 +4581,10 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4595,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -4603,16 +4603,16 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>13</v>
@@ -4624,7 +4624,7 @@
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -4635,10 +4635,10 @@
         <v>160</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -4651,7 +4651,7 @@
         <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -4662,10 +4662,10 @@
         <v>161</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4676,21 +4676,21 @@
         <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4701,7 +4701,7 @@
         <v>10</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -4709,16 +4709,16 @@
         <v>119</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
@@ -4728,7 +4728,7 @@
         <v>10</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -4739,10 +4739,10 @@
         <v>163</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4753,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -4764,10 +4764,10 @@
         <v>164</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4778,7 +4778,7 @@
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -4789,13 +4789,13 @@
         <v>150</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>77</v>
@@ -4807,7 +4807,7 @@
         <v>26</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>235</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -4818,7 +4818,7 @@
         <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>124</v>
@@ -4836,7 +4836,7 @@
         <v>26</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -4847,13 +4847,13 @@
         <v>150</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>25</v>
@@ -4865,7 +4865,7 @@
         <v>26</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -4876,7 +4876,7 @@
         <v>158</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>74</v>
@@ -4892,7 +4892,7 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -4900,16 +4900,16 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>13</v>
@@ -4921,7 +4921,7 @@
         <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="31" x14ac:dyDescent="0.35">
@@ -4932,7 +4932,7 @@
         <v>155</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>15</v>
@@ -4961,10 +4961,10 @@
         <v>156</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -4985,13 +4985,13 @@
         <v>19</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>21</v>
@@ -5025,7 +5025,7 @@
         <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -5034,7 +5034,7 @@
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>23</v>
@@ -5048,7 +5048,7 @@
         <v>10</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -5059,13 +5059,13 @@
         <v>150</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>25</v>
@@ -5077,7 +5077,7 @@
         <v>26</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -5088,10 +5088,10 @@
         <v>153</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5102,7 +5102,7 @@
         <v>10</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -5110,10 +5110,10 @@
         <v>141</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>28</v>
@@ -5127,7 +5127,7 @@
         <v>26</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -5136,10 +5136,10 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5150,7 +5150,7 @@
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -5158,13 +5158,13 @@
         <v>167</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
@@ -5177,7 +5177,7 @@
         <v>26</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -5185,10 +5185,10 @@
         <v>141</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>28</v>
@@ -5202,7 +5202,7 @@
         <v>26</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>83</v>
@@ -5225,7 +5225,7 @@
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -5236,7 +5236,7 @@
         <v>165</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>128</v>
@@ -5252,15 +5252,15 @@
         <v>10</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>79</v>
@@ -5269,15 +5269,15 @@
         <v>10</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>52</v>
@@ -5286,15 +5286,15 @@
         <v>10</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>52</v>
@@ -5303,15 +5303,15 @@
         <v>10</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>52</v>
@@ -5320,15 +5320,15 @@
         <v>10</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>52</v>
@@ -5337,21 +5337,21 @@
         <v>10</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E109" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>86</v>
@@ -5360,21 +5360,21 @@
         <v>10</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E110" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>79</v>
@@ -5383,21 +5383,21 @@
         <v>10</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E111" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>96</v>
@@ -5406,21 +5406,21 @@
         <v>10</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>105</v>
@@ -5429,21 +5429,21 @@
         <v>10</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>9</v>
@@ -5452,21 +5452,21 @@
         <v>10</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>9</v>
@@ -5475,67 +5475,67 @@
         <v>10</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="E117" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="F117" s="12" t="s">
         <v>407</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>32</v>
@@ -5544,7 +5544,7 @@
         <v>26</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5552,57 +5552,57 @@
         <v>85</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E118" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="F118" t="s">
         <v>413</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="G118" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F118" t="s">
+      <c r="H118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C119" t="s">
         <v>418</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="D119" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="C119" t="s">
+      <c r="F119" t="s">
         <v>420</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="F119" t="s">
-        <v>422</v>
-      </c>
       <c r="G119" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>26</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -5610,38 +5610,38 @@
         <v>169</v>
       </c>
       <c r="B120" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C120" t="s">
+        <v>423</v>
+      </c>
+      <c r="D120" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" s="15" t="s">
         <v>425</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>427</v>
       </c>
       <c r="F120" t="s">
         <v>126</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B121" s="12"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
@@ -5652,27 +5652,27 @@
         <v>10</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C122" t="s">
         <v>432</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="D122" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F122" t="s">
         <v>434</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="F122" t="s">
-        <v>436</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>62</v>
@@ -5681,27 +5681,27 @@
         <v>10</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C123" t="s">
         <v>438</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="D123" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F123" t="s">
         <v>440</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="F123" t="s">
-        <v>442</v>
       </c>
       <c r="G123" s="14" t="s">
         <v>32</v>
@@ -5710,24 +5710,24 @@
         <v>26</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>84</v>
@@ -5736,21 +5736,21 @@
         <v>26</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>52</v>
@@ -5759,21 +5759,21 @@
         <v>10</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>79</v>
@@ -5782,18 +5782,18 @@
         <v>10</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A127" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D127" s="16" t="s">
         <v>457</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>115</v>
@@ -5802,21 +5802,21 @@
         <v>10</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="F128" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>464</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>115</v>
@@ -5825,18 +5825,18 @@
         <v>10</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>115</v>
@@ -5845,24 +5845,24 @@
         <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D130" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="F130" s="20" t="s">
         <v>471</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="F130" s="20" t="s">
-        <v>473</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>115</v>
@@ -5873,22 +5873,22 @@
     </row>
     <row r="131" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A131" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="D131" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="E131" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="E131" s="18" t="s">
-        <v>478</v>
-      </c>
       <c r="F131" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>115</v>
@@ -5897,24 +5897,24 @@
         <v>10</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A132" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B132" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="E132" s="18" t="s">
         <v>481</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="E132" s="18" t="s">
-        <v>483</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="1" t="s">
@@ -5924,25 +5924,25 @@
         <v>10</v>
       </c>
       <c r="I132" s="25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="93" x14ac:dyDescent="0.35">
       <c r="A133" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="D133" s="16" t="s">
         <v>485</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>487</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>62</v>
@@ -5951,21 +5951,21 @@
         <v>10</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="D134" s="21" t="s">
         <v>491</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>493</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134"/>
@@ -5976,21 +5976,21 @@
         <v>10</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>50</v>
@@ -6002,27 +6002,27 @@
         <v>26</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="E136" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>62</v>
@@ -6031,21 +6031,21 @@
         <v>26</v>
       </c>
       <c r="I136" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>50</v>
@@ -6057,21 +6057,21 @@
         <v>26</v>
       </c>
       <c r="I137" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>52</v>
@@ -6080,18 +6080,18 @@
         <v>10</v>
       </c>
       <c r="I138" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="28" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>32</v>
@@ -6100,7 +6100,7 @@
         <v>26</v>
       </c>
       <c r="I139" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1471E9-D755-47AF-815B-63E68A1C79A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCC1C3-E8D5-40EF-A648-C0B417A7342B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,7 +1668,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1863,46 +1863,33 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF5D5D5D"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF46166B"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF5D5D5D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF636363"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2247,58 +2234,38 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2657,3449 +2624,3549 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="88.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="96.36328125" style="3" customWidth="1"/>
-    <col min="5" max="8" width="25.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="88.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="96.36328125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="25.08984375" style="2" customWidth="1"/>
     <col min="9" max="9" width="78.08984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="1" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="H34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="H35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="10" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="8" t="s">
+      <c r="H36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="H37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="H38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="H40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="H43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="4" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="H47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="H48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="H49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="H52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="H53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="H54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="H57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="H58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="H60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="4" t="s">
+      <c r="E61" s="4"/>
+      <c r="F61" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="H61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="H62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="H63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="H64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="H65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="H66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="H67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="1" t="s">
+      <c r="H68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="H69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="H70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="H71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="1" t="s">
+      <c r="H72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1" t="s">
+      <c r="H73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1" t="s">
+      <c r="H74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="H75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="1" t="s">
+      <c r="H76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="1" t="s">
+      <c r="H77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="1" t="s">
+      <c r="H78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="1" t="s">
+      <c r="H79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="1" t="s">
+      <c r="H80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="1" t="s">
+      <c r="H81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="1" t="s">
+      <c r="H82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="1" t="s">
+      <c r="H83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="1" t="s">
+      <c r="H84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="1" t="s">
+      <c r="H85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" s="4" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="1" t="s">
+      <c r="H89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="1" t="s">
+      <c r="H90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="1" t="s">
+      <c r="H91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="1" t="s">
+      <c r="H92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="1" t="s">
+      <c r="H93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="1" t="s">
+      <c r="H94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="4"/>
+      <c r="C95" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="1" t="s">
+      <c r="H95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="1" t="s">
+      <c r="H97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="4"/>
+      <c r="C99" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="1" t="s">
+      <c r="H99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="1" t="s">
+      <c r="H102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1" t="s">
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="1" t="s">
+      <c r="H103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="1" t="s">
+      <c r="H104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" s="1" t="s">
+      <c r="H105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I106" s="1" t="s">
+      <c r="H106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" s="1" t="s">
+      <c r="H107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" s="1" t="s">
+      <c r="H108" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="B109" s="5"/>
+      <c r="C109" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="F109" s="5"/>
+      <c r="G109" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" s="7" t="s">
+      <c r="H109" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="B110" s="5"/>
+      <c r="C110" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="F110" s="5"/>
+      <c r="G110" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="7" t="s">
+      <c r="H110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="B111" s="5"/>
+      <c r="C111" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="F111" s="5"/>
+      <c r="G111" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="7" t="s">
+      <c r="H111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="B112" s="5"/>
+      <c r="C112" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="F112" s="5"/>
+      <c r="G112" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="7" t="s">
+      <c r="H112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="B113" s="5"/>
+      <c r="C113" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="F113" s="5"/>
+      <c r="G113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="7" t="s">
+      <c r="H113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="F114" s="5"/>
+      <c r="G114" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" s="1" t="s">
+      <c r="H114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="F115" s="5"/>
+      <c r="G115" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="1" t="s">
+      <c r="H115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="F116" s="5"/>
+      <c r="G116" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="1" t="s">
+      <c r="H116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="F117" s="12" t="s">
+      <c r="F117" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I117" s="13" t="s">
+      <c r="I117" s="12" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="G118" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H118" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="10" t="s">
+      <c r="H118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A119" s="10" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E119" s="15" t="s">
+      <c r="E119" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="G119" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H119" s="14" t="s">
+      <c r="H119" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="I119" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="E120" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G120" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H120" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="10" t="s">
+      <c r="H120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="7" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14" t="s">
+      <c r="B121" s="8"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="1" t="s">
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H121" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" s="10" t="s">
+      <c r="H121" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="7" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A122" s="10" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E122" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H122" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="10" t="s">
+      <c r="H122" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="7" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A123" s="14" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E123" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H123" s="14" t="s">
+      <c r="H123" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I123" s="10" t="s">
+      <c r="I123" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="F124" s="5"/>
+      <c r="G124" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I124" s="4" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="B125" s="5"/>
+      <c r="C125" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="F125" s="5"/>
+      <c r="G125" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="1" t="s">
+      <c r="H125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="4" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="F126" s="5"/>
+      <c r="G126" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="1" t="s">
+      <c r="H126" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="93" x14ac:dyDescent="0.35">
-      <c r="A127" s="16" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="C127" s="5"/>
+      <c r="D127" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="1" t="s">
+      <c r="H127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="4" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="16" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="C128" s="5"/>
+      <c r="D128" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="F128" s="18" t="s">
+      <c r="E128" s="5"/>
+      <c r="F128" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="1" t="s">
+      <c r="H128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="4" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="1" t="s">
+      <c r="H129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="4" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="D130" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="F130" s="20" t="s">
+      <c r="E130" s="5"/>
+      <c r="F130" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="19" t="s">
+      <c r="H130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="B131" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="D131" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="F131" s="19" t="s">
+      <c r="F131" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="H131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="19" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="F132" s="26"/>
-      <c r="G132" s="1" t="s">
+      <c r="F132" s="18"/>
+      <c r="G132" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="25" t="s">
+      <c r="H132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="19" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="93" x14ac:dyDescent="0.35">
-      <c r="A133" s="19" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="D133" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="16" t="s">
+      <c r="E133" s="15"/>
+      <c r="F133" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="2" t="s">
+      <c r="H133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="4" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D134" s="21" t="s">
+      <c r="D134" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="E134" s="19"/>
-      <c r="F134"/>
-      <c r="G134" s="1" t="s">
+      <c r="E134" s="15"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="1" t="s">
+      <c r="H134" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="4" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="F135" s="12" t="s">
+      <c r="F135" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I135" s="23" t="s">
+      <c r="I135" s="19" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="5" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="C137" s="5"/>
+      <c r="D137" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="F137" s="12" t="s">
+      <c r="F137" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="5" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="H138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="5" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="E139" s="5"/>
+      <c r="F139" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G139" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="5" t="s">
         <v>518</v>
       </c>
     </row>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCC1C3-E8D5-40EF-A648-C0B417A7342B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BFE7E5-D8F0-4E16-9413-F50E26909963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="529">
   <si>
     <t>Name</t>
   </si>
@@ -1662,6 +1662,21 @@
   </si>
   <si>
     <t>Physicals - Referrals to outside lab for HIV and STI testing - COVID-19 care</t>
+  </si>
+  <si>
+    <t>International Crossroads Albany (ICA)</t>
+  </si>
+  <si>
+    <t>(518)396-6025</t>
+  </si>
+  <si>
+    <t>https://www.icalbany.org/</t>
+  </si>
+  <si>
+    <t>mark@internationalcrossroads.org</t>
+  </si>
+  <si>
+    <t>ICA offers events and community for international students - primarily serves internationals at RPI, U Albany, and Union College - open to all internationals in the Capital District - activities enhance experience and understanding of American culture - includes large events, Friendship Partner Program, conversational English groups, and Bible discussions.</t>
   </si>
 </sst>
 </file>
@@ -2234,22 +2249,20 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2260,12 +2273,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2622,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2640,456 +2653,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -3097,3077 +3103,3004 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4" t="s">
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="10" t="s">
+      <c r="H35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="11" t="s">
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="H37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="H39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="H40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="H41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="4" t="s">
+      <c r="H43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="1" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="H45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="H46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="4" t="s">
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="H50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="4" t="s">
+      <c r="H52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="H53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="4" t="s">
+      <c r="H54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="4" t="s">
+      <c r="H57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="4" t="s">
+      <c r="H58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="H59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4" t="s">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="H60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="6" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="4" t="s">
+      <c r="H61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="4" t="s">
+      <c r="H62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="H63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="H64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="H65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="1"/>
+      <c r="C66" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="4" t="s">
+      <c r="H66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="4" t="s">
+      <c r="H67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4" t="s">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="H68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4" t="s">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="H69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4" t="s">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="4" t="s">
+      <c r="H70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="4" t="s">
+      <c r="H71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="4" t="s">
+      <c r="H72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="4" t="s">
+      <c r="H73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4" t="s">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="4" t="s">
+      <c r="H74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4" t="s">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="4" t="s">
+      <c r="H75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4" t="s">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="4" t="s">
+      <c r="H76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="1"/>
+      <c r="C77" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4" t="s">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="4" t="s">
+      <c r="H77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="1"/>
+      <c r="C78" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4" t="s">
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="H78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="H79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4" t="s">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="4" t="s">
+      <c r="H80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4" t="s">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="4" t="s">
+      <c r="H81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4" t="s">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="4" t="s">
+      <c r="H82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4" t="s">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="H83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4" t="s">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="H84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="H85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" s="1" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4" t="s">
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="4" t="s">
+      <c r="H89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="4" t="s">
+      <c r="H90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="H91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4" t="s">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="H92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4" t="s">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="4" t="s">
+      <c r="H93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4" t="s">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="4" t="s">
+      <c r="H94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="1"/>
+      <c r="C95" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="4" t="s">
+      <c r="H95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I96" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4" t="s">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="4" t="s">
+      <c r="H97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4" t="s">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="1"/>
+      <c r="C99" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4" t="s">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="4" t="s">
+      <c r="H99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4" t="s">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I100" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4" t="s">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="1"/>
+      <c r="C102" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4" t="s">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="4" t="s">
+      <c r="H102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4" t="s">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="4" t="s">
+      <c r="H103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="4" t="s">
+      <c r="H104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H105" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" s="4" t="s">
+      <c r="H105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H106" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I106" s="4" t="s">
+      <c r="H106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" s="4" t="s">
+      <c r="H107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H108" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" s="4" t="s">
+      <c r="H108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H109" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" s="10" t="s">
+      <c r="H109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H110" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="10" t="s">
+      <c r="H110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="10" t="s">
+      <c r="H111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H112" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="10" t="s">
+      <c r="H112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H113" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="10" t="s">
+      <c r="H113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F114" s="5"/>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" s="4" t="s">
+      <c r="H114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F115" s="5"/>
-      <c r="G115" s="4" t="s">
+      <c r="G115" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="4" t="s">
+      <c r="H115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F116" s="5"/>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="4" t="s">
+      <c r="H116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G117" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I117" s="12" t="s">
+      <c r="I117" s="10" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E118" s="13" t="s">
+      <c r="E118" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G118" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="H118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="7" t="s">
+      <c r="H118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="5" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="E119" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G119" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H119" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="I119" s="5" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="E120" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G120" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="H120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="7" t="s">
+      <c r="H120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="5" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7" t="s">
+      <c r="B121" s="6"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="4" t="s">
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" s="7" t="s">
+      <c r="H121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="5" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="7" t="s">
+      <c r="H122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="5" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G123" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="H123" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="I123" s="5" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="4" t="s">
+      <c r="G124" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H124" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I124" s="4" t="s">
+      <c r="I124" s="1" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="4" t="s">
+      <c r="G125" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H125" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="4" t="s">
+      <c r="H125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F126" s="5"/>
-      <c r="G126" s="4" t="s">
+      <c r="G126" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H126" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="4" t="s">
+      <c r="H126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H127" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="4" t="s">
+      <c r="H127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="15" t="s">
+      <c r="F128" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G128" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H128" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="4" t="s">
+      <c r="H128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G129" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H129" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="4" t="s">
+      <c r="H129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H130" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="4"/>
+      <c r="H130" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="E131" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="F131" s="15" t="s">
+      <c r="F131" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H131" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="4" t="s">
+      <c r="H131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="E132" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="F132" s="18"/>
-      <c r="G132" s="4" t="s">
+      <c r="F132" s="16"/>
+      <c r="G132" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H132" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="19" t="s">
+      <c r="H132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="17" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="E133" s="15"/>
-      <c r="F133" s="10" t="s">
+      <c r="E133" s="13"/>
+      <c r="F133" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G133" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H133" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="4" t="s">
+      <c r="H133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="E134" s="15"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="4" t="s">
+      <c r="E134" s="13"/>
+      <c r="G134" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H134" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="4" t="s">
+      <c r="H134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H135" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I135" s="19" t="s">
+      <c r="I135" s="17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="G136" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="H136" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I136" s="5" t="s">
+      <c r="I136" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="G137" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="H137" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="I137" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5" t="s">
+      <c r="G138" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H138" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="5" t="s">
+      <c r="H138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="G139" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="H139" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="I139" s="2" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BFE7E5-D8F0-4E16-9413-F50E26909963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15B763-759E-47A2-B0D4-90EF2201320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="535">
   <si>
     <t>Name</t>
   </si>
@@ -1667,9 +1667,6 @@
     <t>International Crossroads Albany (ICA)</t>
   </si>
   <si>
-    <t>(518)396-6025</t>
-  </si>
-  <si>
     <t>https://www.icalbany.org/</t>
   </si>
   <si>
@@ -1677,6 +1674,27 @@
   </si>
   <si>
     <t>ICA offers events and community for international students - primarily serves internationals at RPI, U Albany, and Union College - open to all internationals in the Capital District - activities enhance experience and understanding of American culture - includes large events, Friendship Partner Program, conversational English groups, and Bible discussions.</t>
+  </si>
+  <si>
+    <t>Psychological Services Center (PSC)</t>
+  </si>
+  <si>
+    <t>299 Washington Ave, Albany, NY 12206</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/psc</t>
+  </si>
+  <si>
+    <t>M-Th: 1pm-7pm</t>
+  </si>
+  <si>
+    <t>The Psychological Services Center (PSC) offers psychological services to children, adolescents and adults in the Capital Region on a sliding fee scale. Our services include psychotherapy, counseling and assessment. Services are scheduled by appointment only.</t>
+  </si>
+  <si>
+    <t>tel:(518)396-6025</t>
+  </si>
+  <si>
+    <t>tel:518-442-4900</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2267,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2279,6 +2297,8 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2635,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="E106" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6084,14 +6104,14 @@
       <c r="A140" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>32</v>
@@ -6100,7 +6120,34 @@
         <v>10</v>
       </c>
       <c r="I140" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="8" t="s">
         <v>528</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="20" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -6194,8 +6241,11 @@
     <hyperlink ref="F135" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
     <hyperlink ref="F137" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
     <hyperlink ref="D132" r:id="rId86" xr:uid="{AE4C7754-0BC6-4329-BE3F-677BC8B998A9}"/>
+    <hyperlink ref="D141" r:id="rId87" xr:uid="{9B78D813-C58E-43B6-93FE-BA5C85BE774B}"/>
+    <hyperlink ref="C140" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
+    <hyperlink ref="C141" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId87"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId90"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15B763-759E-47A2-B0D4-90EF2201320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F69085-E0BD-42C1-8BFC-9E90F53EE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>writing@albany.edu</t>
   </si>
   <si>
-    <t>Tutoring</t>
-  </si>
-  <si>
     <t>https://www.albany.edu/academic-advising/tutoring#additionalresources</t>
   </si>
   <si>
@@ -560,9 +557,6 @@
   </si>
   <si>
     <t>Writing, research, and teaching support</t>
-  </si>
-  <si>
-    <t>Peer tutoring - study buddies - workshops - departmental tutoring</t>
   </si>
   <si>
     <t>M-F: 8:30 AM - 5 PM</t>
@@ -1695,6 +1689,12 @@
   </si>
   <si>
     <t>tel:518-442-4900</t>
+  </si>
+  <si>
+    <t>Tutoring</t>
+  </si>
+  <si>
+    <t>Undergrads Only - Peer tutoring - study buddies - workshops - departmental tutoring</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2267,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2298,7 +2298,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2657,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E106" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2698,162 +2697,162 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -2862,7 +2861,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2870,16 +2869,16 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
@@ -2891,7 +2890,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2899,16 +2898,16 @@
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>35</v>
@@ -2920,27 +2919,27 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -2949,25 +2948,25 @@
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>175</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -2976,25 +2975,25 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>32</v>
@@ -3003,25 +3002,25 @@
         <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -3030,27 +3029,27 @@
         <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>32</v>
@@ -3059,582 +3058,582 @@
         <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -3642,28 +3641,28 @@
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -3671,26 +3670,26 @@
         <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -3698,53 +3697,53 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -3752,203 +3751,203 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>28</v>
@@ -3956,13 +3955,13 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -3970,24 +3969,24 @@
         <v>27</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -3995,235 +3994,235 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -4232,90 +4231,90 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -4324,92 +4323,92 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -4418,159 +4417,159 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -4579,21 +4578,21 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -4601,240 +4600,240 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G86" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="F87" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -4842,28 +4841,28 @@
         <v>24</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -4871,16 +4870,16 @@
         <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -4890,7 +4889,7 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -4898,16 +4897,16 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>13</v>
@@ -4919,7 +4918,7 @@
         <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -4927,16 +4926,16 @@
         <v>14</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>16</v>
@@ -4948,7 +4947,7 @@
         <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -4956,13 +4955,13 @@
         <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -4975,7 +4974,7 @@
         <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -4983,13 +4982,13 @@
         <v>19</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5000,7 +4999,7 @@
         <v>10</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -5009,7 +5008,7 @@
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>21</v>
@@ -5023,7 +5022,7 @@
         <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -5032,7 +5031,7 @@
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>23</v>
@@ -5046,7 +5045,7 @@
         <v>10</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -5054,16 +5053,16 @@
         <v>24</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>25</v>
@@ -5075,7 +5074,7 @@
         <v>26</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -5083,13 +5082,13 @@
         <v>27</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5100,18 +5099,18 @@
         <v>10</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>28</v>
@@ -5125,68 +5124,68 @@
         <v>26</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>28</v>
@@ -5194,254 +5193,254 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="H103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="E109" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="E110" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="E111" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="E112" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>9</v>
@@ -5450,21 +5449,21 @@
         <v>10</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>9</v>
@@ -5473,67 +5472,67 @@
         <v>10</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="E117" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="F117" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>32</v>
@@ -5542,164 +5541,164 @@
         <v>26</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="F118" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="G118" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="H118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="D119" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="G119" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="E120" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="F120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="E122" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="G122" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="E123" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>32</v>
@@ -5708,162 +5707,162 @@
         <v>26</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="G125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="G126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="G127" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="F128" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="G128" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="G129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="F130" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>471</v>
-      </c>
       <c r="G130" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>10</v>
@@ -5871,224 +5870,224 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="D131" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="E131" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="F131" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B132" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="E132" s="13" t="s">
         <v>479</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>481</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="D133" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="D134" s="16" t="s">
         <v>489</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>491</v>
       </c>
       <c r="E134" s="13"/>
       <c r="G134" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="G136" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>32</v>
@@ -6097,21 +6096,21 @@
         <v>26</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>32</v>
@@ -6120,34 +6119,34 @@
         <v>10</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D141" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="D141" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>531</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H141" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I141" s="20" t="s">
-        <v>532</v>
+      <c r="I141" s="8" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F69085-E0BD-42C1-8BFC-9E90F53EE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AA50BB-7753-4C21-A9EA-94807D8692C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="0" windowWidth="13120" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="538">
   <si>
     <t>Name</t>
   </si>
@@ -1695,6 +1695,15 @@
   </si>
   <si>
     <t>Undergrads Only - Peer tutoring - study buddies - workshops - departmental tutoring</t>
+  </si>
+  <si>
+    <t>https://www.gamfin.org/nysoasas</t>
+  </si>
+  <si>
+    <t>GamFin</t>
+  </si>
+  <si>
+    <t>GamFin is a service that provides free financial counseling services to anyone regardless of whether they are engaged in any other support service.</t>
   </si>
 </sst>
 </file>
@@ -2654,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6147,6 +6156,23 @@
       </c>
       <c r="I141" s="8" t="s">
         <v>530</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AA50BB-7753-4C21-A9EA-94807D8692C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C440EC1-29C9-4085-A27A-04FCC352CC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="0" windowWidth="13120" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7610" yWindow="810" windowWidth="12980" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -2666,7 +2666,7 @@
   <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6171,7 +6171,7 @@
       <c r="H142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="2" t="s">
         <v>537</v>
       </c>
     </row>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C440EC1-29C9-4085-A27A-04FCC352CC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37AF281-9DA3-4B7C-9036-1BC2BE427722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7610" yWindow="810" windowWidth="12980" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="541">
   <si>
     <t>Name</t>
   </si>
@@ -1704,6 +1704,15 @@
   </si>
   <si>
     <t>GamFin is a service that provides free financial counseling services to anyone regardless of whether they are engaged in any other support service.</t>
+  </si>
+  <si>
+    <t>SNAP (Food Stamps)</t>
+  </si>
+  <si>
+    <t>https://www.ny.gov/services/apply-snap</t>
+  </si>
+  <si>
+    <t>The Supplemental Nutrition Assistance Program (SNAP) issues electronic benefits that can be used like cash to purchase food. SNAP helps low-income working people, senior citizens, the disabled and others feed their families. Apply online for free!</t>
   </si>
 </sst>
 </file>
@@ -2663,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="E115" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6173,6 +6182,23 @@
       </c>
       <c r="I142" s="2" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -6269,8 +6295,9 @@
     <hyperlink ref="D141" r:id="rId87" xr:uid="{9B78D813-C58E-43B6-93FE-BA5C85BE774B}"/>
     <hyperlink ref="C140" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
     <hyperlink ref="C141" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
+    <hyperlink ref="D143" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId90"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId91"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37AF281-9DA3-4B7C-9036-1BC2BE427722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEBCC10-B263-44C9-96D4-35A881BF1E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -1566,26 +1566,12 @@
     <t>M-W 9am-7pm - Th-F 9am-4pm</t>
   </si>
   <si>
-    <t>https://www.cssny.org/programs/entry/champ</t>
-  </si>
-  <si>
     <t>CHAMP Program (OASAS)</t>
   </si>
   <si>
     <t>tel:8886145400</t>
   </si>
   <si>
-    <t>Have questions about mental health or substance use health insurance?
-The OASAS CHAMP program can help:
-Teach you about your insurance rights
-Find the best insurance option
-Access coverage for treatment and medication
-Advocate with providers and insurance companies
-Submit complaints against insurance companies
-Fight denials and file appeals
-New York State Office of Addiction Services and Supports (OASAS)</t>
-  </si>
-  <si>
     <t>Supplemental Support Services</t>
   </si>
   <si>
@@ -1713,6 +1699,12 @@
   </si>
   <si>
     <t>The Supplemental Nutrition Assistance Program (SNAP) issues electronic benefits that can be used like cash to purchase food. SNAP helps low-income working people, senior citizens, the disabled and others feed their families. Apply online for free!</t>
+  </si>
+  <si>
+    <t>https://oasas.ny.gov/champ-community-health-access-addiction-and-mental-health-care-project-0</t>
+  </si>
+  <si>
+    <t>CHAMP is a New York State program that helps individuals overcome insurance barriers to substance use and mental health care. Established in 2018, it offers a free, confidential helpline and partners with local organizations to assist patients, caretakers, and providers. Regardless of insurance status, CHAMP provides guidance and connects individuals to resources. It operates in collaboration with the Office of Addiction Services and Supports, the Office of Mental Health, and community organizations.</t>
   </si>
 </sst>
 </file>
@@ -2674,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E115" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2720,157 +2712,163 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>494</v>
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>492</v>
+        <v>170</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>497</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
-        <v>496</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>494</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>492</v>
+        <v>332</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>497</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>494</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>492</v>
+        <v>171</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>497</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="7" t="s">
-        <v>496</v>
+        <v>531</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>494</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>492</v>
+        <v>174</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="7" t="s">
-        <v>496</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>492</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>497</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -2879,27 +2877,25 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>332</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -2908,27 +2904,27 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>271</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -2937,158 +2933,123 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>274</v>
+        <v>379</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>384</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>274</v>
+        <v>380</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>381</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3099,19 +3060,24 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>378</v>
+        <v>135</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
@@ -3119,15 +3085,18 @@
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>384</v>
+        <v>333</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>51</v>
@@ -3135,513 +3104,538 @@
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>380</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>381</v>
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>382</v>
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>318</v>
+        <v>143</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>334</v>
+        <v>139</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>335</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>279</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>190</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>344</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>58</v>
+        <v>346</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>189</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>279</v>
+        <v>79</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>191</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>49</v>
+        <v>348</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>194</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>195</v>
+        <v>351</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>196</v>
+        <v>10</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>67</v>
+        <v>354</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>266</v>
+        <v>10</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>344</v>
+      <c r="A32" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G32" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>361</v>
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>349</v>
+        <v>282</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>352</v>
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>353</v>
+      <c r="I35" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>356</v>
+      <c r="I36" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="A37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>360</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -3651,188 +3645,165 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>336</v>
+        <v>77</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>305</v>
+        <v>79</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>288</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>520</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>361</v>
+      </c>
       <c r="C45" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>78</v>
       </c>
@@ -3840,190 +3811,191 @@
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>207</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>208</v>
+        <v>140</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>211</v>
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C48" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>212</v>
+        <v>285</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>290</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>361</v>
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>349</v>
+        <v>291</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>350</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="G51" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+        <v>338</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="G52" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>342</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>85</v>
       </c>
@@ -4031,134 +4003,136 @@
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>86</v>
+        <v>276</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>339</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>340</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>341</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4169,19 +4143,19 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4192,24 +4166,22 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="4" t="s">
-        <v>226</v>
-      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
         <v>95</v>
       </c>
@@ -4217,19 +4189,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4240,19 +4212,19 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4263,19 +4235,19 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4286,136 +4258,136 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="2" t="s">
-        <v>276</v>
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>294</v>
+        <v>109</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4426,19 +4398,19 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4449,19 +4421,19 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4472,19 +4444,19 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4495,143 +4467,157 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C74" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G74" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C75" s="2" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G75" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C76" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>112</v>
+        <v>297</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C77" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>233</v>
+        <v>321</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E78" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>325</v>
+        <v>162</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
         <v>114</v>
       </c>
@@ -4639,26 +4625,24 @@
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>245</v>
+        <v>300</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
         <v>114</v>
       </c>
@@ -4666,239 +4650,245 @@
         <v>10</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>297</v>
+        <v>149</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G81" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>247</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>298</v>
+        <v>149</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E84" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G85" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>269</v>
+        <v>154</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>521</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
         <v>9</v>
@@ -4907,28 +4897,22 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>325</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
         <v>9</v>
       </c>
@@ -4936,55 +4920,53 @@
         <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
         <v>9</v>
       </c>
@@ -4992,21 +4974,21 @@
         <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>305</v>
+        <v>323</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5014,1187 +4996,1197 @@
         <v>9</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C95" s="2" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="G95" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>149</v>
+        <v>323</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>328</v>
+        <v>167</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>28</v>
+        <v>164</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G98" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H99" s="1" t="s">
+      <c r="A99" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>210</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>26</v>
+      <c r="A100" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>26</v>
+      <c r="A101" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>215</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="A102" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>214</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H103" s="1" t="s">
+      <c r="A103" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>362</v>
+        <v>386</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>363</v>
+        <v>388</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>364</v>
+      <c r="I104" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>365</v>
+        <v>386</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>367</v>
+      <c r="I105" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>368</v>
+        <v>386</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>51</v>
+        <v>388</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>372</v>
+      <c r="I106" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>369</v>
+        <v>386</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>51</v>
+        <v>388</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>374</v>
+      <c r="I107" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>370</v>
+        <v>386</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>51</v>
+        <v>388</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>376</v>
+      <c r="I108" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>85</v>
+      <c r="G109" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="8" t="s">
-        <v>389</v>
+      <c r="I109" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>388</v>
+      <c r="A110" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>389</v>
+        <v>345</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>389</v>
+        <v>346</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>104</v>
+        <v>404</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>389</v>
+        <v>26</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>390</v>
+      <c r="A114" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>394</v>
+        <v>416</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>397</v>
+      <c r="A115" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="A116" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>398</v>
+        <v>61</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="A117" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H118" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I117" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="I118" s="5" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H119" s="5" t="s">
+      <c r="A119" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="5" t="s">
-        <v>419</v>
+      <c r="I119" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>420</v>
+      <c r="A120" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>424</v>
+        <v>450</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
+      <c r="A121" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="G121" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>427</v>
+        <v>78</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>432</v>
+      <c r="A122" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>433</v>
+        <v>114</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>439</v>
+      <c r="A123" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>359</v>
+        <v>462</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>451</v>
+        <v>491</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>469</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>452</v>
-      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>451</v>
+      <c r="A126" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>473</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>455</v>
-      </c>
+      <c r="A127" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="F127" s="16"/>
       <c r="G127" s="1" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>456</v>
+      <c r="I127" s="17" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" s="8" t="s">
-        <v>457</v>
+      <c r="A128" s="13" t="s">
+        <v>480</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>460</v>
+        <v>481</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E128" s="13"/>
+      <c r="F128" s="8" t="s">
+        <v>484</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>464</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="E129" s="13"/>
       <c r="G129" s="1" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>469</v>
+        <v>499</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>471</v>
+      <c r="A131" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>473</v>
+        <v>271</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>475</v>
+        <v>26</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="F132" s="16"/>
-      <c r="G132" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="17" t="s">
+      <c r="G133" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="E133" s="13"/>
-      <c r="F133" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="E134" s="13"/>
-      <c r="G134" s="1" t="s">
-        <v>61</v>
+      <c r="A134" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>490</v>
+        <v>26</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>501</v>
+        <v>520</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>529</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G135" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I135" s="17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="H138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="D141" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8" t="s">
+      <c r="H141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H141" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D143" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H143" s="2" t="s">
+      <c r="H143" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -6202,100 +6194,100 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I103">
-    <sortCondition ref="G7:G103"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
+    <sortCondition ref="G2:G98"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F28" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F61" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C83" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C86" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C70" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D87" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D51" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D101" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D98" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D90" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D54" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D55" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D79" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D63" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D28" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D62" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D61" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D60" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D59" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D56" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D64" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D65" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D66" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D67" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D68" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D69" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D70" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D71" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D72" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D73" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D74" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D75" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D76" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D77" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D78" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D80" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D46" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C46" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
-    <hyperlink ref="C21" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C98" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D92" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D40" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C40" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C92" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D97" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D52" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C52" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C97" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D57" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D58" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D33" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C33" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C22" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
-    <hyperlink ref="C109" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
-    <hyperlink ref="C110" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
-    <hyperlink ref="C111" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
-    <hyperlink ref="C112" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
-    <hyperlink ref="C113" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
-    <hyperlink ref="D115" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
-    <hyperlink ref="C117" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
-    <hyperlink ref="F117" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
-    <hyperlink ref="C124" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
-    <hyperlink ref="D128" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
-    <hyperlink ref="D130" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
-    <hyperlink ref="D134" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
-    <hyperlink ref="C131" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
-    <hyperlink ref="C132" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
-    <hyperlink ref="C133" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
-    <hyperlink ref="C130" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
-    <hyperlink ref="C134" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
-    <hyperlink ref="F4" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
-    <hyperlink ref="C4" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
-    <hyperlink ref="F6" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
-    <hyperlink ref="C6" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
-    <hyperlink ref="F5" r:id="rId77" xr:uid="{6E99B26B-E909-48C3-BA3B-0EEAB27C601B}"/>
-    <hyperlink ref="C5" r:id="rId78" xr:uid="{EEB16B9A-E1D2-47F9-8980-91086F1C74C7}"/>
-    <hyperlink ref="F2" r:id="rId79" xr:uid="{68D944DA-C5C2-4839-8C79-F0953BD9134E}"/>
-    <hyperlink ref="C2" r:id="rId80" xr:uid="{E8AB3E9D-8C94-415D-AB28-D7CA4C6F6343}"/>
-    <hyperlink ref="F3" r:id="rId81" xr:uid="{F3CC3505-39D1-4EEA-8FA9-8AAB6F9BF146}"/>
-    <hyperlink ref="C3" r:id="rId82" xr:uid="{7A6FF923-3DFA-4E0B-A15D-03D091C92A64}"/>
-    <hyperlink ref="C136" r:id="rId83" xr:uid="{1FA6BB05-074A-4060-BBBF-C2C63D7C12FC}"/>
-    <hyperlink ref="F135" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
-    <hyperlink ref="F137" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
-    <hyperlink ref="D132" r:id="rId86" xr:uid="{AE4C7754-0BC6-4329-BE3F-677BC8B998A9}"/>
-    <hyperlink ref="D141" r:id="rId87" xr:uid="{9B78D813-C58E-43B6-93FE-BA5C85BE774B}"/>
-    <hyperlink ref="C140" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
-    <hyperlink ref="C141" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
-    <hyperlink ref="D143" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F56" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C78" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C81" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C65" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D82" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
+    <hyperlink ref="D46" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D96" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D93" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D85" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D49" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D50" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D74" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D58" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D57" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D56" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D55" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D54" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D51" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D59" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D60" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D61" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D62" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D63" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D64" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D65" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D66" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D67" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D68" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D69" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D70" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D71" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D72" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D73" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D75" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="C16" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
+    <hyperlink ref="C93" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D87" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D35" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C35" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C87" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D92" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D47" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C47" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C92" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D28" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C28" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C17" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="C104" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
+    <hyperlink ref="C105" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
+    <hyperlink ref="C106" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
+    <hyperlink ref="C107" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
+    <hyperlink ref="C108" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
+    <hyperlink ref="D110" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
+    <hyperlink ref="C112" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
+    <hyperlink ref="F112" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
+    <hyperlink ref="C119" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
+    <hyperlink ref="D123" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
+    <hyperlink ref="D125" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
+    <hyperlink ref="D129" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
+    <hyperlink ref="C126" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
+    <hyperlink ref="C127" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
+    <hyperlink ref="C128" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
+    <hyperlink ref="C125" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
+    <hyperlink ref="C129" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
+    <hyperlink ref="F141" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
+    <hyperlink ref="C141" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
+    <hyperlink ref="F143" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
+    <hyperlink ref="C143" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
+    <hyperlink ref="F142" r:id="rId77" xr:uid="{6E99B26B-E909-48C3-BA3B-0EEAB27C601B}"/>
+    <hyperlink ref="C142" r:id="rId78" xr:uid="{EEB16B9A-E1D2-47F9-8980-91086F1C74C7}"/>
+    <hyperlink ref="F139" r:id="rId79" xr:uid="{68D944DA-C5C2-4839-8C79-F0953BD9134E}"/>
+    <hyperlink ref="C139" r:id="rId80" xr:uid="{E8AB3E9D-8C94-415D-AB28-D7CA4C6F6343}"/>
+    <hyperlink ref="F140" r:id="rId81" xr:uid="{F3CC3505-39D1-4EEA-8FA9-8AAB6F9BF146}"/>
+    <hyperlink ref="C140" r:id="rId82" xr:uid="{7A6FF923-3DFA-4E0B-A15D-03D091C92A64}"/>
+    <hyperlink ref="C131" r:id="rId83" xr:uid="{1FA6BB05-074A-4060-BBBF-C2C63D7C12FC}"/>
+    <hyperlink ref="F130" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
+    <hyperlink ref="F132" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
+    <hyperlink ref="D127" r:id="rId86" xr:uid="{AE4C7754-0BC6-4329-BE3F-677BC8B998A9}"/>
+    <hyperlink ref="D136" r:id="rId87" xr:uid="{9B78D813-C58E-43B6-93FE-BA5C85BE774B}"/>
+    <hyperlink ref="C135" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
+    <hyperlink ref="C136" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
+    <hyperlink ref="D138" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId91"/>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEBCC10-B263-44C9-96D4-35A881BF1E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82E2BB4-B8C8-48C1-B400-20000850D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="544">
   <si>
     <t>Name</t>
   </si>
@@ -1705,6 +1705,15 @@
   </si>
   <si>
     <t>CHAMP is a New York State program that helps individuals overcome insurance barriers to substance use and mental health care. Established in 2018, it offers a free, confidential helpline and partners with local organizations to assist patients, caretakers, and providers. Regardless of insurance status, CHAMP provides guidance and connects individuals to resources. It operates in collaboration with the Office of Addiction Services and Supports, the Office of Mental Health, and community organizations.</t>
+  </si>
+  <si>
+    <t>BrainFuse</t>
+  </si>
+  <si>
+    <t>Brainfuse provides real-time online tutoring, a comprehensive lesson library, and targeted diagnostic tests to support learners of all ages. Trusted by libraries, schools, and workforce centers across North America, Brainfuse connects users with expert instructors for personalized learning.</t>
+  </si>
+  <si>
+    <t>https://home.brainfuse.com/</t>
   </si>
 </sst>
 </file>
@@ -2664,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="C106" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6191,6 +6200,23 @@
       </c>
       <c r="I143" s="1" t="s">
         <v>540</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -6288,8 +6314,9 @@
     <hyperlink ref="C135" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
     <hyperlink ref="C136" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
     <hyperlink ref="D138" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
+    <hyperlink ref="D144" r:id="rId91" xr:uid="{54425E63-4DE6-4535-A8CB-793B9E70D559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId91"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId92"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82E2BB4-B8C8-48C1-B400-20000850D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16C59A-E47D-4A18-98E2-E190D4204D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="581">
   <si>
     <t>Name</t>
   </si>
@@ -827,9 +827,6 @@
   </si>
   <si>
     <t>Seneca Hall (basement of Indigenous Quad)</t>
-  </si>
-  <si>
-    <t>Support for victims of sexual and interpersonal violence/crime</t>
   </si>
   <si>
     <t>Academic program - students from underrepresented/economically disadvantaged backgrounds in STEM</t>
@@ -1347,9 +1344,6 @@
     <t xml:space="preserve">M-F: 8:30 AM - 4:30 PM </t>
   </si>
   <si>
-    <t>24/7 Sexual Assault Hotline (518)-447-7716 - Counseling - Justice system advocacy - Accompaniment to ER -  Human trafficking assistance</t>
-  </si>
-  <si>
     <t>The Food Pantries Food Connect Map</t>
   </si>
   <si>
@@ -1714,13 +1708,133 @@
   </si>
   <si>
     <t>https://home.brainfuse.com/</t>
+  </si>
+  <si>
+    <t>RISSE (Refgeee and Imigrant Support Services osf Emmaus)</t>
+  </si>
+  <si>
+    <t>Title IX</t>
+  </si>
+  <si>
+    <t>SAFE Kits</t>
+  </si>
+  <si>
+    <t>Pathways Into Education Center (PIE Center)</t>
+  </si>
+  <si>
+    <t>Capital CARELine</t>
+  </si>
+  <si>
+    <t>University Interfaith Center</t>
+  </si>
+  <si>
+    <t>240 W Lawrence Street Albany, NY 12208</t>
+  </si>
+  <si>
+    <t>https://www.risse-albany.org/</t>
+  </si>
+  <si>
+    <t>M-Fri 10am-4pm</t>
+  </si>
+  <si>
+    <t>RISSE supports refugees and immigrants in the Capital Region by offering free language classes, immigration and employment assistance, youth programs, and case management, along with access to social services, medical care, and volunteer opportunities.</t>
+  </si>
+  <si>
+    <t>Campus Center 357
+1400 Washington Avenue
+Albany, NY 12222
+United States</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/title-IX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-Fri 9 a.m. to 5 p.m. </t>
+  </si>
+  <si>
+    <t>TitleIX@albany.edu</t>
+  </si>
+  <si>
+    <t>The Office of the Title IX Coordinator was formerly named the Office of Equity &amp; Compliance. The office works to remove all forms of discrimination and harassment, whether subtle or overt, and expects that all members of the University community join in assuring that all of our community members are accorded the dignity and respect they deserve. This includes all terms, conditions and privileges of employment and access for students, faculty and staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offered at Albany Medical Center, Albany Memorial Hospital, and St. Peter's Hopstial </t>
+  </si>
+  <si>
+    <t>https://www.health.ny.gov/professionals/safe/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexual Assault Forensic Examiner (SAFE) Program, insures that forensic exams are availble and free to the public after a sexual assault. Delivered by medical personnels, a SAFE Kit gathers and preservers physical evidence following an sexual assault. </t>
+  </si>
+  <si>
+    <t>Catskill 101</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/pathways-education-center</t>
+  </si>
+  <si>
+    <t>M-Fri 8am - 4pm</t>
+  </si>
+  <si>
+    <t>PIECenter@albany.edu</t>
+  </si>
+  <si>
+    <t>The PIE staff are ready to advise you on various topics like course selection, becoming a teacher, how to apply to graduate school, certification and many other topics!</t>
+  </si>
+  <si>
+    <t>https://nycaps.org/</t>
+  </si>
+  <si>
+    <t>Everyday 5 PM to 1 AM</t>
+  </si>
+  <si>
+    <t>Our CARELine (518-427-5056 x115) is a confidential non-crisis peer-run "warmline" telephone service that anyone can call when they need support. Trained peers will listen with an empathetic ear and promoting problem solving by assisting callers to find their own solutions and various options available to them. When requested, informational referrals to basic services and/or self-help groups may be suggested.</t>
+  </si>
+  <si>
+    <t>https://www.albany.edu/intercultural-student-engagement/interfaith-center</t>
+  </si>
+  <si>
+    <t>various times</t>
+  </si>
+  <si>
+    <t>ise@albany.edu</t>
+  </si>
+  <si>
+    <t>The Interfaith Center (IFC) has five chaplains and offers vibrant opportunities for spiritual practice, reflection, education and community building. We support faith and interfaith student groups by hosting dynamic events, inspiring religious services and serene spaces for meditation.</t>
+  </si>
+  <si>
+    <t>tel:5186211041</t>
+  </si>
+  <si>
+    <t>tel:5184423800</t>
+  </si>
+  <si>
+    <t>tel:5184423529</t>
+  </si>
+  <si>
+    <t>tel:5184275056</t>
+  </si>
+  <si>
+    <t>tel:5184425565</t>
+  </si>
+  <si>
+    <t>INTNL</t>
+  </si>
+  <si>
+    <t>354 Central Avenue, Albany, NY 12208</t>
+  </si>
+  <si>
+    <t>1400 Washington Avenue, Albany, NY 12222</t>
+  </si>
+  <si>
+    <t>UAlbany students can access support for sexual and interpersonal violence/crime through The Albany County Crime Victims and Sexual Violence Center by calling 518-442-CARE (2273) to schedule an on-campus meeting. The center offers a 24/7 Sexual Assault Hotline at 518-447-7716, providing counseling, justice system advocacy, accompaniment to the ER, and assistance with human trafficking.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1942,6 +2056,12 @@
       <color rgb="FF636363"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Pontano Sans"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2290,33 +2410,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2673,13 +2793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C106" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="E81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="88.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="43.08984375" style="2" customWidth="1"/>
@@ -2690,7 +2810,7 @@
     <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -2727,9 +2847,9 @@
         <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2748,7 +2868,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2756,13 +2876,13 @@
         <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -2777,7 +2897,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -2785,9 +2905,9 @@
         <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2806,15 +2926,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -2832,10 +2952,10 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,7 +2963,7 @@
         <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
@@ -2862,7 +2982,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2870,7 +2990,7 @@
         <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>42</v>
@@ -2886,10 +3006,10 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2897,7 +3017,7 @@
         <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>45</v>
@@ -2916,7 +3036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2924,7 +3044,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
@@ -2945,13 +3065,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>50</v>
@@ -2965,15 +3085,15 @@
         <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>50</v>
@@ -2985,15 +3105,15 @@
         <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>51</v>
@@ -3001,16 +3121,16 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>51</v>
@@ -3018,17 +3138,17 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>
@@ -3047,7 +3167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -3055,7 +3175,7 @@
         <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>181</v>
@@ -3072,15 +3192,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>318</v>
+      <c r="C16" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>87</v>
@@ -3097,15 +3217,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>51</v>
@@ -3114,10 +3234,10 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -3125,7 +3245,7 @@
         <v>143</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
@@ -3146,7 +3266,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>136</v>
       </c>
@@ -3154,7 +3274,7 @@
         <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>56</v>
@@ -3175,7 +3295,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -3183,7 +3303,7 @@
         <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>56</v>
@@ -3204,7 +3324,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -3212,7 +3332,7 @@
         <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>56</v>
@@ -3233,7 +3353,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>139</v>
       </c>
@@ -3241,7 +3361,7 @@
         <v>143</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>56</v>
@@ -3262,7 +3382,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>129</v>
       </c>
@@ -3270,15 +3390,15 @@
         <v>145</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>307</v>
+        <v>278</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>191</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3291,7 +3411,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -3299,7 +3419,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>60</v>
@@ -3320,7 +3440,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -3328,7 +3448,7 @@
         <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>64</v>
@@ -3349,7 +3469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -3357,7 +3477,7 @@
         <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>66</v>
@@ -3373,44 +3493,44 @@
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>10</v>
@@ -3419,81 +3539,81 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="G29" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="G30" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="8" t="s">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="G31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="9" t="s">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -3501,7 +3621,7 @@
         <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>197</v>
@@ -3520,7 +3640,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -3528,7 +3648,7 @@
         <v>154</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
@@ -3549,18 +3669,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>336</v>
+      <c r="C35" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
@@ -3576,18 +3696,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3601,7 +3721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>165</v>
       </c>
@@ -3609,7 +3729,7 @@
         <v>156</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>202</v>
@@ -3630,7 +3750,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3758,7 @@
         <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>73</v>
@@ -3654,10 +3774,10 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -3665,7 +3785,7 @@
         <v>149</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>75</v>
@@ -3683,16 +3803,16 @@
         <v>26</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>206</v>
@@ -3709,15 +3829,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E41" s="1"/>
@@ -3732,13 +3852,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>211</v>
@@ -3755,15 +3875,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D43" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>212</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3780,13 +3900,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>82</v>
@@ -3803,15 +3923,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>78</v>
@@ -3820,20 +3940,20 @@
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="1"/>
@@ -3848,18 +3968,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>328</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3870,10 +3990,10 @@
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -3881,7 +4001,7 @@
         <v>157</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>73</v>
@@ -3897,18 +4017,18 @@
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E49" s="1"/>
@@ -3925,7 +4045,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
@@ -3933,9 +4053,9 @@
         <v>149</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D50" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3954,15 +4074,15 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3981,12 +4101,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>85</v>
@@ -3995,15 +4115,15 @@
         <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>85</v>
@@ -4012,19 +4132,19 @@
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4038,16 +4158,16 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4061,19 +4181,19 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>226</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -4086,16 +4206,16 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -4109,16 +4229,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -4132,15 +4252,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>230</v>
       </c>
       <c r="E59" s="1"/>
@@ -4155,16 +4275,16 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>311</v>
+        <v>275</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4178,15 +4298,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D61" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E61" s="1"/>
@@ -4201,16 +4321,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>312</v>
+        <v>275</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4224,16 +4344,16 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4247,16 +4367,16 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>314</v>
+        <v>275</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4270,18 +4390,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>306</v>
+      <c r="C65" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -4295,16 +4415,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -4318,15 +4438,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D67" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E67" s="1"/>
@@ -4341,16 +4461,16 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>315</v>
+        <v>275</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4364,16 +4484,16 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>316</v>
+        <v>275</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -4387,15 +4507,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E70" s="1"/>
@@ -4410,15 +4530,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D71" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="1"/>
@@ -4433,15 +4553,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D72" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E72" s="1"/>
@@ -4456,16 +4576,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>312</v>
+        <v>275</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4479,17 +4599,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D74" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4508,7 +4628,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
         <v>115</v>
       </c>
@@ -4516,9 +4636,9 @@
         <v>159</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D75" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E75" s="1"/>
@@ -4535,7 +4655,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>117</v>
       </c>
@@ -4543,7 +4663,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>248</v>
@@ -4560,18 +4680,18 @@
         <v>247</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4585,15 +4705,15 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>298</v>
+      <c r="C78" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>251</v>
@@ -4612,7 +4732,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -4620,7 +4740,7 @@
         <v>162</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>254</v>
@@ -4637,7 +4757,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -4645,7 +4765,7 @@
         <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>256</v>
@@ -4662,15 +4782,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>269</v>
+      <c r="C81" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>75</v>
@@ -4688,10 +4808,10 @@
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
         <v>121</v>
       </c>
@@ -4699,9 +4819,9 @@
         <v>150</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D82" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -4720,7 +4840,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -4728,7 +4848,7 @@
         <v>149</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>258</v>
@@ -4749,7 +4869,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -4757,7 +4877,7 @@
         <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -4773,20 +4893,20 @@
         <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D85" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -4805,7 +4925,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
@@ -4813,7 +4933,7 @@
         <v>154</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>15</v>
@@ -4834,18 +4954,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>336</v>
+      <c r="C87" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
@@ -4861,18 +4981,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4886,13 +5006,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>21</v>
@@ -4909,13 +5029,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>23</v>
@@ -4932,7 +5052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -4940,7 +5060,7 @@
         <v>149</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>258</v>
@@ -4961,18 +5081,18 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="C92" s="5" t="s">
         <v>328</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4983,20 +5103,20 @@
         <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E93" s="1"/>
@@ -5011,13 +5131,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>211</v>
@@ -5034,7 +5154,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
         <v>166</v>
       </c>
@@ -5042,7 +5162,7 @@
         <v>263</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>261</v>
@@ -5061,17 +5181,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E96" s="1"/>
@@ -5086,13 +5206,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>82</v>
@@ -5109,7 +5229,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
         <v>168</v>
       </c>
@@ -5117,7 +5237,7 @@
         <v>164</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>127</v>
@@ -5132,16 +5252,16 @@
       <c r="H98" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I98" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>78</v>
@@ -5150,15 +5270,15 @@
         <v>10</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>51</v>
@@ -5167,15 +5287,15 @@
         <v>10</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="D101" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>51</v>
@@ -5184,15 +5304,15 @@
         <v>10</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>51</v>
@@ -5201,15 +5321,15 @@
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>51</v>
@@ -5218,21 +5338,21 @@
         <v>10</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="D104" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>85</v>
@@ -5240,22 +5360,22 @@
       <c r="H104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I104" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="D105" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>78</v>
@@ -5263,22 +5383,22 @@
       <c r="H105" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I105" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I105" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>95</v>
@@ -5286,22 +5406,22 @@
       <c r="H106" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I106" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D107" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>104</v>
@@ -5309,22 +5429,22 @@
       <c r="H107" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I107" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I107" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>9</v>
@@ -5332,22 +5452,22 @@
       <c r="H108" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I108" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>9</v>
@@ -5356,67 +5476,67 @@
         <v>10</v>
       </c>
       <c r="I109" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="D110" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="E110" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E110" s="2" t="s">
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="1" t="s">
+      <c r="H111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:9">
+      <c r="A112" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="D112" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>32</v>
@@ -5424,191 +5544,191 @@
       <c r="H112" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I112" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="23.5" customHeight="1">
+      <c r="A113" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="E113" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="F113" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="H113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="H113" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="5" t="s">
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="12" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
+      <c r="B114" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E114" s="11" t="s">
+      <c r="F114" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="G114" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I114" s="5" t="s">
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>423</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="5" t="s">
+      <c r="G115" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H116" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="5" t="s">
+      <c r="H116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
+      <c r="C117" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="D117" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="E117" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H117" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" s="5" t="s">
+      <c r="H117" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
+      <c r="C118" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="D118" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="E118" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="G118" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C119" s="6" t="s">
         <v>445</v>
       </c>
+      <c r="C119" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="D119" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>83</v>
@@ -5617,21 +5737,21 @@
         <v>26</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>51</v>
@@ -5640,21 +5760,21 @@
         <v>10</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>78</v>
@@ -5663,18 +5783,18 @@
         <v>10</v>
       </c>
       <c r="I121" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="8" t="s">
+      <c r="D122" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>114</v>
@@ -5683,21 +5803,21 @@
         <v>10</v>
       </c>
       <c r="I122" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="8" t="s">
+      <c r="D123" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="F123" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>460</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>114</v>
@@ -5706,18 +5826,18 @@
         <v>10</v>
       </c>
       <c r="I123" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>114</v>
@@ -5726,24 +5846,24 @@
         <v>10</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B125" s="2" t="s">
+      <c r="D125" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="F125" s="16" t="s">
         <v>467</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>469</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>114</v>
@@ -5752,24 +5872,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="13" t="s">
+    <row r="126" spans="1:9">
+      <c r="A126" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="D126" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="E126" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>473</v>
+      <c r="F126" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>114</v>
@@ -5778,26 +5898,26 @@
         <v>10</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B127" s="13" t="s">
+      <c r="D127" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="E127" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="F127" s="16"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
         <v>61</v>
       </c>
@@ -5805,25 +5925,25 @@
         <v>10</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="D128" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="E128" s="7"/>
+      <c r="F128" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>61</v>
@@ -5832,23 +5952,23 @@
         <v>10</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
+      <c r="C129" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="D129" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="E129" s="13"/>
+      <c r="E129" s="7"/>
       <c r="G129" s="1" t="s">
         <v>61</v>
       </c>
@@ -5856,23 +5976,23 @@
         <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F130" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -5882,27 +6002,27 @@
         <v>26</v>
       </c>
       <c r="I130" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
+      <c r="C131" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>61</v>
@@ -5911,23 +6031,23 @@
         <v>26</v>
       </c>
       <c r="I131" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F132" s="6" t="s">
+      <c r="F132" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G132" s="2" t="s">
@@ -5937,21 +6057,21 @@
         <v>26</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" s="14" t="s">
-        <v>513</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="10" t="s">
+        <v>511</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>51</v>
@@ -5960,18 +6080,18 @@
         <v>10</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>32</v>
@@ -5980,21 +6100,21 @@
         <v>26</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
@@ -6003,59 +6123,59 @@
         <v>10</v>
       </c>
       <c r="I135" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B136" s="13" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" s="8" t="s">
+      <c r="C136" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D136" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="E136" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C136" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="D136" s="19" t="s">
+      <c r="F136" s="13"/>
+      <c r="G136" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="E136" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" s="2" t="s">
+      <c r="D138" s="11" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>537</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>61</v>
@@ -6064,25 +6184,25 @@
         <v>10</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="7" t="s">
-        <v>495</v>
+      <c r="C139" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>104</v>
@@ -6091,25 +6211,25 @@
         <v>10</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="7" t="s">
-        <v>495</v>
+      <c r="C140" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>95</v>
@@ -6118,25 +6238,25 @@
         <v>10</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="7" t="s">
-        <v>495</v>
+      <c r="C141" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>51</v>
@@ -6145,25 +6265,25 @@
         <v>10</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="7" t="s">
-        <v>495</v>
+      <c r="C142" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>78</v>
@@ -6172,25 +6292,25 @@
         <v>10</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="7" t="s">
-        <v>495</v>
+      <c r="C143" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>85</v>
@@ -6199,15 +6319,15 @@
         <v>10</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>541</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>543</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>32</v>
@@ -6216,7 +6336,273 @@
         <v>10</v>
       </c>
       <c r="I144" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="2" t="s">
         <v>542</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -6315,8 +6701,27 @@
     <hyperlink ref="C136" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
     <hyperlink ref="D138" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
     <hyperlink ref="D144" r:id="rId91" xr:uid="{54425E63-4DE6-4535-A8CB-793B9E70D559}"/>
+    <hyperlink ref="D145" r:id="rId92" xr:uid="{72104B61-6124-4681-83A2-C04FE8A81422}"/>
+    <hyperlink ref="D150" r:id="rId93" xr:uid="{E34F98A6-233F-4D98-AA31-6A6F8739EE10}"/>
+    <hyperlink ref="F150" r:id="rId94" xr:uid="{F2B73996-B1DF-4B50-B7BF-4A8DAC2EBCF8}"/>
+    <hyperlink ref="D151" r:id="rId95" xr:uid="{E9C2E3C3-D837-4EED-B479-25B788589D5C}"/>
+    <hyperlink ref="F152" r:id="rId96" xr:uid="{B8E43DA3-B50D-4D55-8A39-449316C19072}"/>
+    <hyperlink ref="D152" r:id="rId97" xr:uid="{93C67D5A-182E-44E5-98F0-C26DAA38348E}"/>
+    <hyperlink ref="D153" r:id="rId98" xr:uid="{EB6504E0-5D02-48B9-AA8E-AD172B0786CC}"/>
+    <hyperlink ref="F154" r:id="rId99" xr:uid="{F6FEA5C8-2D79-4B3D-8A2D-56E7162EDEEF}"/>
+    <hyperlink ref="D154" r:id="rId100" xr:uid="{5E9ADF47-E415-42D0-96AD-AC14CEFDB46A}"/>
+    <hyperlink ref="C145" r:id="rId101" xr:uid="{8F9F1B99-EA6C-4B9C-A2F0-0A5ADEB1AAC5}"/>
+    <hyperlink ref="C146" r:id="rId102" xr:uid="{7DDADF0B-37EF-456E-A584-90A75DC8E532}"/>
+    <hyperlink ref="C147" r:id="rId103" xr:uid="{4DBCE484-8796-477B-9C75-E13EC16BE78D}"/>
+    <hyperlink ref="C148" r:id="rId104" xr:uid="{4B652928-E776-4C62-81AB-B3F682C91A9B}"/>
+    <hyperlink ref="C149" r:id="rId105" xr:uid="{263071B5-2297-41D5-BD0E-1DD5BC8884ED}"/>
+    <hyperlink ref="D146:D149" r:id="rId106" display="https://www.risse-albany.org/" xr:uid="{281154D0-8EC0-4929-9B07-64C9F15DC597}"/>
+    <hyperlink ref="C150" r:id="rId107" xr:uid="{B16923BE-F0C3-427E-9F10-6F9A519FC287}"/>
+    <hyperlink ref="C152" r:id="rId108" xr:uid="{E132F971-9DCB-4C0F-937B-6476DE4ACCAD}"/>
+    <hyperlink ref="C153" r:id="rId109" xr:uid="{A00E4B55-C978-401C-8846-DB1632284D50}"/>
+    <hyperlink ref="C154" r:id="rId110" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId92"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId111"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16C59A-E47D-4A18-98E2-E190D4204D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A57E6-006F-4EF3-8022-797E96ADB0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="581">
   <si>
     <t>Name</t>
   </si>
@@ -2793,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -6603,6 +6603,35 @@
       </c>
       <c r="I154" s="1" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A57E6-006F-4EF3-8022-797E96ADB0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FD91B6-5801-4A8F-B770-8F2E4A904D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,9 +1707,6 @@
     <t>Brainfuse provides real-time online tutoring, a comprehensive lesson library, and targeted diagnostic tests to support learners of all ages. Trusted by libraries, schools, and workforce centers across North America, Brainfuse connects users with expert instructors for personalized learning.</t>
   </si>
   <si>
-    <t>https://home.brainfuse.com/</t>
-  </si>
-  <si>
     <t>RISSE (Refgeee and Imigrant Support Services osf Emmaus)</t>
   </si>
   <si>
@@ -1828,6 +1825,9 @@
   </si>
   <si>
     <t>UAlbany students can access support for sexual and interpersonal violence/crime through The Albany County Crime Victims and Sexual Violence Center by calling 518-442-CARE (2273) to schedule an on-campus meeting. The center offers a 24/7 Sexual Assault Hotline at 518-447-7716, providing counseling, justice system advocacy, accompaniment to the ER, and assistance with human trafficking.</t>
+  </si>
+  <si>
+    <t>https://landing.brainfuse.com/saml.asp?oauth_consumer_key=33569B5A</t>
   </si>
 </sst>
 </file>
@@ -2795,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B155" sqref="A155:XFD155"/>
+    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -5253,7 +5253,7 @@
         <v>10</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5632,7 +5632,7 @@
         <v>10</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6327,7 +6327,7 @@
         <v>539</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>32</v>
@@ -6341,19 +6341,19 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B145" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D145" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D145" s="11" t="s">
+      <c r="E145" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>83</v>
@@ -6362,24 +6362,24 @@
         <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B146" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D146" s="11" t="s">
+      <c r="E146" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>61</v>
@@ -6388,50 +6388,50 @@
         <v>10</v>
       </c>
       <c r="I146" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B147" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D147" s="11" t="s">
+      <c r="E147" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="G147" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" t="s">
         <v>550</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I147" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B148" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D148" s="11" t="s">
+      <c r="E148" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>114</v>
@@ -6440,24 +6440,24 @@
         <v>10</v>
       </c>
       <c r="I148" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B149" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D149" s="11" t="s">
+      <c r="E149" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>85</v>
@@ -6466,27 +6466,27 @@
         <v>10</v>
       </c>
       <c r="I149" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="D150" s="11" t="s">
+      <c r="E150" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="11" t="s">
         <v>554</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>555</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>126</v>
@@ -6495,18 +6495,18 @@
         <v>26</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>558</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>358</v>
@@ -6518,27 +6518,27 @@
         <v>10</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="D152" s="11" t="s">
+      <c r="E152" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>563</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>32</v>
@@ -6547,24 +6547,24 @@
         <v>26</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D153" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>78</v>
@@ -6573,27 +6573,27 @@
         <v>10</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D154" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="11" t="s">
         <v>569</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>570</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>32</v>
@@ -6602,7 +6602,7 @@
         <v>26</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6625,7 +6625,7 @@
         <v>436</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>26</v>
@@ -6729,28 +6729,27 @@
     <hyperlink ref="C135" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
     <hyperlink ref="C136" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
     <hyperlink ref="D138" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
-    <hyperlink ref="D144" r:id="rId91" xr:uid="{54425E63-4DE6-4535-A8CB-793B9E70D559}"/>
-    <hyperlink ref="D145" r:id="rId92" xr:uid="{72104B61-6124-4681-83A2-C04FE8A81422}"/>
-    <hyperlink ref="D150" r:id="rId93" xr:uid="{E34F98A6-233F-4D98-AA31-6A6F8739EE10}"/>
-    <hyperlink ref="F150" r:id="rId94" xr:uid="{F2B73996-B1DF-4B50-B7BF-4A8DAC2EBCF8}"/>
-    <hyperlink ref="D151" r:id="rId95" xr:uid="{E9C2E3C3-D837-4EED-B479-25B788589D5C}"/>
-    <hyperlink ref="F152" r:id="rId96" xr:uid="{B8E43DA3-B50D-4D55-8A39-449316C19072}"/>
-    <hyperlink ref="D152" r:id="rId97" xr:uid="{93C67D5A-182E-44E5-98F0-C26DAA38348E}"/>
-    <hyperlink ref="D153" r:id="rId98" xr:uid="{EB6504E0-5D02-48B9-AA8E-AD172B0786CC}"/>
-    <hyperlink ref="F154" r:id="rId99" xr:uid="{F6FEA5C8-2D79-4B3D-8A2D-56E7162EDEEF}"/>
-    <hyperlink ref="D154" r:id="rId100" xr:uid="{5E9ADF47-E415-42D0-96AD-AC14CEFDB46A}"/>
-    <hyperlink ref="C145" r:id="rId101" xr:uid="{8F9F1B99-EA6C-4B9C-A2F0-0A5ADEB1AAC5}"/>
-    <hyperlink ref="C146" r:id="rId102" xr:uid="{7DDADF0B-37EF-456E-A584-90A75DC8E532}"/>
-    <hyperlink ref="C147" r:id="rId103" xr:uid="{4DBCE484-8796-477B-9C75-E13EC16BE78D}"/>
-    <hyperlink ref="C148" r:id="rId104" xr:uid="{4B652928-E776-4C62-81AB-B3F682C91A9B}"/>
-    <hyperlink ref="C149" r:id="rId105" xr:uid="{263071B5-2297-41D5-BD0E-1DD5BC8884ED}"/>
-    <hyperlink ref="D146:D149" r:id="rId106" display="https://www.risse-albany.org/" xr:uid="{281154D0-8EC0-4929-9B07-64C9F15DC597}"/>
-    <hyperlink ref="C150" r:id="rId107" xr:uid="{B16923BE-F0C3-427E-9F10-6F9A519FC287}"/>
-    <hyperlink ref="C152" r:id="rId108" xr:uid="{E132F971-9DCB-4C0F-937B-6476DE4ACCAD}"/>
-    <hyperlink ref="C153" r:id="rId109" xr:uid="{A00E4B55-C978-401C-8846-DB1632284D50}"/>
-    <hyperlink ref="C154" r:id="rId110" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
+    <hyperlink ref="D145" r:id="rId91" xr:uid="{72104B61-6124-4681-83A2-C04FE8A81422}"/>
+    <hyperlink ref="D150" r:id="rId92" xr:uid="{E34F98A6-233F-4D98-AA31-6A6F8739EE10}"/>
+    <hyperlink ref="F150" r:id="rId93" xr:uid="{F2B73996-B1DF-4B50-B7BF-4A8DAC2EBCF8}"/>
+    <hyperlink ref="D151" r:id="rId94" xr:uid="{E9C2E3C3-D837-4EED-B479-25B788589D5C}"/>
+    <hyperlink ref="F152" r:id="rId95" xr:uid="{B8E43DA3-B50D-4D55-8A39-449316C19072}"/>
+    <hyperlink ref="D152" r:id="rId96" xr:uid="{93C67D5A-182E-44E5-98F0-C26DAA38348E}"/>
+    <hyperlink ref="D153" r:id="rId97" xr:uid="{EB6504E0-5D02-48B9-AA8E-AD172B0786CC}"/>
+    <hyperlink ref="F154" r:id="rId98" xr:uid="{F6FEA5C8-2D79-4B3D-8A2D-56E7162EDEEF}"/>
+    <hyperlink ref="D154" r:id="rId99" xr:uid="{5E9ADF47-E415-42D0-96AD-AC14CEFDB46A}"/>
+    <hyperlink ref="C145" r:id="rId100" xr:uid="{8F9F1B99-EA6C-4B9C-A2F0-0A5ADEB1AAC5}"/>
+    <hyperlink ref="C146" r:id="rId101" xr:uid="{7DDADF0B-37EF-456E-A584-90A75DC8E532}"/>
+    <hyperlink ref="C147" r:id="rId102" xr:uid="{4DBCE484-8796-477B-9C75-E13EC16BE78D}"/>
+    <hyperlink ref="C148" r:id="rId103" xr:uid="{4B652928-E776-4C62-81AB-B3F682C91A9B}"/>
+    <hyperlink ref="C149" r:id="rId104" xr:uid="{263071B5-2297-41D5-BD0E-1DD5BC8884ED}"/>
+    <hyperlink ref="D146:D149" r:id="rId105" display="https://www.risse-albany.org/" xr:uid="{281154D0-8EC0-4929-9B07-64C9F15DC597}"/>
+    <hyperlink ref="C150" r:id="rId106" xr:uid="{B16923BE-F0C3-427E-9F10-6F9A519FC287}"/>
+    <hyperlink ref="C152" r:id="rId107" xr:uid="{E132F971-9DCB-4C0F-937B-6476DE4ACCAD}"/>
+    <hyperlink ref="C153" r:id="rId108" xr:uid="{A00E4B55-C978-401C-8846-DB1632284D50}"/>
+    <hyperlink ref="C154" r:id="rId109" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId111"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId110"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FD91B6-5801-4A8F-B770-8F2E4A904D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69702A20-C47F-430E-93D8-443E5EF38646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="581">
   <si>
     <t>Name</t>
   </si>
@@ -2406,7 +2406,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2437,6 +2437,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2793,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:XFD156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -6632,6 +6633,29 @@
       </c>
       <c r="I155" s="12" t="s">
         <v>437</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -6748,8 +6772,10 @@
     <hyperlink ref="C152" r:id="rId107" xr:uid="{E132F971-9DCB-4C0F-937B-6476DE4ACCAD}"/>
     <hyperlink ref="C153" r:id="rId108" xr:uid="{A00E4B55-C978-401C-8846-DB1632284D50}"/>
     <hyperlink ref="C154" r:id="rId109" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
+    <hyperlink ref="C156" r:id="rId110" xr:uid="{B28590EE-4458-4CAE-AE78-9975E73BC873}"/>
+    <hyperlink ref="D156" r:id="rId111" xr:uid="{1E66DBCC-AB5E-4E32-804B-D7193FA752EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId110"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId112"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69702A20-C47F-430E-93D8-443E5EF38646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC5A450-8CAC-4737-A34C-2B8C7CA7CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,9 +1707,6 @@
     <t>Brainfuse provides real-time online tutoring, a comprehensive lesson library, and targeted diagnostic tests to support learners of all ages. Trusted by libraries, schools, and workforce centers across North America, Brainfuse connects users with expert instructors for personalized learning.</t>
   </si>
   <si>
-    <t>RISSE (Refgeee and Imigrant Support Services osf Emmaus)</t>
-  </si>
-  <si>
     <t>Title IX</t>
   </si>
   <si>
@@ -1828,6 +1825,9 @@
   </si>
   <si>
     <t>https://landing.brainfuse.com/saml.asp?oauth_consumer_key=33569B5A</t>
+  </si>
+  <si>
+    <t>RISSE (Refgeee and Immigrant Support Services of Emmaus)</t>
   </si>
 </sst>
 </file>
@@ -2797,7 +2797,7 @@
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:XFD156"/>
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -5254,7 +5254,7 @@
         <v>10</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5633,7 +5633,7 @@
         <v>10</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6328,7 +6328,7 @@
         <v>539</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>32</v>
@@ -6342,19 +6342,19 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="B145" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D145" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D145" s="11" t="s">
+      <c r="E145" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>83</v>
@@ -6363,24 +6363,24 @@
         <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="B146" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D146" s="11" t="s">
+      <c r="E146" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>61</v>
@@ -6389,50 +6389,50 @@
         <v>10</v>
       </c>
       <c r="I146" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="B147" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D147" s="11" t="s">
+      <c r="E147" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="G147" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" t="s">
         <v>549</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I147" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="B148" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D148" s="11" t="s">
+      <c r="E148" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>114</v>
@@ -6441,24 +6441,24 @@
         <v>10</v>
       </c>
       <c r="I148" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="B149" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D149" s="11" t="s">
+      <c r="E149" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>85</v>
@@ -6467,27 +6467,27 @@
         <v>10</v>
       </c>
       <c r="I149" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D150" s="11" t="s">
+      <c r="E150" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="11" t="s">
         <v>553</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>554</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>126</v>
@@ -6496,18 +6496,18 @@
         <v>26</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>556</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>557</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>358</v>
@@ -6519,27 +6519,27 @@
         <v>10</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="D152" s="11" t="s">
+      <c r="E152" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="11" t="s">
         <v>561</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>562</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>32</v>
@@ -6548,24 +6548,24 @@
         <v>26</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D153" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>78</v>
@@ -6574,27 +6574,27 @@
         <v>10</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D154" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="11" t="s">
         <v>568</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>569</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>32</v>
@@ -6603,7 +6603,7 @@
         <v>26</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6626,7 +6626,7 @@
         <v>436</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>26</v>
@@ -6649,7 +6649,7 @@
         <v>520</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>10</v>

--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC5A450-8CAC-4737-A34C-2B8C7CA7CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9869DD3A-8754-4FC6-9AAA-1173B2FE86CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,9 +1383,6 @@
     <t>https://www.albany.edu/isss/</t>
   </si>
   <si>
-    <t>ISSS@albany.edu</t>
-  </si>
-  <si>
     <t>Advising - workshops</t>
   </si>
   <si>
@@ -1828,6 +1825,9 @@
   </si>
   <si>
     <t>RISSE (Refgeee and Immigrant Support Services of Emmaus)</t>
+  </si>
+  <si>
+    <t>ISSS@albany.edu</t>
   </si>
 </sst>
 </file>
@@ -2796,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="B101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>175</v>
@@ -2953,7 +2953,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3804,7 +3804,7 @@
         <v>26</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4809,7 +4809,7 @@
         <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5254,7 +5254,7 @@
         <v>10</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5554,7 +5554,7 @@
         <v>84</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>407</v>
@@ -5633,7 +5633,7 @@
         <v>10</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5671,7 +5671,7 @@
         <v>429</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>430</v>
@@ -5700,10 +5700,10 @@
         <v>435</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>32</v>
@@ -5712,21 +5712,21 @@
         <v>26</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="C119" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>358</v>
@@ -5738,21 +5738,21 @@
         <v>26</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>51</v>
@@ -5761,21 +5761,21 @@
         <v>10</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>78</v>
@@ -5784,18 +5784,18 @@
         <v>10</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="D122" s="13" t="s">
         <v>452</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>453</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>114</v>
@@ -5804,21 +5804,21 @@
         <v>10</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="D123" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="F123" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>114</v>
@@ -5827,18 +5827,18 @@
         <v>10</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="F124" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>114</v>
@@ -5847,24 +5847,24 @@
         <v>10</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="F125" s="16" t="s">
         <v>466</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>467</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>114</v>
@@ -5875,22 +5875,22 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="E126" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="E126" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="F126" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>114</v>
@@ -5899,24 +5899,24 @@
         <v>10</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B127" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="D127" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="E127" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
@@ -5926,25 +5926,25 @@
         <v>10</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>481</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>61</v>
@@ -5953,21 +5953,21 @@
         <v>10</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="D129" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="E129" s="7"/>
       <c r="G129" s="1" t="s">
@@ -5977,21 +5977,21 @@
         <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>49</v>
@@ -6003,27 +6003,27 @@
         <v>26</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>270</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>61</v>
@@ -6032,21 +6032,21 @@
         <v>26</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>49</v>
@@ -6058,21 +6058,21 @@
         <v>26</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>51</v>
@@ -6081,18 +6081,18 @@
         <v>10</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>32</v>
@@ -6101,21 +6101,21 @@
         <v>26</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
@@ -6124,24 +6124,24 @@
         <v>10</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B136" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="C136" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D136" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="D136" s="11" t="s">
+      <c r="E136" s="13" t="s">
         <v>524</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>525</v>
       </c>
       <c r="F136" s="13"/>
       <c r="G136" s="13" t="s">
@@ -6151,15 +6151,15 @@
         <v>10</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>345</v>
@@ -6168,15 +6168,15 @@
         <v>10</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D138" s="11" t="s">
         <v>534</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>535</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>61</v>
@@ -6185,25 +6185,25 @@
         <v>10</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>104</v>
@@ -6212,25 +6212,25 @@
         <v>10</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>95</v>
@@ -6239,25 +6239,25 @@
         <v>10</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>51</v>
@@ -6266,25 +6266,25 @@
         <v>10</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>78</v>
@@ -6293,25 +6293,25 @@
         <v>10</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>85</v>
@@ -6320,15 +6320,15 @@
         <v>10</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>32</v>
@@ -6337,24 +6337,24 @@
         <v>10</v>
       </c>
       <c r="I144" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B145" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D145" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="D145" s="11" t="s">
+      <c r="E145" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>83</v>
@@ -6363,24 +6363,24 @@
         <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B146" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="D146" s="11" t="s">
+      <c r="E146" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>61</v>
@@ -6389,50 +6389,50 @@
         <v>10</v>
       </c>
       <c r="I146" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B147" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="D147" s="11" t="s">
+      <c r="E147" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="G147" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" t="s">
         <v>548</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I147" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B148" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="D148" s="11" t="s">
+      <c r="E148" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>114</v>
@@ -6441,24 +6441,24 @@
         <v>10</v>
       </c>
       <c r="I148" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B149" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="D149" s="11" t="s">
+      <c r="E149" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>85</v>
@@ -6467,27 +6467,27 @@
         <v>10</v>
       </c>
       <c r="I149" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D150" s="11" t="s">
+      <c r="E150" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="11" t="s">
         <v>552</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>553</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>126</v>
@@ -6496,18 +6496,18 @@
         <v>26</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>555</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>556</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>358</v>
@@ -6519,27 +6519,27 @@
         <v>10</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D152" s="11" t="s">
+      <c r="E152" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="11" t="s">
         <v>560</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>561</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>32</v>
@@ -6548,24 +6548,24 @@
         <v>26</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D153" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>78</v>
@@ -6574,27 +6574,27 @@
         <v>10</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D154" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>32</v>
@@ -6603,7 +6603,7 @@
         <v>26</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6620,42 +6620,42 @@
         <v>435</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D156" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="C156" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="D156" s="20" t="s">
+      <c r="F156" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="G156" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -6774,8 +6774,10 @@
     <hyperlink ref="C154" r:id="rId109" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
     <hyperlink ref="C156" r:id="rId110" xr:uid="{B28590EE-4458-4CAE-AE78-9975E73BC873}"/>
     <hyperlink ref="D156" r:id="rId111" xr:uid="{1E66DBCC-AB5E-4E32-804B-D7193FA752EE}"/>
+    <hyperlink ref="F118" r:id="rId112" xr:uid="{7369515B-3200-4C5D-8DBA-683E7EA7089D}"/>
+    <hyperlink ref="F155" r:id="rId113" xr:uid="{F7A76B19-1F37-4DF5-BD65-E0CE94052793}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId112"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId114"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\New Shiny Apps\Rolodex\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandafowler/Desktop/Shiny ACCESS/rolodex/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9869DD3A-8754-4FC6-9AAA-1173B2FE86CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F27919-E672-724D-818F-52C512D8F5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="586">
   <si>
     <t>Name</t>
   </si>
@@ -1828,6 +1828,21 @@
   </si>
   <si>
     <t>ISSS@albany.edu</t>
+  </si>
+  <si>
+    <t>Test Resource</t>
+  </si>
+  <si>
+    <t>123 Main Street</t>
+  </si>
+  <si>
+    <t>tel:5184692831</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>This is info to show on the app.</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2421,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2438,6 +2453,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2794,21 +2810,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="88.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="96.36328125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="25.08984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="78.08984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="96.33203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="25.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="78.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2842,51 +2858,49 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>581</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>582</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>584</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>169</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>269</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>331</v>
+        <v>170</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -2895,27 +2909,27 @@
         <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>270</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -2924,27 +2938,27 @@
         <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>528</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>271</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -2953,25 +2967,27 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>529</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>528</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -2980,12 +2996,12 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>179</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>143</v>
@@ -2994,11 +3010,11 @@
         <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -3007,12 +3023,12 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>143</v>
@@ -3021,11 +3037,11 @@
         <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -3034,27 +3050,25 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -3063,42 +3077,51 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
@@ -3111,10 +3134,13 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>383</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>51</v>
@@ -3122,16 +3148,16 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>384</v>
+      <c r="I12" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>51</v>
@@ -3139,72 +3165,64 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>380</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>10</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>317</v>
+        <v>183</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3215,19 +3233,24 @@
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>332</v>
+        <v>135</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>333</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
@@ -3235,41 +3258,32 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>332</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>188</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>143</v>
@@ -3293,12 +3307,12 @@
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>143</v>
@@ -3322,12 +3336,12 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>143</v>
@@ -3351,12 +3365,12 @@
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>143</v>
@@ -3380,56 +3394,56 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>306</v>
+        <v>277</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>278</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>190</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>61</v>
@@ -3438,27 +3452,27 @@
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>61</v>
@@ -3467,25 +3481,27 @@
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>61</v>
@@ -3494,42 +3510,46 @@
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>344</v>
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>345</v>
+        <v>61</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>345</v>
       </c>
@@ -3537,19 +3557,22 @@
         <v>10</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>209</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>348</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
         <v>345</v>
       </c>
@@ -3557,15 +3580,18 @@
         <v>10</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>349</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>345</v>
@@ -3573,16 +3599,16 @@
       <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>352</v>
+      <c r="I30" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>345</v>
@@ -3590,76 +3616,64 @@
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>70</v>
       </c>
@@ -3667,25 +3681,27 @@
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>70</v>
@@ -3694,24 +3710,26 @@
         <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>304</v>
+        <v>155</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>70</v>
       </c>
@@ -3719,28 +3737,24 @@
         <v>10</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>70</v>
       </c>
@@ -3748,26 +3762,28 @@
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>70</v>
       </c>
@@ -3775,71 +3791,75 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>515</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C40" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>207</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>208</v>
+      <c r="C41" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3850,19 +3870,19 @@
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>211</v>
+      <c r="C42" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3873,23 +3893,21 @@
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
         <v>78</v>
@@ -3898,21 +3916,23 @@
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
         <v>78</v>
@@ -3921,19 +3941,22 @@
         <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>360</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>348</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>78</v>
       </c>
@@ -3941,46 +3964,41 @@
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3988,54 +4006,54 @@
         <v>83</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C49" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>219</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
         <v>85</v>
       </c>
@@ -4043,54 +4061,52 @@
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C51" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>85</v>
@@ -4099,32 +4115,42 @@
         <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>338</v>
+        <v>91</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>85</v>
@@ -4133,42 +4159,36 @@
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>225</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4179,24 +4199,22 @@
         <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
         <v>95</v>
       </c>
@@ -4204,22 +4222,24 @@
         <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="G57" s="1" t="s">
         <v>95</v>
       </c>
@@ -4227,19 +4247,19 @@
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -4250,19 +4270,19 @@
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4273,19 +4293,19 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4296,19 +4316,19 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -4319,19 +4339,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4342,19 +4362,19 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4365,19 +4385,19 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4388,44 +4408,44 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>293</v>
+        <v>103</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="2" t="s">
-        <v>275</v>
+        <v>113</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -4436,19 +4456,19 @@
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4459,19 +4479,19 @@
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4482,19 +4502,19 @@
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -4505,19 +4525,19 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4528,19 +4548,19 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4551,19 +4571,19 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4574,19 +4594,19 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4597,54 +4617,50 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>159</v>
+        <v>324</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F75" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>114</v>
@@ -4653,24 +4669,26 @@
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>248</v>
+        <v>295</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>114</v>
       </c>
@@ -4678,21 +4696,21 @@
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4703,25 +4721,23 @@
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>297</v>
+        <v>161</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>252</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
         <v>114</v>
@@ -4730,23 +4746,25 @@
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>298</v>
+        <v>250</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
         <v>114</v>
@@ -4755,21 +4773,21 @@
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4785,51 +4803,47 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>268</v>
+        <v>163</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>516</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>114</v>
@@ -4838,27 +4852,27 @@
         <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>257</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>114</v>
@@ -4867,55 +4881,55 @@
         <v>26</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G84" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>324</v>
+        <v>157</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>12</v>
+        <v>284</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
         <v>9</v>
       </c>
@@ -4923,27 +4937,27 @@
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>154</v>
+        <v>324</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>15</v>
+        <v>294</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>9</v>
@@ -4952,25 +4966,27 @@
         <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F87" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>9</v>
@@ -4979,24 +4995,26 @@
         <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>304</v>
+        <v>155</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>9</v>
       </c>
@@ -5004,19 +5022,21 @@
         <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C89" s="2" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -5027,19 +5047,19 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -5050,75 +5070,73 @@
         <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="2" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>28</v>
+        <v>327</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5126,77 +5144,77 @@
         <v>9</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>211</v>
+        <v>140</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>28</v>
+        <v>300</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="G96" s="1" t="s">
         <v>126</v>
       </c>
@@ -5204,19 +5222,21 @@
         <v>26</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C97" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>82</v>
+        <v>323</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5224,79 +5244,85 @@
         <v>126</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>51</v>
@@ -5305,15 +5331,15 @@
         <v>10</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>51</v>
@@ -5322,15 +5348,15 @@
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>51</v>
@@ -5339,30 +5365,24 @@
         <v>10</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="13" t="s">
-        <v>388</v>
+      <c r="I104" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5379,7 +5399,7 @@
         <v>392</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>10</v>
@@ -5401,8 +5421,8 @@
       <c r="E106" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>95</v>
+      <c r="G106" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>10</v>
@@ -5425,7 +5445,7 @@
         <v>392</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>10</v>
@@ -5448,7 +5468,7 @@
         <v>392</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>10</v>
@@ -5459,13 +5479,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>392</v>
@@ -5476,36 +5496,39 @@
       <c r="H109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I109" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>344</v>
@@ -5517,165 +5540,156 @@
         <v>10</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F113" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I112" s="15" t="s">
+      <c r="I113" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A113" s="12" t="s">
+    <row r="114" spans="1:9" ht="23.5" customHeight="1">
+      <c r="A114" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B114" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C114" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D114" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>411</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="12" t="s">
-        <v>168</v>
+        <v>413</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>421</v>
+        <v>261</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>411</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>577</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="12"/>
+        <v>168</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="D116" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="1" t="s">
-        <v>61</v>
+        <v>421</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>425</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>428</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>430</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="1" t="s">
         <v>61</v>
       </c>
@@ -5683,85 +5697,91 @@
         <v>10</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B119" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D119" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E119" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="F118" s="20" t="s">
+      <c r="F119" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="G118" s="12" t="s">
+      <c r="G119" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H118" s="12" t="s">
+      <c r="H119" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I118" s="12" t="s">
+      <c r="I119" s="12" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>448</v>
+        <v>358</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5778,7 +5798,7 @@
         <v>448</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>10</v>
@@ -5788,37 +5808,37 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>452</v>
+      <c r="A122" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="13" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>452</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>114</v>
@@ -5827,18 +5847,21 @@
         <v>10</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>461</v>
+      <c r="A124" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>114</v>
@@ -5847,24 +5870,18 @@
         <v>10</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>466</v>
+        <v>459</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>114</v>
@@ -5872,25 +5889,25 @@
       <c r="H125" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I125" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>468</v>
+      <c r="A126" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>114</v>
@@ -5898,78 +5915,80 @@
       <c r="H126" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>470</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F127" s="8"/>
+        <v>471</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="G127" s="1" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="17" t="s">
-        <v>504</v>
+      <c r="I127" s="1" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="13" t="s">
-        <v>481</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F128" s="8"/>
       <c r="G128" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>482</v>
+      <c r="I128" s="17" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="2" t="s">
-        <v>483</v>
+      <c r="A129" s="7" t="s">
+        <v>477</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>486</v>
+        <v>479</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>480</v>
       </c>
       <c r="E129" s="7"/>
+      <c r="F129" s="13" t="s">
+        <v>481</v>
+      </c>
       <c r="G129" s="1" t="s">
         <v>61</v>
       </c>
@@ -5977,53 +5996,48 @@
         <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E130" s="7"/>
       <c r="G130" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I130" s="17" t="s">
-        <v>494</v>
+        <v>10</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="D131" s="2" t="s">
         <v>497</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>498</v>
+      <c r="F131" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>61</v>
@@ -6031,188 +6045,190 @@
       <c r="H131" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>501</v>
+      <c r="I131" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="9" t="s">
-        <v>499</v>
+      <c r="A132" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>496</v>
       </c>
+      <c r="C132" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="D132" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I132" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="10" t="s">
+    <row r="134" spans="1:9">
+      <c r="A134" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="2" t="s">
+      <c r="H134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="18" t="s">
+    <row r="135" spans="1:9">
+      <c r="A135" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="13" t="s">
+    <row r="137" spans="1:9">
+      <c r="A137" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B137" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C137" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D137" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="E136" s="13" t="s">
+      <c r="E137" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13" t="s">
+      <c r="F137" s="13"/>
+      <c r="G137" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H136" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="13" t="s">
+      <c r="H137" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="13" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D139" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="1" t="s">
+      <c r="H139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6233,7 +6249,7 @@
         <v>489</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>10</v>
@@ -6260,7 +6276,7 @@
         <v>489</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>10</v>
@@ -6287,7 +6303,7 @@
         <v>489</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>10</v>
@@ -6314,7 +6330,7 @@
         <v>489</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>10</v>
@@ -6324,46 +6340,47 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I144" t="s">
-        <v>539</v>
+      <c r="A144" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6383,7 +6400,7 @@
         <v>547</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>10</v>
@@ -6409,7 +6426,7 @@
         <v>547</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>574</v>
+        <v>61</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>10</v>
@@ -6434,8 +6451,8 @@
       <c r="E148" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>114</v>
+      <c r="G148" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>10</v>
@@ -6461,7 +6478,7 @@
         <v>547</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>10</v>
@@ -6472,312 +6489,340 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>549</v>
+        <v>579</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>545</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>553</v>
+        <v>10</v>
+      </c>
+      <c r="I150" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>570</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G151" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>560</v>
+        <v>358</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>560</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C155" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D155" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F155" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G155" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="H155" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="I155" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="12" t="s">
+    <row r="156" spans="1:9">
+      <c r="A156" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B156" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D155" s="12" t="s">
+      <c r="D156" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="E155" s="12" t="s">
+      <c r="E156" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="F155" s="20" t="s">
+      <c r="F156" s="20" t="s">
         <v>580</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="H156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I156" s="1" t="s">
+      <c r="H156" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="1" t="s">
         <v>520</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
-    <sortCondition ref="G2:G98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I99">
+    <sortCondition ref="G3:G99"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F56" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C78" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C81" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C65" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D82" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D46" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D96" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D93" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D85" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D49" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D50" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D74" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D58" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D57" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D56" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D55" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D54" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D51" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D59" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D60" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D61" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D62" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D63" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D64" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D65" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D66" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D67" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D68" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D69" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D70" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D71" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D72" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D73" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D75" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D41" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
-    <hyperlink ref="C16" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C93" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D87" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D35" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C35" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C87" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D92" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D47" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C47" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C92" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D28" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C28" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C17" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
-    <hyperlink ref="C104" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
-    <hyperlink ref="C105" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
-    <hyperlink ref="C106" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
-    <hyperlink ref="C107" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
-    <hyperlink ref="C108" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
-    <hyperlink ref="D110" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
-    <hyperlink ref="C112" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
-    <hyperlink ref="F112" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
-    <hyperlink ref="C119" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
-    <hyperlink ref="D123" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
-    <hyperlink ref="D125" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
-    <hyperlink ref="D129" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
-    <hyperlink ref="C126" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
-    <hyperlink ref="C127" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
-    <hyperlink ref="C128" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
-    <hyperlink ref="C125" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
-    <hyperlink ref="C129" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
-    <hyperlink ref="F141" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
-    <hyperlink ref="C141" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
-    <hyperlink ref="F143" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
-    <hyperlink ref="C143" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
-    <hyperlink ref="F142" r:id="rId77" xr:uid="{6E99B26B-E909-48C3-BA3B-0EEAB27C601B}"/>
-    <hyperlink ref="C142" r:id="rId78" xr:uid="{EEB16B9A-E1D2-47F9-8980-91086F1C74C7}"/>
-    <hyperlink ref="F139" r:id="rId79" xr:uid="{68D944DA-C5C2-4839-8C79-F0953BD9134E}"/>
-    <hyperlink ref="C139" r:id="rId80" xr:uid="{E8AB3E9D-8C94-415D-AB28-D7CA4C6F6343}"/>
-    <hyperlink ref="F140" r:id="rId81" xr:uid="{F3CC3505-39D1-4EEA-8FA9-8AAB6F9BF146}"/>
-    <hyperlink ref="C140" r:id="rId82" xr:uid="{7A6FF923-3DFA-4E0B-A15D-03D091C92A64}"/>
-    <hyperlink ref="C131" r:id="rId83" xr:uid="{1FA6BB05-074A-4060-BBBF-C2C63D7C12FC}"/>
-    <hyperlink ref="F130" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
-    <hyperlink ref="F132" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
-    <hyperlink ref="D127" r:id="rId86" xr:uid="{AE4C7754-0BC6-4329-BE3F-677BC8B998A9}"/>
-    <hyperlink ref="D136" r:id="rId87" xr:uid="{9B78D813-C58E-43B6-93FE-BA5C85BE774B}"/>
-    <hyperlink ref="C135" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
-    <hyperlink ref="C136" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
-    <hyperlink ref="D138" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
-    <hyperlink ref="D145" r:id="rId91" xr:uid="{72104B61-6124-4681-83A2-C04FE8A81422}"/>
-    <hyperlink ref="D150" r:id="rId92" xr:uid="{E34F98A6-233F-4D98-AA31-6A6F8739EE10}"/>
-    <hyperlink ref="F150" r:id="rId93" xr:uid="{F2B73996-B1DF-4B50-B7BF-4A8DAC2EBCF8}"/>
-    <hyperlink ref="D151" r:id="rId94" xr:uid="{E9C2E3C3-D837-4EED-B479-25B788589D5C}"/>
-    <hyperlink ref="F152" r:id="rId95" xr:uid="{B8E43DA3-B50D-4D55-8A39-449316C19072}"/>
-    <hyperlink ref="D152" r:id="rId96" xr:uid="{93C67D5A-182E-44E5-98F0-C26DAA38348E}"/>
-    <hyperlink ref="D153" r:id="rId97" xr:uid="{EB6504E0-5D02-48B9-AA8E-AD172B0786CC}"/>
-    <hyperlink ref="F154" r:id="rId98" xr:uid="{F6FEA5C8-2D79-4B3D-8A2D-56E7162EDEEF}"/>
-    <hyperlink ref="D154" r:id="rId99" xr:uid="{5E9ADF47-E415-42D0-96AD-AC14CEFDB46A}"/>
-    <hyperlink ref="C145" r:id="rId100" xr:uid="{8F9F1B99-EA6C-4B9C-A2F0-0A5ADEB1AAC5}"/>
-    <hyperlink ref="C146" r:id="rId101" xr:uid="{7DDADF0B-37EF-456E-A584-90A75DC8E532}"/>
-    <hyperlink ref="C147" r:id="rId102" xr:uid="{4DBCE484-8796-477B-9C75-E13EC16BE78D}"/>
-    <hyperlink ref="C148" r:id="rId103" xr:uid="{4B652928-E776-4C62-81AB-B3F682C91A9B}"/>
-    <hyperlink ref="C149" r:id="rId104" xr:uid="{263071B5-2297-41D5-BD0E-1DD5BC8884ED}"/>
-    <hyperlink ref="D146:D149" r:id="rId105" display="https://www.risse-albany.org/" xr:uid="{281154D0-8EC0-4929-9B07-64C9F15DC597}"/>
-    <hyperlink ref="C150" r:id="rId106" xr:uid="{B16923BE-F0C3-427E-9F10-6F9A519FC287}"/>
-    <hyperlink ref="C152" r:id="rId107" xr:uid="{E132F971-9DCB-4C0F-937B-6476DE4ACCAD}"/>
-    <hyperlink ref="C153" r:id="rId108" xr:uid="{A00E4B55-C978-401C-8846-DB1632284D50}"/>
-    <hyperlink ref="C154" r:id="rId109" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
-    <hyperlink ref="C156" r:id="rId110" xr:uid="{B28590EE-4458-4CAE-AE78-9975E73BC873}"/>
-    <hyperlink ref="D156" r:id="rId111" xr:uid="{1E66DBCC-AB5E-4E32-804B-D7193FA752EE}"/>
-    <hyperlink ref="F118" r:id="rId112" xr:uid="{7369515B-3200-4C5D-8DBA-683E7EA7089D}"/>
-    <hyperlink ref="F155" r:id="rId113" xr:uid="{F7A76B19-1F37-4DF5-BD65-E0CE94052793}"/>
+    <hyperlink ref="F24" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F57" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C79" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C82" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C66" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D83" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
+    <hyperlink ref="D47" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D97" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D94" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D86" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D50" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D51" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D75" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D59" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D24" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D58" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D57" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D56" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D55" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D52" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D60" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D61" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D62" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D63" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D64" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D65" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D66" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D67" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D68" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D69" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D70" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D71" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D72" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D73" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D74" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D76" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D42" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C42" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="C17" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
+    <hyperlink ref="C94" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D88" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D36" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C36" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C88" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D93" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D48" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C48" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C93" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D53" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D54" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D29" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C29" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C18" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="C105" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
+    <hyperlink ref="C106" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
+    <hyperlink ref="C107" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
+    <hyperlink ref="C108" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
+    <hyperlink ref="C109" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
+    <hyperlink ref="D111" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
+    <hyperlink ref="C113" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
+    <hyperlink ref="F113" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
+    <hyperlink ref="C120" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
+    <hyperlink ref="D124" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
+    <hyperlink ref="D126" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
+    <hyperlink ref="D130" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
+    <hyperlink ref="C127" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
+    <hyperlink ref="C128" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
+    <hyperlink ref="C129" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
+    <hyperlink ref="C126" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
+    <hyperlink ref="C130" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
+    <hyperlink ref="F142" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
+    <hyperlink ref="C142" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
+    <hyperlink ref="F144" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
+    <hyperlink ref="C144" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
+    <hyperlink ref="F143" r:id="rId77" xr:uid="{6E99B26B-E909-48C3-BA3B-0EEAB27C601B}"/>
+    <hyperlink ref="C143" r:id="rId78" xr:uid="{EEB16B9A-E1D2-47F9-8980-91086F1C74C7}"/>
+    <hyperlink ref="F140" r:id="rId79" xr:uid="{68D944DA-C5C2-4839-8C79-F0953BD9134E}"/>
+    <hyperlink ref="C140" r:id="rId80" xr:uid="{E8AB3E9D-8C94-415D-AB28-D7CA4C6F6343}"/>
+    <hyperlink ref="F141" r:id="rId81" xr:uid="{F3CC3505-39D1-4EEA-8FA9-8AAB6F9BF146}"/>
+    <hyperlink ref="C141" r:id="rId82" xr:uid="{7A6FF923-3DFA-4E0B-A15D-03D091C92A64}"/>
+    <hyperlink ref="C132" r:id="rId83" xr:uid="{1FA6BB05-074A-4060-BBBF-C2C63D7C12FC}"/>
+    <hyperlink ref="F131" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
+    <hyperlink ref="F133" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
+    <hyperlink ref="D128" r:id="rId86" xr:uid="{AE4C7754-0BC6-4329-BE3F-677BC8B998A9}"/>
+    <hyperlink ref="D137" r:id="rId87" xr:uid="{9B78D813-C58E-43B6-93FE-BA5C85BE774B}"/>
+    <hyperlink ref="C136" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
+    <hyperlink ref="C137" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
+    <hyperlink ref="D139" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
+    <hyperlink ref="D146" r:id="rId91" xr:uid="{72104B61-6124-4681-83A2-C04FE8A81422}"/>
+    <hyperlink ref="D151" r:id="rId92" xr:uid="{E34F98A6-233F-4D98-AA31-6A6F8739EE10}"/>
+    <hyperlink ref="F151" r:id="rId93" xr:uid="{F2B73996-B1DF-4B50-B7BF-4A8DAC2EBCF8}"/>
+    <hyperlink ref="D152" r:id="rId94" xr:uid="{E9C2E3C3-D837-4EED-B479-25B788589D5C}"/>
+    <hyperlink ref="F153" r:id="rId95" xr:uid="{B8E43DA3-B50D-4D55-8A39-449316C19072}"/>
+    <hyperlink ref="D153" r:id="rId96" xr:uid="{93C67D5A-182E-44E5-98F0-C26DAA38348E}"/>
+    <hyperlink ref="D154" r:id="rId97" xr:uid="{EB6504E0-5D02-48B9-AA8E-AD172B0786CC}"/>
+    <hyperlink ref="F155" r:id="rId98" xr:uid="{F6FEA5C8-2D79-4B3D-8A2D-56E7162EDEEF}"/>
+    <hyperlink ref="D155" r:id="rId99" xr:uid="{5E9ADF47-E415-42D0-96AD-AC14CEFDB46A}"/>
+    <hyperlink ref="C146" r:id="rId100" xr:uid="{8F9F1B99-EA6C-4B9C-A2F0-0A5ADEB1AAC5}"/>
+    <hyperlink ref="C147" r:id="rId101" xr:uid="{7DDADF0B-37EF-456E-A584-90A75DC8E532}"/>
+    <hyperlink ref="C148" r:id="rId102" xr:uid="{4DBCE484-8796-477B-9C75-E13EC16BE78D}"/>
+    <hyperlink ref="C149" r:id="rId103" xr:uid="{4B652928-E776-4C62-81AB-B3F682C91A9B}"/>
+    <hyperlink ref="C150" r:id="rId104" xr:uid="{263071B5-2297-41D5-BD0E-1DD5BC8884ED}"/>
+    <hyperlink ref="D147:D150" r:id="rId105" display="https://www.risse-albany.org/" xr:uid="{281154D0-8EC0-4929-9B07-64C9F15DC597}"/>
+    <hyperlink ref="C151" r:id="rId106" xr:uid="{B16923BE-F0C3-427E-9F10-6F9A519FC287}"/>
+    <hyperlink ref="C153" r:id="rId107" xr:uid="{E132F971-9DCB-4C0F-937B-6476DE4ACCAD}"/>
+    <hyperlink ref="C154" r:id="rId108" xr:uid="{A00E4B55-C978-401C-8846-DB1632284D50}"/>
+    <hyperlink ref="C155" r:id="rId109" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
+    <hyperlink ref="C157" r:id="rId110" xr:uid="{B28590EE-4458-4CAE-AE78-9975E73BC873}"/>
+    <hyperlink ref="D157" r:id="rId111" xr:uid="{1E66DBCC-AB5E-4E32-804B-D7193FA752EE}"/>
+    <hyperlink ref="F119" r:id="rId112" xr:uid="{7369515B-3200-4C5D-8DBA-683E7EA7089D}"/>
+    <hyperlink ref="F156" r:id="rId113" xr:uid="{F7A76B19-1F37-4DF5-BD65-E0CE94052793}"/>
+    <hyperlink ref="C2" r:id="rId114" xr:uid="{CB1F7CFA-2403-6F48-960E-3B56F45ABDD5}"/>
+    <hyperlink ref="D2" r:id="rId115" xr:uid="{03986947-738D-514A-88D8-1DF1CD7275FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId114"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId116"/>
 </worksheet>
 </file>
--- a/data-raw/Rolodex.xlsx
+++ b/data-raw/Rolodex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandafowler/Desktop/Shiny ACCESS/rolodex/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Desktop\Shiny_ACCESS\Rolodex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F27919-E672-724D-818F-52C512D8F5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F42B3-08FB-4DC4-94CC-9C52070434F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="1940" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rolodex NEW" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="581">
   <si>
     <t>Name</t>
   </si>
@@ -1828,21 +1828,6 @@
   </si>
   <si>
     <t>ISSS@albany.edu</t>
-  </si>
-  <si>
-    <t>Test Resource</t>
-  </si>
-  <si>
-    <t>123 Main Street</t>
-  </si>
-  <si>
-    <t>tel:5184692831</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
-    <t>This is info to show on the app.</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2406,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2453,7 +2438,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2810,21 +2794,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="96.33203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="25.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="78.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="88.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="96.36328125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="25.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="78.1796875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2858,49 +2842,51 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>581</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>584</v>
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>585</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>270</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -2909,27 +2895,27 @@
         <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>271</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -2938,27 +2924,27 @@
         <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>528</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>272</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -2967,27 +2953,25 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>173</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -2996,12 +2980,12 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>529</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>143</v>
@@ -3010,11 +2994,11 @@
         <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
@@ -3023,12 +3007,12 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>143</v>
@@ -3037,11 +3021,11 @@
         <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -3050,25 +3034,27 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -3077,51 +3063,42 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>274</v>
+        <v>378</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
@@ -3134,13 +3111,10 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>383</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>51</v>
@@ -3148,16 +3122,16 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>330</v>
+      <c r="I12" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>51</v>
@@ -3165,64 +3139,72 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+      <c r="I13" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>379</v>
+        <v>52</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>380</v>
+        <v>53</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>381</v>
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>276</v>
+        <v>151</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3233,24 +3215,19 @@
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
@@ -3258,32 +3235,41 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>333</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>334</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>143</v>
@@ -3307,12 +3293,12 @@
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>143</v>
@@ -3336,12 +3322,12 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>143</v>
@@ -3365,12 +3351,12 @@
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>143</v>
@@ -3394,56 +3380,56 @@
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>278</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>190</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>306</v>
+        <v>270</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>61</v>
@@ -3452,27 +3438,27 @@
         <v>26</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>61</v>
@@ -3481,27 +3467,25 @@
         <v>26</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>61</v>
@@ -3510,46 +3494,42 @@
         <v>26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>67</v>
+        <v>343</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
         <v>345</v>
       </c>
@@ -3557,22 +3537,19 @@
         <v>10</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>346</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>345</v>
       </c>
@@ -3580,18 +3557,15 @@
         <v>10</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>209</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>345</v>
@@ -3599,16 +3573,16 @@
       <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>349</v>
+      <c r="I30" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>345</v>
@@ -3616,64 +3590,76 @@
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>352</v>
+      <c r="I31" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>353</v>
+      <c r="A32" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G32" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>355</v>
+      <c r="H32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>359</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>70</v>
       </c>
@@ -3681,27 +3667,25 @@
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>70</v>
@@ -3710,26 +3694,24 @@
         <v>10</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>70</v>
       </c>
@@ -3737,24 +3719,28 @@
         <v>10</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>70</v>
       </c>
@@ -3762,28 +3748,26 @@
         <v>10</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>70</v>
       </c>
@@ -3791,75 +3775,71 @@
         <v>10</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>266</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>515</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>206</v>
+      <c r="C41" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3870,19 +3850,19 @@
         <v>10</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>208</v>
+      <c r="C42" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3893,21 +3873,23 @@
         <v>10</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
         <v>78</v>
@@ -3916,23 +3898,21 @@
         <v>10</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
         <v>78</v>
@@ -3941,22 +3921,19 @@
         <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>360</v>
+      </c>
       <c r="C45" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>78</v>
       </c>
@@ -3964,41 +3941,46 @@
         <v>10</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>214</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>360</v>
+        <v>140</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>348</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>349</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>323</v>
+        <v>152</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>28</v>
+        <v>327</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -4006,54 +3988,54 @@
         <v>83</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>85</v>
       </c>
@@ -4061,52 +4043,54 @@
         <v>10</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>85</v>
@@ -4115,42 +4099,32 @@
         <v>26</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>93</v>
+        <v>337</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>85</v>
@@ -4159,36 +4133,42 @@
         <v>10</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>339</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4199,22 +4179,24 @@
         <v>10</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>95</v>
       </c>
@@ -4222,24 +4204,22 @@
         <v>10</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
         <v>95</v>
       </c>
@@ -4247,19 +4227,19 @@
         <v>10</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -4270,19 +4250,19 @@
         <v>10</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4293,19 +4273,19 @@
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4316,19 +4296,19 @@
         <v>10</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -4339,19 +4319,19 @@
         <v>10</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4362,19 +4342,19 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4385,19 +4365,19 @@
         <v>10</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -4408,44 +4388,44 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="2" t="s">
-        <v>275</v>
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>293</v>
+        <v>20</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -4456,19 +4436,19 @@
         <v>10</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4479,19 +4459,19 @@
         <v>10</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4502,19 +4482,19 @@
         <v>10</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -4525,19 +4505,19 @@
         <v>10</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>315</v>
+        <v>110</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4548,19 +4528,19 @@
         <v>10</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4571,19 +4551,19 @@
         <v>10</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4594,19 +4574,19 @@
         <v>10</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4617,50 +4597,54 @@
         <v>10</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C74" s="2" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G74" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>216</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>114</v>
@@ -4669,26 +4653,24 @@
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>245</v>
+        <v>296</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
         <v>114</v>
       </c>
@@ -4696,21 +4678,21 @@
         <v>10</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4721,23 +4703,25 @@
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>320</v>
+        <v>250</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E78" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
         <v>114</v>
@@ -4746,25 +4730,23 @@
         <v>10</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>297</v>
+        <v>162</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>252</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
         <v>114</v>
@@ -4773,21 +4755,21 @@
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4803,47 +4785,51 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>299</v>
+        <v>149</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G81" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>255</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>75</v>
+        <v>150</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>114</v>
@@ -4852,27 +4838,27 @@
         <v>26</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>516</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>123</v>
+        <v>300</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>114</v>
@@ -4881,55 +4867,55 @@
         <v>26</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>73</v>
+        <v>294</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F85" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>9</v>
       </c>
@@ -4937,27 +4923,27 @@
         <v>10</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>324</v>
+        <v>154</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>12</v>
+        <v>301</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>9</v>
@@ -4966,27 +4952,25 @@
         <v>10</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>9</v>
@@ -4995,26 +4979,24 @@
         <v>10</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
         <v>9</v>
       </c>
@@ -5022,21 +5004,19 @@
         <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>326</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -5047,19 +5027,19 @@
         <v>10</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -5070,73 +5050,75 @@
         <v>10</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C91" s="2" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5144,77 +5126,77 @@
         <v>9</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C95" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="G95" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>261</v>
+        <v>323</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
         <v>126</v>
       </c>
@@ -5222,21 +5204,19 @@
         <v>26</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>322</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>28</v>
+        <v>288</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5244,85 +5224,79 @@
         <v>126</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C98" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G98" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>214</v>
+      <c r="I98" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>577</v>
+      <c r="A99" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>51</v>
@@ -5331,15 +5305,15 @@
         <v>10</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>51</v>
@@ -5348,15 +5322,15 @@
         <v>10</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>51</v>
@@ -5365,24 +5339,30 @@
         <v>10</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>369</v>
+        <v>385</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>374</v>
+        <v>387</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>375</v>
+      <c r="I104" s="13" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5399,7 +5379,7 @@
         <v>392</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>10</v>
@@ -5421,8 +5401,8 @@
       <c r="E106" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>78</v>
+      <c r="G106" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>10</v>
@@ -5445,7 +5425,7 @@
         <v>392</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>10</v>
@@ -5468,7 +5448,7 @@
         <v>392</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>10</v>
@@ -5479,13 +5459,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>392</v>
@@ -5496,39 +5476,36 @@
       <c r="H109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="13" t="s">
-        <v>388</v>
+      <c r="I109" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>391</v>
+      <c r="A110" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>395</v>
+      <c r="A111" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>344</v>
@@ -5540,156 +5517,165 @@
         <v>10</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E113" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F112" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I113" s="15" t="s">
+      <c r="I112" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="23.5" customHeight="1">
+    <row r="113" spans="1:9" ht="23.5" customHeight="1">
+      <c r="A113" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="12" t="s">
-        <v>84</v>
+        <v>413</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>407</v>
+        <v>414</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>408</v>
+        <v>261</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>411</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="12" t="s">
-        <v>413</v>
+        <v>168</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>261</v>
+        <v>421</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>417</v>
+        <v>125</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>411</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>418</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>420</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>411</v>
+        <v>424</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>577</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="12"/>
+        <v>426</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="D117" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
+        <v>429</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="G117" s="1" t="s">
         <v>61</v>
       </c>
@@ -5697,91 +5683,85 @@
         <v>10</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="12" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>61</v>
+        <v>438</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F119" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H119" s="12" t="s">
+      <c r="A119" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="12" t="s">
-        <v>436</v>
+      <c r="I119" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>442</v>
+        <v>446</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>358</v>
+        <v>448</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5798,7 +5778,7 @@
         <v>448</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>10</v>
@@ -5808,37 +5788,37 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>448</v>
+      <c r="A122" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>452</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="13" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>452</v>
+        <v>455</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>114</v>
@@ -5847,21 +5827,18 @@
         <v>10</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>457</v>
+      <c r="A124" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>114</v>
@@ -5870,18 +5847,24 @@
         <v>10</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>461</v>
+        <v>488</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>114</v>
@@ -5889,25 +5872,25 @@
       <c r="H125" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>463</v>
+      <c r="A126" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="F126" s="16" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>114</v>
@@ -5915,80 +5898,78 @@
       <c r="H126" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I126" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>470</v>
+        <v>473</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>470</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>472</v>
+      <c r="I127" s="17" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F128" s="8"/>
+        <v>477</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="13" t="s">
+        <v>481</v>
+      </c>
       <c r="G128" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I128" s="17" t="s">
-        <v>504</v>
+      <c r="I128" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="7" t="s">
-        <v>477</v>
+      <c r="A129" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>480</v>
+        <v>485</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>486</v>
       </c>
       <c r="E129" s="7"/>
-      <c r="F129" s="13" t="s">
-        <v>481</v>
-      </c>
       <c r="G129" s="1" t="s">
         <v>61</v>
       </c>
@@ -5996,48 +5977,53 @@
         <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E130" s="7"/>
+        <v>496</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G130" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>487</v>
+        <v>26</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>496</v>
       </c>
+      <c r="C131" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="D131" s="2" t="s">
         <v>497</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>49</v>
+      <c r="F131" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>61</v>
@@ -6045,190 +6031,188 @@
       <c r="H131" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I131" s="17" t="s">
-        <v>494</v>
+      <c r="I131" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="2" t="s">
-        <v>495</v>
+      <c r="A132" s="9" t="s">
+        <v>499</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G132" s="1" t="s">
+      <c r="F132" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="9" t="s">
-        <v>499</v>
+      <c r="A133" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>496</v>
+        <v>509</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>49</v>
+        <v>507</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I133" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="I134" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="18" t="s">
-        <v>514</v>
+      <c r="A135" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>526</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>511</v>
+        <v>10</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="2" t="s">
-        <v>517</v>
+      <c r="A136" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>522</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>520</v>
+        <v>527</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H137" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" s="13" t="s">
-        <v>525</v>
+      <c r="A137" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>534</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>345</v>
+        <v>61</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>532</v>
+      <c r="I138" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H139" s="2" t="s">
+      <c r="A139" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6249,7 +6233,7 @@
         <v>489</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>10</v>
@@ -6276,7 +6260,7 @@
         <v>489</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>10</v>
@@ -6303,7 +6287,7 @@
         <v>489</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>10</v>
@@ -6330,7 +6314,7 @@
         <v>489</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>10</v>
@@ -6340,47 +6324,46 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>537</v>
+      <c r="A144" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="2" t="s">
-        <v>538</v>
+        <v>579</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>569</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>578</v>
+        <v>546</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6400,7 +6383,7 @@
         <v>547</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>10</v>
@@ -6426,7 +6409,7 @@
         <v>547</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>61</v>
+        <v>574</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>10</v>
@@ -6451,8 +6434,8 @@
       <c r="E148" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>574</v>
+      <c r="G148" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>10</v>
@@ -6478,7 +6461,7 @@
         <v>547</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>10</v>
@@ -6489,340 +6472,312 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>545</v>
+        <v>540</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>552</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I150" t="s">
-        <v>548</v>
+        <v>26</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="G151" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>571</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>358</v>
+        <v>559</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>560</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>567</v>
+      <c r="A155" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H155" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>568</v>
+      <c r="I155" s="12" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F156" s="20" t="s">
-        <v>580</v>
+      <c r="A156" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="H156" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I156" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I157" s="1" t="s">
+      <c r="H156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>520</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I99">
-    <sortCondition ref="G3:G99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
+    <sortCondition ref="G2:G98"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F24" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
-    <hyperlink ref="F57" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
-    <hyperlink ref="C79" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
-    <hyperlink ref="C82" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
-    <hyperlink ref="C66" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
-    <hyperlink ref="D83" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
-    <hyperlink ref="D47" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
-    <hyperlink ref="D97" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
-    <hyperlink ref="D94" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
-    <hyperlink ref="D86" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
-    <hyperlink ref="D50" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
-    <hyperlink ref="D51" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
-    <hyperlink ref="D75" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
-    <hyperlink ref="D59" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
-    <hyperlink ref="D24" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
-    <hyperlink ref="D58" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
-    <hyperlink ref="D57" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
-    <hyperlink ref="D56" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
-    <hyperlink ref="D55" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
-    <hyperlink ref="D52" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
-    <hyperlink ref="D60" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
-    <hyperlink ref="D61" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
-    <hyperlink ref="D62" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
-    <hyperlink ref="D63" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
-    <hyperlink ref="D64" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
-    <hyperlink ref="D65" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
-    <hyperlink ref="D66" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
-    <hyperlink ref="D67" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
-    <hyperlink ref="D68" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
-    <hyperlink ref="D69" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
-    <hyperlink ref="D70" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
-    <hyperlink ref="D71" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
-    <hyperlink ref="D72" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
-    <hyperlink ref="D73" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
-    <hyperlink ref="D74" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
-    <hyperlink ref="D76" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
-    <hyperlink ref="D42" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
-    <hyperlink ref="C42" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
-    <hyperlink ref="C17" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
-    <hyperlink ref="C94" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
-    <hyperlink ref="D88" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
-    <hyperlink ref="D36" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
-    <hyperlink ref="C36" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
-    <hyperlink ref="C88" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
-    <hyperlink ref="D93" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
-    <hyperlink ref="D48" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
-    <hyperlink ref="C48" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
-    <hyperlink ref="C93" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
-    <hyperlink ref="D53" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
-    <hyperlink ref="D54" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
-    <hyperlink ref="D29" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
-    <hyperlink ref="C29" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
-    <hyperlink ref="C18" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
-    <hyperlink ref="C105" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
-    <hyperlink ref="C106" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
-    <hyperlink ref="C107" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
-    <hyperlink ref="C108" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
-    <hyperlink ref="C109" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
-    <hyperlink ref="D111" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
-    <hyperlink ref="C113" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
-    <hyperlink ref="F113" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
-    <hyperlink ref="C120" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
-    <hyperlink ref="D124" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
-    <hyperlink ref="D126" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
-    <hyperlink ref="D130" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
-    <hyperlink ref="C127" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
-    <hyperlink ref="C128" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
-    <hyperlink ref="C129" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
-    <hyperlink ref="C126" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
-    <hyperlink ref="C130" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
-    <hyperlink ref="F142" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
-    <hyperlink ref="C142" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
-    <hyperlink ref="F144" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
-    <hyperlink ref="C144" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
-    <hyperlink ref="F143" r:id="rId77" xr:uid="{6E99B26B-E909-48C3-BA3B-0EEAB27C601B}"/>
-    <hyperlink ref="C143" r:id="rId78" xr:uid="{EEB16B9A-E1D2-47F9-8980-91086F1C74C7}"/>
-    <hyperlink ref="F140" r:id="rId79" xr:uid="{68D944DA-C5C2-4839-8C79-F0953BD9134E}"/>
-    <hyperlink ref="C140" r:id="rId80" xr:uid="{E8AB3E9D-8C94-415D-AB28-D7CA4C6F6343}"/>
-    <hyperlink ref="F141" r:id="rId81" xr:uid="{F3CC3505-39D1-4EEA-8FA9-8AAB6F9BF146}"/>
-    <hyperlink ref="C141" r:id="rId82" xr:uid="{7A6FF923-3DFA-4E0B-A15D-03D091C92A64}"/>
-    <hyperlink ref="C132" r:id="rId83" xr:uid="{1FA6BB05-074A-4060-BBBF-C2C63D7C12FC}"/>
-    <hyperlink ref="F131" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
-    <hyperlink ref="F133" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
-    <hyperlink ref="D128" r:id="rId86" xr:uid="{AE4C7754-0BC6-4329-BE3F-677BC8B998A9}"/>
-    <hyperlink ref="D137" r:id="rId87" xr:uid="{9B78D813-C58E-43B6-93FE-BA5C85BE774B}"/>
-    <hyperlink ref="C136" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
-    <hyperlink ref="C137" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
-    <hyperlink ref="D139" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
-    <hyperlink ref="D146" r:id="rId91" xr:uid="{72104B61-6124-4681-83A2-C04FE8A81422}"/>
-    <hyperlink ref="D151" r:id="rId92" xr:uid="{E34F98A6-233F-4D98-AA31-6A6F8739EE10}"/>
-    <hyperlink ref="F151" r:id="rId93" xr:uid="{F2B73996-B1DF-4B50-B7BF-4A8DAC2EBCF8}"/>
-    <hyperlink ref="D152" r:id="rId94" xr:uid="{E9C2E3C3-D837-4EED-B479-25B788589D5C}"/>
-    <hyperlink ref="F153" r:id="rId95" xr:uid="{B8E43DA3-B50D-4D55-8A39-449316C19072}"/>
-    <hyperlink ref="D153" r:id="rId96" xr:uid="{93C67D5A-182E-44E5-98F0-C26DAA38348E}"/>
-    <hyperlink ref="D154" r:id="rId97" xr:uid="{EB6504E0-5D02-48B9-AA8E-AD172B0786CC}"/>
-    <hyperlink ref="F155" r:id="rId98" xr:uid="{F6FEA5C8-2D79-4B3D-8A2D-56E7162EDEEF}"/>
-    <hyperlink ref="D155" r:id="rId99" xr:uid="{5E9ADF47-E415-42D0-96AD-AC14CEFDB46A}"/>
-    <hyperlink ref="C146" r:id="rId100" xr:uid="{8F9F1B99-EA6C-4B9C-A2F0-0A5ADEB1AAC5}"/>
-    <hyperlink ref="C147" r:id="rId101" xr:uid="{7DDADF0B-37EF-456E-A584-90A75DC8E532}"/>
-    <hyperlink ref="C148" r:id="rId102" xr:uid="{4DBCE484-8796-477B-9C75-E13EC16BE78D}"/>
-    <hyperlink ref="C149" r:id="rId103" xr:uid="{4B652928-E776-4C62-81AB-B3F682C91A9B}"/>
-    <hyperlink ref="C150" r:id="rId104" xr:uid="{263071B5-2297-41D5-BD0E-1DD5BC8884ED}"/>
-    <hyperlink ref="D147:D150" r:id="rId105" display="https://www.risse-albany.org/" xr:uid="{281154D0-8EC0-4929-9B07-64C9F15DC597}"/>
-    <hyperlink ref="C151" r:id="rId106" xr:uid="{B16923BE-F0C3-427E-9F10-6F9A519FC287}"/>
-    <hyperlink ref="C153" r:id="rId107" xr:uid="{E132F971-9DCB-4C0F-937B-6476DE4ACCAD}"/>
-    <hyperlink ref="C154" r:id="rId108" xr:uid="{A00E4B55-C978-401C-8846-DB1632284D50}"/>
-    <hyperlink ref="C155" r:id="rId109" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
-    <hyperlink ref="C157" r:id="rId110" xr:uid="{B28590EE-4458-4CAE-AE78-9975E73BC873}"/>
-    <hyperlink ref="D157" r:id="rId111" xr:uid="{1E66DBCC-AB5E-4E32-804B-D7193FA752EE}"/>
-    <hyperlink ref="F119" r:id="rId112" xr:uid="{7369515B-3200-4C5D-8DBA-683E7EA7089D}"/>
-    <hyperlink ref="F156" r:id="rId113" xr:uid="{F7A76B19-1F37-4DF5-BD65-E0CE94052793}"/>
-    <hyperlink ref="C2" r:id="rId114" xr:uid="{CB1F7CFA-2403-6F48-960E-3B56F45ABDD5}"/>
-    <hyperlink ref="D2" r:id="rId115" xr:uid="{03986947-738D-514A-88D8-1DF1CD7275FD}"/>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{56461029-F272-40B0-AA7C-85F66C5CF6EB}"/>
+    <hyperlink ref="F56" r:id="rId2" xr:uid="{94D7D8F8-44B5-447E-9A32-9F64E5CCF3FA}"/>
+    <hyperlink ref="C78" r:id="rId3" xr:uid="{777A5BAE-8D61-4AA7-9259-E54BD1FDBE70}"/>
+    <hyperlink ref="C81" r:id="rId4" xr:uid="{FD026EBB-4302-4206-B780-7E1F91763261}"/>
+    <hyperlink ref="C65" r:id="rId5" xr:uid="{8966019B-4C3B-4F02-A071-5411CA74F3F8}"/>
+    <hyperlink ref="D82" r:id="rId6" xr:uid="{F64C67D3-CAF8-47D7-9BBD-60BA8702A9B2}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{5E75608C-EF4E-4E89-BFD2-9C98C2096B20}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{5E90B8DC-AD77-4B67-993E-32CF4C9CFD26}"/>
+    <hyperlink ref="D46" r:id="rId9" xr:uid="{097C0E3E-0A06-4C08-8729-6EE0824D62F8}"/>
+    <hyperlink ref="D96" r:id="rId10" xr:uid="{6FC1A61E-CA39-4E3B-A451-51C002A830C8}"/>
+    <hyperlink ref="D93" r:id="rId11" xr:uid="{AF63B350-6BD5-4890-B968-9E23CBF2D9C4}"/>
+    <hyperlink ref="D85" r:id="rId12" xr:uid="{68410040-0123-49F9-AD96-D8FBAF000148}"/>
+    <hyperlink ref="D49" r:id="rId13" location="programs " xr:uid="{9E90FFD4-3789-45CA-8EE0-D02F471C3648}"/>
+    <hyperlink ref="D50" r:id="rId14" xr:uid="{5DADD7F9-891C-4DA9-8630-2E4F57BA4BB0}"/>
+    <hyperlink ref="D74" r:id="rId15" xr:uid="{E7FCC05F-E0C4-4B4B-9BF6-3D5388C2BBD3}"/>
+    <hyperlink ref="D58" r:id="rId16" xr:uid="{BA7221EF-B2F7-48AC-BA37-4D01E6B77745}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{94B72A5A-DA9F-4A49-B6D6-869D1EB3A773}"/>
+    <hyperlink ref="D57" r:id="rId18" xr:uid="{D1114FE8-20D3-4F80-B444-5686CFBB7223}"/>
+    <hyperlink ref="D56" r:id="rId19" xr:uid="{4A5896AC-FF3D-4F52-9EEA-57FA7C298A0F}"/>
+    <hyperlink ref="D55" r:id="rId20" xr:uid="{EB5F5F74-D4A1-4286-B2C3-3B240C8A0B3A}"/>
+    <hyperlink ref="D54" r:id="rId21" xr:uid="{A4E9F103-D8DF-4A08-B73B-82C9402281E0}"/>
+    <hyperlink ref="D51" r:id="rId22" xr:uid="{7C9B8008-6FC3-4D8B-9FAC-859864B3CCA6}"/>
+    <hyperlink ref="D59" r:id="rId23" xr:uid="{8B92366E-1104-40D7-B41A-5F9D960F675C}"/>
+    <hyperlink ref="D60" r:id="rId24" xr:uid="{BA61B788-1EE1-4D0A-BE68-5496335960B2}"/>
+    <hyperlink ref="D61" r:id="rId25" xr:uid="{788ED0D2-F799-42C7-BE70-26DAA5615100}"/>
+    <hyperlink ref="D62" r:id="rId26" xr:uid="{5315C9E9-D76A-423C-BFE1-AF451A0BCC1E}"/>
+    <hyperlink ref="D63" r:id="rId27" xr:uid="{BC82856E-908A-45D9-A41B-408B8FC5E720}"/>
+    <hyperlink ref="D64" r:id="rId28" xr:uid="{BFEA5820-6FEF-4AB5-AFDC-035AB404A7DA}"/>
+    <hyperlink ref="D65" r:id="rId29" xr:uid="{76669F61-A905-4387-B0E8-34E4D1366C7B}"/>
+    <hyperlink ref="D66" r:id="rId30" xr:uid="{74F9C236-EE46-491C-BF5A-2DFA889F7A26}"/>
+    <hyperlink ref="D67" r:id="rId31" xr:uid="{C8AC3248-2D61-4C9F-9CC4-96E24312EBEA}"/>
+    <hyperlink ref="D68" r:id="rId32" xr:uid="{B26C8AAE-4B11-4F8E-B74E-F7458BF05D09}"/>
+    <hyperlink ref="D69" r:id="rId33" xr:uid="{2A1A49A2-F37D-4774-AE8D-F594F26111D7}"/>
+    <hyperlink ref="D70" r:id="rId34" xr:uid="{9B7A9104-CDE8-4FC8-A2F3-845B8C3DB23E}"/>
+    <hyperlink ref="D71" r:id="rId35" xr:uid="{CF5BDF24-B56F-4FFF-B0DB-92F7D035BE83}"/>
+    <hyperlink ref="D72" r:id="rId36" xr:uid="{42118767-4820-49B5-A394-949C14367612}"/>
+    <hyperlink ref="D73" r:id="rId37" xr:uid="{B2C0A57F-0293-4754-8D4A-7C784AF7C213}"/>
+    <hyperlink ref="D75" r:id="rId38" xr:uid="{D07F3365-A219-44A8-BDED-0A41BC7D7571}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{019C03B9-1170-401E-B03B-C29FC6CF108A}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{33BA4AA8-12EB-4D42-B2D2-FB4088026AE5}"/>
+    <hyperlink ref="C16" r:id="rId41" xr:uid="{05C5E1C3-5F61-4D07-9629-20A9D90C9635}"/>
+    <hyperlink ref="C93" r:id="rId42" xr:uid="{FDB1E1E6-ADD8-4564-8753-565B078034C8}"/>
+    <hyperlink ref="D87" r:id="rId43" xr:uid="{D469BF19-F67A-4157-A0FF-1AA4B9E0BF23}"/>
+    <hyperlink ref="D35" r:id="rId44" xr:uid="{D2E0A897-D81C-4125-9C47-3A8C879089DB}"/>
+    <hyperlink ref="C35" r:id="rId45" xr:uid="{B62AA879-0896-4DFB-BBCE-B7490B146B3E}"/>
+    <hyperlink ref="C87" r:id="rId46" xr:uid="{9F59640A-1CEF-4A8B-B161-21254F4837CD}"/>
+    <hyperlink ref="D92" r:id="rId47" xr:uid="{863F960F-332F-4E54-B6FE-24604DF43AE0}"/>
+    <hyperlink ref="D47" r:id="rId48" xr:uid="{1625DFE4-6C48-4A82-8811-F4EEB64C2D2F}"/>
+    <hyperlink ref="C47" r:id="rId49" xr:uid="{7C99B3A7-0A0D-4CE1-93C6-1839F51BF301}"/>
+    <hyperlink ref="C92" r:id="rId50" xr:uid="{450BC70E-87BA-43CB-B09E-27FB7290B23E}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{968FB6ED-3EE3-4000-9ED4-DED4170844E0}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{F95FFAFA-D649-4148-ACBF-893459976BA3}"/>
+    <hyperlink ref="D28" r:id="rId53" xr:uid="{867A5CA1-DED0-4BC8-AA9D-0AC38C76154A}"/>
+    <hyperlink ref="C28" r:id="rId54" xr:uid="{33C23722-2292-452E-A86A-F2FF5F22AC03}"/>
+    <hyperlink ref="C17" r:id="rId55" xr:uid="{F89D664A-980E-4238-B48D-9E9A504E1383}"/>
+    <hyperlink ref="C104" r:id="rId56" xr:uid="{51C929CE-DB05-4DB6-84D8-85DAEC31CA86}"/>
+    <hyperlink ref="C105" r:id="rId57" xr:uid="{9F47A25C-362F-482B-B273-28CEF5F32C42}"/>
+    <hyperlink ref="C106" r:id="rId58" xr:uid="{64711161-99CC-43DD-9210-5E37A90E2DC5}"/>
+    <hyperlink ref="C107" r:id="rId59" xr:uid="{DF29EEE0-9F8D-4CF7-A923-7DC294F875C1}"/>
+    <hyperlink ref="C108" r:id="rId60" xr:uid="{81445D97-055E-4976-A30D-35BCE81CA70D}"/>
+    <hyperlink ref="D110" r:id="rId61" xr:uid="{693DB290-21F0-4514-9B8B-A8622C7B663B}"/>
+    <hyperlink ref="C112" r:id="rId62" xr:uid="{D55A67DC-BCF5-42B3-A86F-2339F8569063}"/>
+    <hyperlink ref="F112" r:id="rId63" display="mailto:career@albany.edu" xr:uid="{3D51B50C-49E6-4748-8F93-05F06C5C84BC}"/>
+    <hyperlink ref="C119" r:id="rId64" xr:uid="{FCB186DB-E4AB-43E4-9D1F-D223B2641022}"/>
+    <hyperlink ref="D123" r:id="rId65" xr:uid="{480FDF2F-7B59-4251-810C-73628BB15F67}"/>
+    <hyperlink ref="D125" r:id="rId66" xr:uid="{782AF740-7E61-4A73-AC61-FACCA8448159}"/>
+    <hyperlink ref="D129" r:id="rId67" xr:uid="{E8D15C86-B9A2-49FC-8FBA-DD6355B5091B}"/>
+    <hyperlink ref="C126" r:id="rId68" xr:uid="{604F38FE-1039-4EE3-8E74-8165B8FF8430}"/>
+    <hyperlink ref="C127" r:id="rId69" xr:uid="{F0014F07-00B7-439A-9BE1-6BAE3ECD85AC}"/>
+    <hyperlink ref="C128" r:id="rId70" xr:uid="{82004575-EEEF-4DDF-972C-9340A1AA43F5}"/>
+    <hyperlink ref="C125" r:id="rId71" xr:uid="{74182992-2721-4728-8FE1-43CF72383D38}"/>
+    <hyperlink ref="C129" r:id="rId72" xr:uid="{7EBFD176-16F3-4D24-9E15-870D3D96750B}"/>
+    <hyperlink ref="F141" r:id="rId73" xr:uid="{0F9AD5BE-0C46-4CBA-ABED-01801389D4B4}"/>
+    <hyperlink ref="C141" r:id="rId74" xr:uid="{7488EE3C-4876-41B7-AD1C-E59148EF5C60}"/>
+    <hyperlink ref="F143" r:id="rId75" xr:uid="{94D425E2-BDB7-40FE-AC8D-A0E405381B9B}"/>
+    <hyperlink ref="C143" r:id="rId76" xr:uid="{8771AA61-5955-4023-916F-EA0D148D2A7D}"/>
+    <hyperlink ref="F142" r:id="rId77" xr:uid="{6E99B26B-E909-48C3-BA3B-0EEAB27C601B}"/>
+    <hyperlink ref="C142" r:id="rId78" xr:uid="{EEB16B9A-E1D2-47F9-8980-91086F1C74C7}"/>
+    <hyperlink ref="F139" r:id="rId79" xr:uid="{68D944DA-C5C2-4839-8C79-F0953BD9134E}"/>
+    <hyperlink ref="C139" r:id="rId80" xr:uid="{E8AB3E9D-8C94-415D-AB28-D7CA4C6F6343}"/>
+    <hyperlink ref="F140" r:id="rId81" xr:uid="{F3CC3505-39D1-4EEA-8FA9-8AAB6F9BF146}"/>
+    <hyperlink ref="C140" r:id="rId82" xr:uid="{7A6FF923-3DFA-4E0B-A15D-03D091C92A64}"/>
+    <hyperlink ref="C131" r:id="rId83" xr:uid="{1FA6BB05-074A-4060-BBBF-C2C63D7C12FC}"/>
+    <hyperlink ref="F130" r:id="rId84" xr:uid="{59790EAE-256A-42B0-A297-EC57CF947976}"/>
+    <hyperlink ref="F132" r:id="rId85" xr:uid="{F171B7C9-73EF-4309-8CB2-15FCE8C2CC9E}"/>
+    <hyperlink ref="D127" r:id="rId86" xr:uid="{AE4C7754-0BC6-4329-BE3F-677BC8B998A9}"/>
+    <hyperlink ref="D136" r:id="rId87" xr:uid="{9B78D813-C58E-43B6-93FE-BA5C85BE774B}"/>
+    <hyperlink ref="C135" r:id="rId88" xr:uid="{5EA92CD5-A670-4F7D-BE25-D144C30E8390}"/>
+    <hyperlink ref="C136" r:id="rId89" xr:uid="{04A96344-FBF4-45CD-BF8A-74E2E9E7A1D4}"/>
+    <hyperlink ref="D138" r:id="rId90" xr:uid="{E6E27C26-8B3F-4E6E-A7F0-56D080F5A059}"/>
+    <hyperlink ref="D145" r:id="rId91" xr:uid="{72104B61-6124-4681-83A2-C04FE8A81422}"/>
+    <hyperlink ref="D150" r:id="rId92" xr:uid="{E34F98A6-233F-4D98-AA31-6A6F8739EE10}"/>
+    <hyperlink ref="F150" r:id="rId93" xr:uid="{F2B73996-B1DF-4B50-B7BF-4A8DAC2EBCF8}"/>
+    <hyperlink ref="D151" r:id="rId94" xr:uid="{E9C2E3C3-D837-4EED-B479-25B788589D5C}"/>
+    <hyperlink ref="F152" r:id="rId95" xr:uid="{B8E43DA3-B50D-4D55-8A39-449316C19072}"/>
+    <hyperlink ref="D152" r:id="rId96" xr:uid="{93C67D5A-182E-44E5-98F0-C26DAA38348E}"/>
+    <hyperlink ref="D153" r:id="rId97" xr:uid="{EB6504E0-5D02-48B9-AA8E-AD172B0786CC}"/>
+    <hyperlink ref="F154" r:id="rId98" xr:uid="{F6FEA5C8-2D79-4B3D-8A2D-56E7162EDEEF}"/>
+    <hyperlink ref="D154" r:id="rId99" xr:uid="{5E9ADF47-E415-42D0-96AD-AC14CEFDB46A}"/>
+    <hyperlink ref="C145" r:id="rId100" xr:uid="{8F9F1B99-EA6C-4B9C-A2F0-0A5ADEB1AAC5}"/>
+    <hyperlink ref="C146" r:id="rId101" xr:uid="{7DDADF0B-37EF-456E-A584-90A75DC8E532}"/>
+    <hyperlink ref="C147" r:id="rId102" xr:uid="{4DBCE484-8796-477B-9C75-E13EC16BE78D}"/>
+    <hyperlink ref="C148" r:id="rId103" xr:uid="{4B652928-E776-4C62-81AB-B3F682C91A9B}"/>
+    <hyperlink ref="C149" r:id="rId104" xr:uid="{263071B5-2297-41D5-BD0E-1DD5BC8884ED}"/>
+    <hyperlink ref="D146:D149" r:id="rId105" display="https://www.risse-albany.org/" xr:uid="{281154D0-8EC0-4929-9B07-64C9F15DC597}"/>
+    <hyperlink ref="C150" r:id="rId106" xr:uid="{B16923BE-F0C3-427E-9F10-6F9A519FC287}"/>
+    <hyperlink ref="C152" r:id="rId107" xr:uid="{E132F971-9DCB-4C0F-937B-6476DE4ACCAD}"/>
+    <hyperlink ref="C153" r:id="rId108" xr:uid="{A00E4B55-C978-401C-8846-DB1632284D50}"/>
+    <hyperlink ref="C154" r:id="rId109" xr:uid="{7C2DE1D7-47ED-40CF-937D-415B2488F028}"/>
+    <hyperlink ref="C156" r:id="rId110" xr:uid="{B28590EE-4458-4CAE-AE78-9975E73BC873}"/>
+    <hyperlink ref="D156" r:id="rId111" xr:uid="{1E66DBCC-AB5E-4E32-804B-D7193FA752EE}"/>
+    <hyperlink ref="F118" r:id="rId112" xr:uid="{7369515B-3200-4C5D-8DBA-683E7EA7089D}"/>
+    <hyperlink ref="F155" r:id="rId113" xr:uid="{F7A76B19-1F37-4DF5-BD65-E0CE94052793}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId116"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId114"/>
 </worksheet>
 </file>